--- a/HTML/0 Excel SRC Files/3 Excel.xlsx
+++ b/HTML/0 Excel SRC Files/3 Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DA0E74-6821-49BF-B9F9-954D21AED700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374EE87A-DDD4-4EC4-AF81-F90AF5EA2854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" tabRatio="899" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,6 +42,7 @@
     <sheet name="Advise1" sheetId="28" r:id="rId27"/>
     <sheet name="AVG" sheetId="29" r:id="rId28"/>
     <sheet name="Law" sheetId="30" r:id="rId29"/>
+    <sheet name="FL" sheetId="32" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="697">
   <si>
     <t>البيت الكبير</t>
   </si>
@@ -276,9 +277,6 @@
     <t>هيثم طلعت</t>
   </si>
   <si>
-    <t>ابو علياء</t>
-  </si>
-  <si>
     <t>جهاد حافظ</t>
   </si>
   <si>
@@ -324,9 +322,6 @@
     <t>سعيد الكملي</t>
   </si>
   <si>
-    <t>محمد شمس</t>
-  </si>
-  <si>
     <t>بالعقل مع حسام</t>
   </si>
   <si>
@@ -454,12 +449,6 @@
   </si>
   <si>
     <t>7ESL Learning English</t>
-  </si>
-  <si>
-    <t>سمير مصطفى</t>
-  </si>
-  <si>
-    <t>محمود سمير</t>
   </si>
   <si>
     <t>Google Alerts</t>
@@ -2129,12 +2118,113 @@
   <si>
     <t>Jobs</t>
   </si>
+  <si>
+    <t>Freelancer</t>
+  </si>
+  <si>
+    <t>99 Designs</t>
+  </si>
+  <si>
+    <t>Behance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designers </t>
+  </si>
+  <si>
+    <t>أبو العباقره</t>
+  </si>
+  <si>
+    <t>Mounis Firwana</t>
+  </si>
+  <si>
+    <t>Learn With Marie TIKTOK</t>
+  </si>
+  <si>
+    <t>فكرة 
+ صهيب الدسوقي</t>
+  </si>
+  <si>
+    <t>وليد طه</t>
+  </si>
+  <si>
+    <t>Learn With 
+Marie</t>
+  </si>
+  <si>
+    <t>Freelancer People</t>
+  </si>
+  <si>
+    <t>Freelance Me</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t>Rev</t>
+  </si>
+  <si>
+    <t>Go Transcript</t>
+  </si>
+  <si>
+    <t>Scribie</t>
+  </si>
+  <si>
+    <t>Happy Scribe</t>
+  </si>
+  <si>
+    <t>transcription</t>
+  </si>
+  <si>
+    <t>مستقل</t>
+  </si>
+  <si>
+    <t>خمسات</t>
+  </si>
+  <si>
+    <t>عربي</t>
+  </si>
+  <si>
+    <t>Upwork Egypt</t>
+  </si>
+  <si>
+    <t>Best Company</t>
+  </si>
+  <si>
+    <t>People/Hour</t>
+  </si>
+  <si>
+    <t>Flex Jobs</t>
+  </si>
+  <si>
+    <t>Jooble</t>
+  </si>
+  <si>
+    <t>Worxmart</t>
+  </si>
+  <si>
+    <t>crowded</t>
+  </si>
+  <si>
+    <t>Toptal</t>
+  </si>
+  <si>
+    <t>Guru</t>
+  </si>
+  <si>
+    <t>Fiverr</t>
+  </si>
+  <si>
+    <t>Up Work</t>
+  </si>
+  <si>
+    <t>[Freelance]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2491,8 +2581,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2613,6 +2726,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="52">
     <border>
@@ -3294,7 +3413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3313,9 +3432,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3893,6 +4009,9 @@
     <xf numFmtId="0" fontId="29" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3926,9 +4045,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3991,6 +4107,36 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="21" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4764,7 +4910,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4780,87 +4926,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21">
+      <c r="A1" s="20">
         <v>1</v>
       </c>
-      <c r="B1" s="21">
+      <c r="B1" s="20">
         <v>2</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>633</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>632</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>654</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>634</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>667</v>
+      <c r="C1" s="20" t="s">
+        <v>629</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>628</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="184" t="s">
-        <v>641</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+        <v>190</v>
+      </c>
+      <c r="C2" s="183" t="s">
+        <v>637</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="19" t="s">
-        <v>135</v>
+      <c r="H2" s="18" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="19" t="s">
-        <v>195</v>
+      <c r="H3" s="18" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="20"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="19" t="s">
-        <v>140</v>
+      <c r="H4" s="18" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="19" t="s">
-        <v>133</v>
+      <c r="H5" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4871,56 +5017,58 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="184" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>159</v>
+      <c r="F7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>631</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>632</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>635</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>636</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>640</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>639</v>
-      </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
+        <v>634</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>633</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>638</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>637</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4950,8 +5098,8 @@
     <hyperlink ref="C7" r:id="rId11" display="https://cleanup.pictures/" xr:uid="{3F6CD886-2776-4BFC-9B45-1B265A0CF030}"/>
     <hyperlink ref="H4" location="Law!A1" display="[Law]" xr:uid="{0C0AE0C9-22E6-439D-8683-807AF6C40C13}"/>
     <hyperlink ref="H2" location="Helath!A1" display="[Health]" xr:uid="{CE52743F-A90D-4DCA-BDC0-5EAF4BCBFF5C}"/>
-    <hyperlink ref="H6" r:id="rId12" display="https://mcit.gov.eg/" xr:uid="{13083B6B-62C6-4508-977C-252D35DE35D8}"/>
-    <hyperlink ref="H7" r:id="rId13" display="https://ncedc.gov.eg/Home/Invoice" xr:uid="{9C581524-E056-40AE-89CD-431E9667EA73}"/>
+    <hyperlink ref="G7" r:id="rId12" display="https://mcit.gov.eg/" xr:uid="{13083B6B-62C6-4508-977C-252D35DE35D8}"/>
+    <hyperlink ref="F7" r:id="rId13" display="https://ncedc.gov.eg/Home/Invoice" xr:uid="{9C581524-E056-40AE-89CD-431E9667EA73}"/>
     <hyperlink ref="A7" r:id="rId14" display="http://www.gcwc.com.eg/" xr:uid="{FDD6EAF8-462A-4E72-8659-0FF0A92E26F5}"/>
     <hyperlink ref="G8" location="'influencer '!A1" display="influencer " xr:uid="{A3888F0B-3845-41C2-83E5-08F2671FC187}"/>
     <hyperlink ref="G1" location="Retail!A1" display="[Retail]" xr:uid="{F16F343A-64FB-4A1A-84A6-2B5979677C7D}"/>
@@ -4962,6 +5110,7 @@
     <hyperlink ref="D1" location="Home!A1" display="Real State" xr:uid="{8DC433BC-CEA1-42E3-BB48-DDDCCCF53C86}"/>
     <hyperlink ref="F1" location="Inside!A1" display="Inside" xr:uid="{9E119639-1878-44FC-9553-FA20D8EDDF7F}"/>
     <hyperlink ref="D8" location="Lib!A1" display="Library" xr:uid="{1B3F76CA-2136-45B1-8723-4D2B619E52BF}"/>
+    <hyperlink ref="H7" location="FL!A1" display="[Freelance]" xr:uid="{799980D9-B524-48BA-A56B-E3B4855132DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>
@@ -5004,8 +5153,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="18" t="s">
-        <v>84</v>
+      <c r="I2" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
@@ -5195,22 +5344,22 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -5222,22 +5371,22 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -5388,76 +5537,76 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.140625" defaultRowHeight="68.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="36.140625" style="15"/>
+    <col min="1" max="16384" width="36.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="18" t="s">
-        <v>84</v>
+      <c r="F1" s="13"/>
+      <c r="G1" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -5466,77 +5615,77 @@
     </row>
     <row r="5" spans="1:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5600,54 +5749,54 @@
   <sheetData>
     <row r="1" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="18" t="s">
-        <v>84</v>
+      <c r="E1" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -5655,28 +5804,28 @@
     <row r="5" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -5715,314 +5864,314 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="27" style="23" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" style="23" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" style="23" customWidth="1"/>
-    <col min="9" max="16384" width="24.7109375" style="23"/>
+    <col min="1" max="1" width="31.7109375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="27" style="22" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="24.7109375" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="I1" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="I1" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="I2" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="E2" s="22" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="D3" s="21" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="I3" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="E3" s="22" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="I3" s="24" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="185"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="187"/>
+    </row>
+    <row r="6" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="186"/>
-      <c r="B5" s="187"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="188"/>
-    </row>
-    <row r="6" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+    <row r="7" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="185"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="187"/>
+    </row>
+    <row r="8" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="186"/>
-      <c r="B7" s="187"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="188"/>
-    </row>
-    <row r="8" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="F8" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="D8" s="22" t="s">
+    </row>
+    <row r="9" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="G9" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="D9" s="22" t="s">
+    </row>
+    <row r="10" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="185"/>
+      <c r="B10" s="186"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="187"/>
+    </row>
+    <row r="11" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="186"/>
-      <c r="B10" s="187"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="188"/>
-    </row>
-    <row r="11" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="F11" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="G11" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="D11" s="22" t="s">
+    </row>
+    <row r="12" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="C12" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="D12" s="24" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="E12" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="F12" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="G12" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="D12" s="25" t="s">
+    </row>
+    <row r="13" spans="1:9" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="185"/>
+      <c r="B13" s="188"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="188"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="187"/>
+    </row>
+    <row r="14" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="B14" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="C14" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="D14" s="10" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="186"/>
-      <c r="B13" s="189"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="187"/>
-      <c r="I13" s="188"/>
-    </row>
-    <row r="14" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="E14" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="H14" s="27"/>
-    </row>
-    <row r="15" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6117,238 +6266,238 @@
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="30"/>
+    </row>
+    <row r="2" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="31"/>
-    </row>
-    <row r="2" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-    </row>
-    <row r="3" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+    </row>
+    <row r="4" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+    </row>
+    <row r="5" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
     </row>
     <row r="16" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6380,113 +6529,113 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="30.28515625" style="31"/>
+    <col min="1" max="16384" width="30.28515625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-    </row>
-    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="D9" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="15" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-    </row>
-    <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="15" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -6520,530 +6669,530 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.5703125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="1.140625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" style="35" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="35" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="1" width="15.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.5703125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="34" customWidth="1"/>
+    <col min="8" max="8" width="1.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" style="34" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="34" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="E1" s="189"/>
+      <c r="F1" s="190" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" s="191"/>
+      <c r="I1" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="J1" s="36" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="M1" s="194" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="195"/>
+    </row>
+    <row r="2" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="E1" s="190"/>
-      <c r="F1" s="191" t="s">
+      <c r="B2" s="38">
+        <v>77.5</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="G1" s="192"/>
-      <c r="I1" s="36" t="s">
+      <c r="D2" s="38">
+        <v>18</v>
+      </c>
+      <c r="E2" s="189"/>
+      <c r="F2" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="G2" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="I2" s="40" t="s">
         <v>329</v>
       </c>
-      <c r="M1" s="195" t="s">
+      <c r="J2" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="M2" s="196"/>
+      <c r="N2" s="197"/>
+    </row>
+    <row r="3" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" s="43">
+        <v>98</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" s="43">
+        <v>22</v>
+      </c>
+      <c r="E3" s="189"/>
+      <c r="F3" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="G3" s="38">
+        <v>132</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" s="43">
+        <v>76</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="43">
+        <v>22</v>
+      </c>
+      <c r="E4" s="189"/>
+      <c r="F4" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="G4" s="38">
+        <v>120</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5" s="43">
+        <v>61</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" s="48">
+        <v>22</v>
+      </c>
+      <c r="E5" s="189"/>
+      <c r="F5" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="G5" s="43">
+        <v>128</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="D6" s="43">
+        <v>40</v>
+      </c>
+      <c r="E6" s="189"/>
+      <c r="F6" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="G6" s="43">
+        <v>100</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="J6" s="41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="E7" s="189"/>
+      <c r="F7" s="51" t="s">
+        <v>352</v>
+      </c>
+      <c r="G7" s="52"/>
+      <c r="I7" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44" t="s">
+        <v>355</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="G9" s="38">
+        <v>143</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="J9" s="55" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="43"/>
+    </row>
+    <row r="11" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="57" t="s">
+        <v>364</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>366</v>
+      </c>
+      <c r="E11" s="189"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="43"/>
+      <c r="I11" s="192" t="s">
+        <v>367</v>
+      </c>
+      <c r="J11" s="193"/>
+    </row>
+    <row r="12" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="59" t="s">
+        <v>368</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="E12" s="189"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="43"/>
+      <c r="I12" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="J12" s="61">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="62" t="s">
+        <v>370</v>
+      </c>
+      <c r="B13" s="38">
+        <v>69</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>371</v>
+      </c>
+      <c r="D13" s="38">
+        <v>41</v>
+      </c>
+      <c r="E13" s="189"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
+      <c r="I13" s="60" t="s">
+        <v>372</v>
+      </c>
+      <c r="J13" s="61">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="62" t="s">
+        <v>373</v>
+      </c>
+      <c r="B14" s="43">
+        <v>23</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>374</v>
+      </c>
+      <c r="D14" s="38">
         <v>84</v>
       </c>
-      <c r="N1" s="196"/>
-    </row>
-    <row r="2" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
-        <v>330</v>
-      </c>
-      <c r="B2" s="39">
-        <v>77.5</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2" s="39">
-        <v>18</v>
-      </c>
-      <c r="E2" s="190"/>
-      <c r="F2" s="33" t="s">
-        <v>332</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="J2" s="42" t="s">
-        <v>334</v>
-      </c>
-      <c r="M2" s="197"/>
-      <c r="N2" s="198"/>
-    </row>
-    <row r="3" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>335</v>
-      </c>
-      <c r="B3" s="44">
-        <v>98</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>336</v>
-      </c>
-      <c r="D3" s="44">
-        <v>22</v>
-      </c>
-      <c r="E3" s="190"/>
-      <c r="F3" s="46" t="s">
-        <v>337</v>
-      </c>
-      <c r="G3" s="39">
-        <v>132</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
-        <v>340</v>
-      </c>
-      <c r="B4" s="44">
-        <v>76</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>341</v>
-      </c>
-      <c r="D4" s="44">
-        <v>22</v>
-      </c>
-      <c r="E4" s="190"/>
-      <c r="F4" s="47" t="s">
-        <v>342</v>
-      </c>
-      <c r="G4" s="39">
+      <c r="E14" s="189"/>
+      <c r="F14" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="I14" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="J14" s="61" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="D15" s="43">
+        <v>169</v>
+      </c>
+      <c r="E15" s="189"/>
+      <c r="F15" s="53" t="s">
+        <v>379</v>
+      </c>
+      <c r="G15" s="38">
         <v>120</v>
       </c>
-      <c r="I4" s="41" t="s">
-        <v>343</v>
-      </c>
-      <c r="J4" s="42" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
-        <v>345</v>
-      </c>
-      <c r="B5" s="44">
-        <v>61</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>346</v>
-      </c>
-      <c r="D5" s="49">
-        <v>22</v>
-      </c>
-      <c r="E5" s="190"/>
-      <c r="F5" s="47" t="s">
-        <v>347</v>
-      </c>
-      <c r="G5" s="44">
-        <v>128</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>348</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="45" t="s">
-        <v>350</v>
-      </c>
-      <c r="D6" s="44">
-        <v>40</v>
-      </c>
-      <c r="E6" s="190"/>
-      <c r="F6" s="47" t="s">
-        <v>351</v>
-      </c>
-      <c r="G6" s="44">
+      <c r="I15" s="60" t="s">
+        <v>380</v>
+      </c>
+      <c r="J15" s="61">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="D16" s="43">
+        <v>142</v>
+      </c>
+      <c r="E16" s="189"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="43"/>
+      <c r="I16" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="J16" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="63" t="s">
+        <v>364</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="D17" s="43">
+        <v>35</v>
+      </c>
+      <c r="E17" s="189"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="43"/>
+      <c r="I17" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="J17" s="61">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="D18" s="43">
+        <v>120</v>
+      </c>
+      <c r="F18" s="46"/>
+      <c r="G18" s="43"/>
+      <c r="I18" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="J18" s="61"/>
+    </row>
+    <row r="19" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="66" t="s">
+        <v>388</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>390</v>
+      </c>
+      <c r="D19" s="43">
         <v>100</v>
       </c>
-      <c r="I6" s="51" t="s">
-        <v>352</v>
-      </c>
-      <c r="J6" s="42" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45" t="s">
-        <v>354</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="E7" s="190"/>
-      <c r="F7" s="52" t="s">
-        <v>356</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="I7" s="41" t="s">
-        <v>357</v>
-      </c>
-      <c r="J7" s="42" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45" t="s">
-        <v>359</v>
-      </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>361</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="54" t="s">
-        <v>363</v>
-      </c>
-      <c r="G9" s="39">
-        <v>143</v>
-      </c>
-      <c r="I9" s="55" t="s">
-        <v>364</v>
-      </c>
-      <c r="J9" s="56" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="57" t="s">
-        <v>366</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="190"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="44"/>
-    </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>369</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>370</v>
-      </c>
-      <c r="E11" s="190"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="44"/>
-      <c r="I11" s="193" t="s">
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="I19" s="69" t="s">
+        <v>391</v>
+      </c>
+      <c r="J19" s="70"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="60" t="s">
+        <v>392</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>393</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>394</v>
+      </c>
+      <c r="D20" s="48">
+        <v>75</v>
+      </c>
+      <c r="I20" s="190" t="s">
+        <v>395</v>
+      </c>
+      <c r="J20" s="191"/>
+    </row>
+    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="60" t="s">
+        <v>396</v>
+      </c>
+      <c r="B21" s="71" t="s">
+        <v>397</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="69" t="s">
         <v>371</v>
       </c>
-      <c r="J11" s="194"/>
-    </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="60" t="s">
-        <v>372</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="E12" s="190"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="44"/>
-      <c r="I12" s="61" t="s">
-        <v>373</v>
-      </c>
-      <c r="J12" s="62">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="63" t="s">
-        <v>374</v>
-      </c>
-      <c r="B13" s="39">
-        <v>69</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>375</v>
-      </c>
-      <c r="D13" s="39">
-        <v>41</v>
-      </c>
-      <c r="E13" s="190"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
-      <c r="I13" s="61" t="s">
-        <v>376</v>
-      </c>
-      <c r="J13" s="62">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="63" t="s">
-        <v>377</v>
-      </c>
-      <c r="B14" s="44">
-        <v>23</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>378</v>
-      </c>
-      <c r="D14" s="39">
-        <v>84</v>
-      </c>
-      <c r="E14" s="190"/>
-      <c r="F14" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="I14" s="61" t="s">
-        <v>380</v>
-      </c>
-      <c r="J14" s="62" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
-        <v>327</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>382</v>
-      </c>
-      <c r="D15" s="44">
-        <v>169</v>
-      </c>
-      <c r="E15" s="190"/>
-      <c r="F15" s="54" t="s">
-        <v>383</v>
-      </c>
-      <c r="G15" s="39">
-        <v>120</v>
-      </c>
-      <c r="I15" s="61" t="s">
-        <v>384</v>
-      </c>
-      <c r="J15" s="62">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
-        <v>366</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>385</v>
-      </c>
-      <c r="D16" s="44">
-        <v>142</v>
-      </c>
-      <c r="E16" s="190"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="44"/>
-      <c r="I16" s="61" t="s">
-        <v>386</v>
-      </c>
-      <c r="J16" s="62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="64" t="s">
-        <v>368</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>387</v>
-      </c>
-      <c r="D17" s="44">
-        <v>35</v>
-      </c>
-      <c r="E17" s="190"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="44"/>
-      <c r="I17" s="61" t="s">
-        <v>388</v>
-      </c>
-      <c r="J17" s="62">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="65" t="s">
-        <v>389</v>
-      </c>
-      <c r="B18" s="66" t="s">
-        <v>325</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>390</v>
-      </c>
-      <c r="D18" s="44">
-        <v>120</v>
-      </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="44"/>
-      <c r="I18" s="61" t="s">
-        <v>391</v>
-      </c>
-      <c r="J18" s="62"/>
-    </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="67" t="s">
-        <v>392</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>393</v>
-      </c>
-      <c r="C19" s="69" t="s">
-        <v>394</v>
-      </c>
-      <c r="D19" s="44">
-        <v>100</v>
-      </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
-      <c r="I19" s="70" t="s">
-        <v>395</v>
-      </c>
-      <c r="J19" s="71"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="61" t="s">
-        <v>396</v>
-      </c>
-      <c r="B20" s="72" t="s">
-        <v>397</v>
-      </c>
-      <c r="C20" s="73" t="s">
-        <v>398</v>
-      </c>
-      <c r="D20" s="49">
-        <v>75</v>
-      </c>
-      <c r="I20" s="191" t="s">
+      <c r="B22" s="73" t="s">
         <v>399</v>
       </c>
-      <c r="J20" s="192"/>
-    </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
+      <c r="C22" s="44" t="s">
         <v>400</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="D22" s="49" t="s">
         <v>401</v>
       </c>
-      <c r="C21" s="65" t="s">
-        <v>402</v>
-      </c>
-      <c r="D21" s="66" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="70" t="s">
-        <v>375</v>
-      </c>
-      <c r="B22" s="74" t="s">
-        <v>403</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>404</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>405</v>
-      </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="59"/>
-      <c r="D23" s="53"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="52"/>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:10" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="74" t="s">
+        <v>402</v>
+      </c>
+      <c r="B31" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C31" s="76" t="s">
+        <v>404</v>
+      </c>
+      <c r="D31" s="77" t="s">
+        <v>405</v>
+      </c>
+      <c r="E31" s="78"/>
+      <c r="F31" s="79" t="s">
         <v>406</v>
-      </c>
-      <c r="B31" s="76" t="s">
-        <v>407</v>
-      </c>
-      <c r="C31" s="77" t="s">
-        <v>408</v>
-      </c>
-      <c r="D31" s="78" t="s">
-        <v>409</v>
-      </c>
-      <c r="E31" s="79"/>
-      <c r="F31" s="80" t="s">
-        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -7077,103 +7226,103 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="81" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" style="81" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" style="81" customWidth="1"/>
-    <col min="4" max="4" width="58.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="81" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="81" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="81"/>
-    <col min="8" max="8" width="32.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="81"/>
-    <col min="11" max="11" width="8.28515625" style="81" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="81"/>
-    <col min="14" max="14" width="10" style="81" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="81"/>
+    <col min="1" max="1" width="2.7109375" style="80" customWidth="1"/>
+    <col min="2" max="2" width="49.140625" style="80" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="80" customWidth="1"/>
+    <col min="4" max="4" width="58.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="80" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="80" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="80"/>
+    <col min="8" max="8" width="32.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="80"/>
+    <col min="11" max="11" width="8.28515625" style="80" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="80"/>
+    <col min="14" max="14" width="10" style="80" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="80"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="87" t="s">
-        <v>423</v>
-      </c>
-      <c r="D1" s="87" t="s">
-        <v>422</v>
-      </c>
-      <c r="F1" s="199" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="35"/>
-      <c r="L1" s="35"/>
+      <c r="B1" s="86" t="s">
+        <v>419</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1" s="198" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="200"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="2:14" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="82" t="s">
-        <v>421</v>
-      </c>
-      <c r="D3" s="86" t="s">
-        <v>420</v>
-      </c>
-      <c r="I3" s="35"/>
-      <c r="L3" s="35"/>
+      <c r="B3" s="81" t="s">
+        <v>417</v>
+      </c>
+      <c r="D3" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="I3" s="34"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:14" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="82" t="s">
-        <v>419</v>
-      </c>
-      <c r="D5" s="83" t="s">
-        <v>418</v>
-      </c>
-      <c r="H5" s="85" t="s">
-        <v>417</v>
+      <c r="B5" s="81" t="s">
+        <v>415</v>
+      </c>
+      <c r="D5" s="82" t="s">
+        <v>414</v>
+      </c>
+      <c r="H5" s="84" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:14" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="84" t="s">
-        <v>416</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>415</v>
+      <c r="B7" s="83" t="s">
+        <v>412</v>
+      </c>
+      <c r="D7" s="82" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="82" t="s">
-        <v>414</v>
-      </c>
-      <c r="D9" s="83" t="s">
-        <v>413</v>
+      <c r="B9" s="81" t="s">
+        <v>410</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="82" t="s">
-        <v>412</v>
-      </c>
-      <c r="E11" s="35"/>
+      <c r="D11" s="81" t="s">
+        <v>408</v>
+      </c>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="2:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="82" t="s">
-        <v>411</v>
+      <c r="D13" s="81" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="35"/>
+      <c r="B20" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7198,131 +7347,131 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="57" style="88" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="88" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" style="88" customWidth="1"/>
-    <col min="4" max="4" width="35" style="88" customWidth="1"/>
-    <col min="5" max="5" width="30" style="88" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="88"/>
+    <col min="1" max="1" width="57" style="87" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="87" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" style="87" customWidth="1"/>
+    <col min="4" max="4" width="35" style="87" customWidth="1"/>
+    <col min="5" max="5" width="30" style="87" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="87"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="91" t="s">
-        <v>451</v>
-      </c>
-      <c r="B1" s="91" t="s">
-        <v>329</v>
-      </c>
-      <c r="C1" s="91" t="s">
-        <v>450</v>
-      </c>
-      <c r="D1" s="201" t="s">
-        <v>449</v>
-      </c>
-      <c r="E1" s="201"/>
-      <c r="G1" s="199" t="s">
-        <v>84</v>
+      <c r="A1" s="90" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1" s="200" t="s">
+        <v>445</v>
+      </c>
+      <c r="E1" s="200"/>
+      <c r="G1" s="198" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="89" t="s">
-        <v>448</v>
-      </c>
-      <c r="B2" s="89" t="s">
-        <v>447</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>446</v>
-      </c>
-      <c r="D2" s="89" t="s">
-        <v>445</v>
-      </c>
-      <c r="E2" s="89" t="s">
+      <c r="A2" s="88" t="s">
         <v>444</v>
       </c>
-      <c r="G2" s="200"/>
+      <c r="B2" s="88" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>441</v>
+      </c>
+      <c r="E2" s="88" t="s">
+        <v>440</v>
+      </c>
+      <c r="G2" s="199"/>
     </row>
     <row r="3" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="89" t="s">
-        <v>443</v>
-      </c>
-      <c r="B3" s="89" t="s">
-        <v>442</v>
-      </c>
-      <c r="C3" s="89" t="s">
-        <v>441</v>
-      </c>
-      <c r="D3" s="89" t="s">
-        <v>440</v>
-      </c>
-      <c r="E3" s="89" t="s">
+      <c r="A3" s="88" t="s">
         <v>439</v>
       </c>
+      <c r="B3" s="88" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>437</v>
+      </c>
+      <c r="D3" s="88" t="s">
+        <v>436</v>
+      </c>
+      <c r="E3" s="88" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="89" t="s">
-        <v>438</v>
-      </c>
-      <c r="B4" s="89" t="s">
-        <v>437</v>
-      </c>
-      <c r="C4" s="89" t="s">
-        <v>436</v>
-      </c>
-      <c r="D4" s="89" t="s">
-        <v>435</v>
-      </c>
-      <c r="E4" s="89" t="s">
+      <c r="A4" s="88" t="s">
         <v>434</v>
       </c>
+      <c r="B4" s="88" t="s">
+        <v>433</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>432</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>431</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="89" t="s">
-        <v>433</v>
-      </c>
-      <c r="B5" s="89" t="s">
-        <v>432</v>
-      </c>
-      <c r="C5" s="89" t="s">
-        <v>431</v>
-      </c>
-      <c r="D5" s="89" t="s">
-        <v>430</v>
-      </c>
-      <c r="E5" s="89" t="s">
+      <c r="A5" s="88" t="s">
         <v>429</v>
       </c>
+      <c r="B5" s="88" t="s">
+        <v>428</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>427</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>426</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="89" t="s">
-        <v>428</v>
-      </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="90" t="s">
-        <v>427</v>
-      </c>
-      <c r="D6" s="89" t="s">
-        <v>426</v>
-      </c>
-      <c r="E6" s="89"/>
+      <c r="A6" s="88" t="s">
+        <v>424</v>
+      </c>
+      <c r="B6" s="88"/>
+      <c r="C6" s="89" t="s">
+        <v>423</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>422</v>
+      </c>
+      <c r="E6" s="88"/>
     </row>
     <row r="7" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="89"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89" t="s">
-        <v>425</v>
-      </c>
-      <c r="E7" s="89"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88" t="s">
+        <v>421</v>
+      </c>
+      <c r="E7" s="88"/>
     </row>
     <row r="8" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89" t="s">
-        <v>424</v>
-      </c>
-      <c r="E8" s="89"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88" t="s">
+        <v>420</v>
+      </c>
+      <c r="E8" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7347,8 +7496,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="8:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="H2" s="18" t="s">
-        <v>84</v>
+      <c r="H2" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -7379,227 +7528,240 @@
   <sheetData>
     <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="202" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B1" s="203"/>
-      <c r="D1" s="101" t="s">
-        <v>461</v>
-      </c>
-      <c r="F1" s="101" t="s">
-        <v>460</v>
-      </c>
-      <c r="G1" s="101" t="s">
-        <v>459</v>
+      <c r="D1" s="100" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1" s="100" t="s">
+        <v>456</v>
+      </c>
+      <c r="G1" s="100" t="s">
+        <v>455</v>
       </c>
       <c r="J1" s="204" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K1" s="205"/>
     </row>
     <row r="2" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="100">
+      <c r="A2" s="99">
         <v>93</v>
       </c>
-      <c r="B2" s="99">
+      <c r="B2" s="98">
         <v>45115</v>
       </c>
-      <c r="D2" s="98" t="s">
-        <v>458</v>
-      </c>
-      <c r="F2" s="98">
+      <c r="D2" s="97" t="s">
+        <v>454</v>
+      </c>
+      <c r="F2" s="97">
         <v>55.4</v>
       </c>
-      <c r="G2" s="98">
+      <c r="G2" s="97">
         <v>74.8</v>
       </c>
       <c r="J2" s="206"/>
       <c r="K2" s="207"/>
     </row>
     <row r="3" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="95">
+      <c r="A3" s="94">
         <v>90</v>
       </c>
-      <c r="B3" s="96">
+      <c r="B3" s="95">
         <v>45135</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="80"/>
     </row>
     <row r="4" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="95">
+      <c r="A4" s="94">
         <v>90</v>
       </c>
-      <c r="B4" s="96">
+      <c r="B4" s="95">
         <v>45146</v>
       </c>
-      <c r="F4" s="36" t="s">
-        <v>457</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>456</v>
+      <c r="F4" s="35" t="s">
+        <v>453</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="95">
+      <c r="A5" s="94">
         <v>88.45</v>
       </c>
-      <c r="B5" s="96">
+      <c r="B5" s="95">
         <v>45192</v>
       </c>
-      <c r="F5" s="52" t="s">
-        <v>455</v>
-      </c>
-      <c r="G5" s="52">
+      <c r="F5" s="51" t="s">
+        <v>451</v>
+      </c>
+      <c r="G5" s="51">
         <v>29</v>
       </c>
       <c r="J5" s="212" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K5" s="212"/>
     </row>
     <row r="6" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="95">
+      <c r="A6" s="94">
         <v>86.65</v>
       </c>
-      <c r="B6" s="96">
+      <c r="B6" s="95">
         <v>45204</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="81"/>
-      <c r="J6" s="213">
+      <c r="D6" s="80"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="80"/>
+      <c r="J6" s="201">
         <v>45234</v>
       </c>
-      <c r="K6" s="213"/>
+      <c r="K6" s="201"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="95">
+      <c r="A7" s="94">
         <v>86.45</v>
       </c>
-      <c r="B7" s="96">
+      <c r="B7" s="95">
         <v>45211</v>
       </c>
-      <c r="D7" s="81"/>
+      <c r="D7" s="80"/>
       <c r="F7" s="208" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G7" s="209"/>
-      <c r="H7" s="81"/>
-      <c r="J7" s="214">
+      <c r="H7" s="80"/>
+      <c r="J7" s="213">
         <v>45264</v>
       </c>
-      <c r="K7" s="214"/>
+      <c r="K7" s="213"/>
     </row>
     <row r="8" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="95">
+      <c r="A8" s="94">
         <v>85.2</v>
       </c>
-      <c r="B8" s="96">
+      <c r="B8" s="95">
         <v>45232</v>
       </c>
-      <c r="D8" s="81"/>
+      <c r="D8" s="80"/>
       <c r="F8" s="210" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G8" s="211"/>
-      <c r="H8" s="81"/>
-      <c r="J8" s="213"/>
-      <c r="K8" s="213"/>
+      <c r="H8" s="80"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="201"/>
     </row>
     <row r="9" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="95">
+      <c r="A9" s="94">
         <v>84.8</v>
       </c>
-      <c r="B9" s="96">
+      <c r="B9" s="95">
         <v>45234</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="J9" s="213"/>
-      <c r="K9" s="213"/>
+      <c r="D9" s="80"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="201"/>
     </row>
     <row r="10" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
-      <c r="B10" s="94"/>
-      <c r="D10" s="81"/>
-      <c r="J10" s="213"/>
-      <c r="K10" s="213"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="93"/>
+      <c r="D10" s="80"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="201"/>
     </row>
     <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="94"/>
-      <c r="D11" s="81"/>
-      <c r="J11" s="213"/>
-      <c r="K11" s="213"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="93"/>
+      <c r="D11" s="80"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="201"/>
     </row>
     <row r="12" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="94"/>
-      <c r="D12" s="81"/>
-      <c r="J12" s="213"/>
-      <c r="K12" s="213"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="93"/>
+      <c r="D12" s="80"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="201"/>
     </row>
     <row r="13" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="94"/>
-      <c r="D13" s="81"/>
-      <c r="J13" s="213"/>
-      <c r="K13" s="213"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="93"/>
+      <c r="D13" s="80"/>
+      <c r="J13" s="201"/>
+      <c r="K13" s="201"/>
     </row>
     <row r="14" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
-      <c r="B14" s="94"/>
-      <c r="D14" s="81"/>
-      <c r="J14" s="213"/>
-      <c r="K14" s="213"/>
+      <c r="A14" s="94"/>
+      <c r="B14" s="93"/>
+      <c r="D14" s="80"/>
+      <c r="J14" s="201"/>
+      <c r="K14" s="201"/>
     </row>
     <row r="15" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
-      <c r="B15" s="94"/>
-      <c r="D15" s="81"/>
-      <c r="J15" s="213"/>
-      <c r="K15" s="213"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="93"/>
+      <c r="D15" s="80"/>
+      <c r="J15" s="201"/>
+      <c r="K15" s="201"/>
     </row>
     <row r="16" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="95"/>
-      <c r="B16" s="94"/>
-      <c r="J16" s="213"/>
-      <c r="K16" s="213"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="93"/>
+      <c r="J16" s="201"/>
+      <c r="K16" s="201"/>
     </row>
     <row r="17" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="95"/>
-      <c r="B17" s="94"/>
-      <c r="J17" s="213"/>
-      <c r="K17" s="213"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="93"/>
+      <c r="J17" s="201"/>
+      <c r="K17" s="201"/>
     </row>
     <row r="18" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="95"/>
-      <c r="B18" s="94"/>
-      <c r="J18" s="213"/>
-      <c r="K18" s="213"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="93"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="201"/>
     </row>
     <row r="19" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="95"/>
-      <c r="B19" s="94"/>
-      <c r="J19" s="213"/>
-      <c r="K19" s="213"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="93"/>
+      <c r="J19" s="201"/>
+      <c r="K19" s="201"/>
     </row>
     <row r="20" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="95"/>
-      <c r="B20" s="94"/>
-      <c r="J20" s="213"/>
-      <c r="K20" s="213"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="93"/>
+      <c r="J20" s="201"/>
+      <c r="K20" s="201"/>
     </row>
     <row r="21" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="95"/>
-      <c r="B21" s="94"/>
-      <c r="J21" s="213"/>
-      <c r="K21" s="213"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="93"/>
+      <c r="J21" s="201"/>
+      <c r="K21" s="201"/>
     </row>
     <row r="22" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="93"/>
-      <c r="B22" s="92"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="J14:K14"/>
@@ -7608,19 +7770,6 @@
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J1" location="Food!A1" display="Back" xr:uid="{C1D1D7E3-01F8-4CEB-B64B-273BBE247837}"/>
@@ -7641,315 +7790,315 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="102" customWidth="1"/>
-    <col min="2" max="2" width="25" style="102" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" style="102" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" style="102" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="102" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="102" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="102" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="102" customWidth="1"/>
-    <col min="9" max="9" width="24" style="102" customWidth="1"/>
-    <col min="10" max="10" width="1.5703125" style="102" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="102" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="102"/>
+    <col min="1" max="1" width="17.140625" style="101" customWidth="1"/>
+    <col min="2" max="2" width="25" style="101" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" style="101" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" style="101" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="101" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="101" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="101" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="101" customWidth="1"/>
+    <col min="9" max="9" width="24" style="101" customWidth="1"/>
+    <col min="10" max="10" width="1.5703125" style="101" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="101" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="101"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="151" t="s">
-        <v>513</v>
-      </c>
-      <c r="B1" s="150" t="s">
-        <v>512</v>
-      </c>
-      <c r="C1" s="149" t="s">
-        <v>511</v>
-      </c>
-      <c r="E1" s="148" t="s">
-        <v>510</v>
-      </c>
-      <c r="F1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>509</v>
       </c>
-      <c r="G1" s="146" t="s">
+      <c r="B1" s="149" t="s">
         <v>508</v>
       </c>
-      <c r="H1" s="146" t="s">
+      <c r="C1" s="148" t="s">
         <v>507</v>
       </c>
-      <c r="I1" s="145" t="s">
+      <c r="E1" s="147" t="s">
         <v>506</v>
       </c>
-      <c r="K1" s="199" t="s">
-        <v>84</v>
+      <c r="F1" s="146" t="s">
+        <v>505</v>
+      </c>
+      <c r="G1" s="145" t="s">
+        <v>504</v>
+      </c>
+      <c r="H1" s="145" t="s">
+        <v>503</v>
+      </c>
+      <c r="I1" s="144" t="s">
+        <v>502</v>
+      </c>
+      <c r="K1" s="198" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="218" t="s">
-        <v>505</v>
-      </c>
-      <c r="B2" s="144" t="s">
-        <v>504</v>
-      </c>
-      <c r="C2" s="111" t="s">
-        <v>503</v>
-      </c>
-      <c r="E2" s="232" t="s">
-        <v>502</v>
-      </c>
-      <c r="F2" s="143" t="s">
+      <c r="A2" s="217" t="s">
         <v>501</v>
       </c>
-      <c r="G2" s="142" t="s">
+      <c r="B2" s="143" t="s">
         <v>500</v>
       </c>
-      <c r="H2" s="142" t="s">
+      <c r="C2" s="110" t="s">
         <v>499</v>
       </c>
-      <c r="I2" s="141"/>
-      <c r="K2" s="200"/>
+      <c r="E2" s="231" t="s">
+        <v>498</v>
+      </c>
+      <c r="F2" s="142" t="s">
+        <v>497</v>
+      </c>
+      <c r="G2" s="141" t="s">
+        <v>496</v>
+      </c>
+      <c r="H2" s="141" t="s">
+        <v>495</v>
+      </c>
+      <c r="I2" s="140"/>
+      <c r="K2" s="199"/>
     </row>
     <row r="3" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="218"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="111" t="s">
-        <v>498</v>
-      </c>
-      <c r="E3" s="233"/>
-      <c r="F3" s="140" t="s">
-        <v>497</v>
-      </c>
-      <c r="G3" s="139" t="s">
-        <v>496</v>
-      </c>
-      <c r="H3" s="139"/>
-      <c r="I3" s="138"/>
+      <c r="A3" s="217"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="110" t="s">
+        <v>494</v>
+      </c>
+      <c r="E3" s="232"/>
+      <c r="F3" s="139" t="s">
+        <v>493</v>
+      </c>
+      <c r="G3" s="138" t="s">
+        <v>492</v>
+      </c>
+      <c r="H3" s="138"/>
+      <c r="I3" s="137"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="218"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="111"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="137" t="s">
-        <v>495</v>
-      </c>
-      <c r="G4" s="136">
+      <c r="A4" s="217"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="110"/>
+      <c r="E4" s="233"/>
+      <c r="F4" s="136" t="s">
+        <v>491</v>
+      </c>
+      <c r="G4" s="135">
         <v>44</v>
       </c>
-      <c r="H4" s="136" t="s">
-        <v>494</v>
-      </c>
-      <c r="I4" s="135" t="s">
-        <v>463</v>
-      </c>
-      <c r="K4" s="220" t="s">
-        <v>493</v>
+      <c r="H4" s="135" t="s">
+        <v>490</v>
+      </c>
+      <c r="I4" s="134" t="s">
+        <v>459</v>
+      </c>
+      <c r="K4" s="219" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="218"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="111"/>
-      <c r="E5" s="223" t="s">
-        <v>492</v>
-      </c>
-      <c r="F5" s="134" t="s">
+      <c r="A5" s="217"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="110"/>
+      <c r="E5" s="222" t="s">
         <v>488</v>
       </c>
-      <c r="G5" s="133" t="s">
-        <v>491</v>
-      </c>
-      <c r="H5" s="133"/>
-      <c r="I5" s="132" t="s">
-        <v>490</v>
-      </c>
-      <c r="K5" s="221"/>
+      <c r="F5" s="133" t="s">
+        <v>484</v>
+      </c>
+      <c r="G5" s="132" t="s">
+        <v>487</v>
+      </c>
+      <c r="H5" s="132"/>
+      <c r="I5" s="131" t="s">
+        <v>486</v>
+      </c>
+      <c r="K5" s="220"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="218"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="111"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="130" t="s">
-        <v>489</v>
-      </c>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="128"/>
+      <c r="A6" s="217"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="110"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="129" t="s">
+        <v>485</v>
+      </c>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="127"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="218" t="s">
-        <v>488</v>
-      </c>
-      <c r="B7" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="C7" s="111" t="s">
-        <v>486</v>
-      </c>
-      <c r="E7" s="225"/>
-      <c r="F7" s="127" t="s">
-        <v>485</v>
-      </c>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="125"/>
+      <c r="A7" s="217" t="s">
+        <v>484</v>
+      </c>
+      <c r="B7" s="111" t="s">
+        <v>483</v>
+      </c>
+      <c r="C7" s="110" t="s">
+        <v>482</v>
+      </c>
+      <c r="E7" s="224"/>
+      <c r="F7" s="126" t="s">
+        <v>481</v>
+      </c>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="124"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="218"/>
-      <c r="B8" s="229" t="s">
-        <v>484</v>
-      </c>
-      <c r="C8" s="111" t="s">
-        <v>483</v>
-      </c>
-      <c r="E8" s="226" t="s">
-        <v>482</v>
-      </c>
-      <c r="F8" s="124" t="s">
-        <v>481</v>
-      </c>
-      <c r="G8" s="230">
+      <c r="A8" s="217"/>
+      <c r="B8" s="228" t="s">
+        <v>480</v>
+      </c>
+      <c r="C8" s="110" t="s">
+        <v>479</v>
+      </c>
+      <c r="E8" s="225" t="s">
+        <v>478</v>
+      </c>
+      <c r="F8" s="123" t="s">
+        <v>477</v>
+      </c>
+      <c r="G8" s="229">
         <v>1.8229166666666667</v>
       </c>
-      <c r="H8" s="123"/>
-      <c r="I8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="121"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="218"/>
-      <c r="B9" s="229"/>
-      <c r="C9" s="111" t="s">
-        <v>480</v>
-      </c>
-      <c r="E9" s="227"/>
-      <c r="F9" s="121" t="s">
-        <v>479</v>
-      </c>
-      <c r="G9" s="231"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="119"/>
+      <c r="A9" s="217"/>
+      <c r="B9" s="228"/>
+      <c r="C9" s="110" t="s">
+        <v>476</v>
+      </c>
+      <c r="E9" s="226"/>
+      <c r="F9" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="G9" s="230"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="118"/>
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="218"/>
-      <c r="B10" s="97" t="s">
-        <v>478</v>
-      </c>
-      <c r="C10" s="111"/>
+      <c r="A10" s="217"/>
+      <c r="B10" s="96" t="s">
+        <v>474</v>
+      </c>
+      <c r="C10" s="110"/>
     </row>
     <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="218" t="s">
-        <v>477</v>
-      </c>
-      <c r="B11" s="118" t="s">
-        <v>476</v>
-      </c>
-      <c r="C11" s="111"/>
-      <c r="E11" s="228" t="s">
-        <v>475</v>
-      </c>
-      <c r="F11" s="117" t="s">
-        <v>474</v>
-      </c>
-      <c r="I11" s="219" t="s">
+      <c r="A11" s="217" t="s">
         <v>473</v>
       </c>
+      <c r="B11" s="117" t="s">
+        <v>472</v>
+      </c>
+      <c r="C11" s="110"/>
+      <c r="E11" s="227" t="s">
+        <v>471</v>
+      </c>
+      <c r="F11" s="116" t="s">
+        <v>470</v>
+      </c>
+      <c r="I11" s="218" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="218"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="111"/>
-      <c r="E12" s="218"/>
-      <c r="F12" s="116" t="s">
-        <v>472</v>
-      </c>
-      <c r="I12" s="219"/>
+      <c r="A12" s="217"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="110"/>
+      <c r="E12" s="217"/>
+      <c r="F12" s="115" t="s">
+        <v>468</v>
+      </c>
+      <c r="I12" s="218"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="218"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="111"/>
-      <c r="E13" s="218"/>
-      <c r="F13" s="115"/>
-      <c r="I13" s="219"/>
+      <c r="A13" s="217"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="110"/>
+      <c r="E13" s="217"/>
+      <c r="F13" s="114"/>
+      <c r="I13" s="218"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="218"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="111"/>
-      <c r="E14" s="218"/>
-      <c r="F14" s="115"/>
-      <c r="I14" s="113" t="s">
-        <v>471</v>
+      <c r="A14" s="217"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="110"/>
+      <c r="E14" s="217"/>
+      <c r="F14" s="114"/>
+      <c r="I14" s="112" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="218"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="111"/>
-      <c r="E15" s="222"/>
-      <c r="F15" s="114"/>
-      <c r="I15" s="113" t="s">
-        <v>470</v>
+      <c r="A15" s="217"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="110"/>
+      <c r="E15" s="221"/>
+      <c r="F15" s="113"/>
+      <c r="I15" s="112" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="218"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="111"/>
+      <c r="A16" s="217"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="110"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="218" t="s">
-        <v>469</v>
-      </c>
-      <c r="B17" s="112" t="s">
-        <v>468</v>
-      </c>
-      <c r="C17" s="111"/>
+      <c r="A17" s="217" t="s">
+        <v>465</v>
+      </c>
+      <c r="B17" s="111" t="s">
+        <v>464</v>
+      </c>
+      <c r="C17" s="110"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="218"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="111"/>
+      <c r="A18" s="217"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="110"/>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="218"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="111"/>
+      <c r="A19" s="217"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="110"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="222"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="109"/>
+      <c r="A20" s="221"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="108"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="215" t="s">
-        <v>467</v>
-      </c>
-      <c r="B22" s="216"/>
-      <c r="C22" s="217"/>
+      <c r="A22" s="214" t="s">
+        <v>463</v>
+      </c>
+      <c r="B22" s="215"/>
+      <c r="C22" s="216"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="108" t="s">
-        <v>465</v>
-      </c>
-      <c r="B23" s="107" t="s">
-        <v>466</v>
-      </c>
-      <c r="C23" s="106" t="s">
-        <v>463</v>
+      <c r="A23" s="107" t="s">
+        <v>461</v>
+      </c>
+      <c r="B23" s="106" t="s">
+        <v>462</v>
+      </c>
+      <c r="C23" s="105" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="105" t="s">
-        <v>465</v>
-      </c>
-      <c r="B24" s="104" t="s">
-        <v>464</v>
-      </c>
-      <c r="C24" s="103" t="s">
-        <v>463</v>
+      <c r="A24" s="104" t="s">
+        <v>461</v>
+      </c>
+      <c r="B24" s="103" t="s">
+        <v>460</v>
+      </c>
+      <c r="C24" s="102" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -7996,12 +8145,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V1" s="199" t="s">
-        <v>84</v>
+      <c r="V1" s="198" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="22:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V2" s="200"/>
+      <c r="V2" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8032,276 +8181,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
-        <v>535</v>
-      </c>
-      <c r="B1" s="156" t="s">
-        <v>534</v>
-      </c>
-      <c r="C1" s="156" t="s">
-        <v>533</v>
-      </c>
-      <c r="D1" s="156" t="s">
-        <v>532</v>
-      </c>
-      <c r="E1" s="156" t="s">
+      <c r="A1" s="155" t="s">
         <v>531</v>
       </c>
-      <c r="F1" s="156" t="s">
+      <c r="B1" s="155" t="s">
         <v>530</v>
       </c>
-      <c r="H1" s="199" t="s">
-        <v>84</v>
+      <c r="C1" s="155" t="s">
+        <v>529</v>
+      </c>
+      <c r="D1" s="155" t="s">
+        <v>528</v>
+      </c>
+      <c r="E1" s="155" t="s">
+        <v>527</v>
+      </c>
+      <c r="F1" s="155" t="s">
+        <v>526</v>
+      </c>
+      <c r="H1" s="198" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="154" t="s">
-        <v>529</v>
-      </c>
-      <c r="B2" s="97" t="s">
-        <v>528</v>
-      </c>
-      <c r="C2" s="97" t="s">
-        <v>528</v>
-      </c>
-      <c r="D2" s="97" t="s">
+      <c r="A2" s="153" t="s">
+        <v>525</v>
+      </c>
+      <c r="B2" s="96" t="s">
+        <v>524</v>
+      </c>
+      <c r="C2" s="96" t="s">
+        <v>524</v>
+      </c>
+      <c r="D2" s="96" t="s">
+        <v>515</v>
+      </c>
+      <c r="E2" s="96">
+        <v>2</v>
+      </c>
+      <c r="F2" s="96" t="s">
+        <v>515</v>
+      </c>
+      <c r="H2" s="199"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="153" t="s">
+        <v>523</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>515</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>515</v>
+      </c>
+      <c r="D3" s="96">
+        <v>15</v>
+      </c>
+      <c r="E3" s="96">
+        <v>3</v>
+      </c>
+      <c r="F3" s="154" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="153" t="s">
+        <v>522</v>
+      </c>
+      <c r="B4" s="96" t="s">
+        <v>515</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>515</v>
+      </c>
+      <c r="D4" s="96">
+        <v>15</v>
+      </c>
+      <c r="E4" s="96">
+        <v>3</v>
+      </c>
+      <c r="F4" s="154" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="153" t="s">
+        <v>520</v>
+      </c>
+      <c r="B5" s="96" t="s">
         <v>519</v>
       </c>
-      <c r="E2" s="97">
+      <c r="C5" s="96" t="s">
+        <v>519</v>
+      </c>
+      <c r="D5" s="96" t="s">
+        <v>515</v>
+      </c>
+      <c r="E5" s="96" t="s">
+        <v>515</v>
+      </c>
+      <c r="F5" s="96" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="153" t="s">
+        <v>518</v>
+      </c>
+      <c r="B6" s="96" t="s">
+        <v>515</v>
+      </c>
+      <c r="C6" s="96" t="s">
+        <v>515</v>
+      </c>
+      <c r="D6" s="96">
+        <v>15</v>
+      </c>
+      <c r="E6" s="96">
+        <v>3</v>
+      </c>
+      <c r="F6" s="96" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="153" t="s">
+        <v>517</v>
+      </c>
+      <c r="B7" s="96" t="s">
+        <v>515</v>
+      </c>
+      <c r="C7" s="96" t="s">
+        <v>515</v>
+      </c>
+      <c r="D7" s="96">
+        <v>15</v>
+      </c>
+      <c r="E7" s="96">
+        <v>3</v>
+      </c>
+      <c r="F7" s="96" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="153" t="s">
+        <v>516</v>
+      </c>
+      <c r="B8" s="96" t="s">
+        <v>515</v>
+      </c>
+      <c r="C8" s="96" t="s">
+        <v>515</v>
+      </c>
+      <c r="D8" s="96">
+        <v>50</v>
+      </c>
+      <c r="E8" s="96">
         <v>2</v>
       </c>
-      <c r="F2" s="97" t="s">
-        <v>519</v>
-      </c>
-      <c r="H2" s="200"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="154" t="s">
-        <v>527</v>
-      </c>
-      <c r="B3" s="97" t="s">
-        <v>519</v>
-      </c>
-      <c r="C3" s="97" t="s">
-        <v>519</v>
-      </c>
-      <c r="D3" s="97">
-        <v>15</v>
-      </c>
-      <c r="E3" s="97">
-        <v>3</v>
-      </c>
-      <c r="F3" s="155" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="154" t="s">
-        <v>526</v>
-      </c>
-      <c r="B4" s="97" t="s">
-        <v>519</v>
-      </c>
-      <c r="C4" s="97" t="s">
-        <v>519</v>
-      </c>
-      <c r="D4" s="97">
-        <v>15</v>
-      </c>
-      <c r="E4" s="97">
-        <v>3</v>
-      </c>
-      <c r="F4" s="155" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="154" t="s">
-        <v>524</v>
-      </c>
-      <c r="B5" s="97" t="s">
-        <v>523</v>
-      </c>
-      <c r="C5" s="97" t="s">
-        <v>523</v>
-      </c>
-      <c r="D5" s="97" t="s">
-        <v>519</v>
-      </c>
-      <c r="E5" s="97" t="s">
-        <v>519</v>
-      </c>
-      <c r="F5" s="97" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="154" t="s">
-        <v>522</v>
-      </c>
-      <c r="B6" s="97" t="s">
-        <v>519</v>
-      </c>
-      <c r="C6" s="97" t="s">
-        <v>519</v>
-      </c>
-      <c r="D6" s="97">
-        <v>15</v>
-      </c>
-      <c r="E6" s="97">
-        <v>3</v>
-      </c>
-      <c r="F6" s="97" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="154" t="s">
-        <v>521</v>
-      </c>
-      <c r="B7" s="97" t="s">
-        <v>519</v>
-      </c>
-      <c r="C7" s="97" t="s">
-        <v>519</v>
-      </c>
-      <c r="D7" s="97">
-        <v>15</v>
-      </c>
-      <c r="E7" s="97">
-        <v>3</v>
-      </c>
-      <c r="F7" s="97" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="154" t="s">
-        <v>520</v>
-      </c>
-      <c r="B8" s="97" t="s">
-        <v>519</v>
-      </c>
-      <c r="C8" s="97" t="s">
-        <v>519</v>
-      </c>
-      <c r="D8" s="97">
-        <v>50</v>
-      </c>
-      <c r="E8" s="97">
-        <v>2</v>
-      </c>
-      <c r="F8" s="97" t="s">
-        <v>519</v>
+      <c r="F8" s="96" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="154"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
+      <c r="A9" s="153"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="154"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
+      <c r="A10" s="153"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="154"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
+      <c r="A11" s="153"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="154"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
+      <c r="A12" s="153"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="154"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
+      <c r="A13" s="153"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="154"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
+      <c r="A14" s="153"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="154"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
+      <c r="A15" s="153"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="154"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
+      <c r="A16" s="153"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="154"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
+      <c r="A17" s="153"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="154"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
+      <c r="A18" s="153"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="153" t="s">
-        <v>518</v>
+      <c r="B20" s="152" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="153" t="s">
-        <v>517</v>
+      <c r="B21" s="152" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="153" t="s">
-        <v>516</v>
+      <c r="B22" s="152" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="153" t="s">
-        <v>515</v>
+      <c r="B23" s="152" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="152" t="s">
-        <v>514</v>
+      <c r="B24" s="151" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="152"/>
+      <c r="B26" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8337,142 +8486,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="160" t="s">
-        <v>564</v>
-      </c>
-      <c r="B1" s="158" t="s">
-        <v>563</v>
-      </c>
-      <c r="C1" s="160" t="s">
-        <v>562</v>
-      </c>
-      <c r="D1" s="159"/>
+      <c r="A1" s="159" t="s">
+        <v>560</v>
+      </c>
+      <c r="B1" s="157" t="s">
+        <v>559</v>
+      </c>
+      <c r="C1" s="159" t="s">
+        <v>558</v>
+      </c>
+      <c r="D1" s="158"/>
     </row>
     <row r="2" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="160" t="s">
-        <v>561</v>
-      </c>
-      <c r="B2" s="160" t="s">
-        <v>560</v>
-      </c>
-      <c r="C2" s="160" t="s">
-        <v>559</v>
-      </c>
-      <c r="D2" s="159"/>
+      <c r="A2" s="159" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2" s="159" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2" s="159" t="s">
+        <v>555</v>
+      </c>
+      <c r="D2" s="158"/>
     </row>
     <row r="3" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="160" t="s">
-        <v>558</v>
-      </c>
-      <c r="B3" s="160" t="s">
-        <v>557</v>
-      </c>
-      <c r="C3" s="160" t="s">
-        <v>556</v>
-      </c>
-      <c r="D3" s="162" t="s">
-        <v>555</v>
+      <c r="A3" s="159" t="s">
+        <v>554</v>
+      </c>
+      <c r="B3" s="159" t="s">
+        <v>553</v>
+      </c>
+      <c r="C3" s="159" t="s">
+        <v>552</v>
+      </c>
+      <c r="D3" s="161" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="160" t="s">
-        <v>664</v>
-      </c>
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="162" t="s">
-        <v>554</v>
+      <c r="A4" s="159" t="s">
+        <v>660</v>
+      </c>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="161" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="159"/>
-      <c r="B5" s="158" t="s">
-        <v>553</v>
-      </c>
-      <c r="C5" s="160" t="s">
-        <v>552</v>
-      </c>
-      <c r="D5" s="161" t="s">
-        <v>551</v>
+      <c r="A5" s="158"/>
+      <c r="B5" s="157" t="s">
+        <v>549</v>
+      </c>
+      <c r="C5" s="159" t="s">
+        <v>548</v>
+      </c>
+      <c r="D5" s="160" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="160" t="s">
-        <v>550</v>
-      </c>
-      <c r="B6" s="160" t="s">
-        <v>549</v>
-      </c>
-      <c r="C6" s="160" t="s">
-        <v>548</v>
-      </c>
-      <c r="D6" s="161" t="s">
-        <v>547</v>
+      <c r="A6" s="159" t="s">
+        <v>546</v>
+      </c>
+      <c r="B6" s="159" t="s">
+        <v>545</v>
+      </c>
+      <c r="C6" s="159" t="s">
+        <v>544</v>
+      </c>
+      <c r="D6" s="160" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="160" t="s">
-        <v>546</v>
-      </c>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
+      <c r="A7" s="159" t="s">
+        <v>542</v>
+      </c>
+      <c r="B7" s="158"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
     </row>
     <row r="8" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="159"/>
-      <c r="B8" s="158" t="s">
-        <v>545</v>
-      </c>
-      <c r="C8" s="158" t="s">
-        <v>544</v>
-      </c>
-      <c r="D8" s="158" t="s">
-        <v>543</v>
+      <c r="A8" s="158"/>
+      <c r="B8" s="157" t="s">
+        <v>541</v>
+      </c>
+      <c r="C8" s="157" t="s">
+        <v>540</v>
+      </c>
+      <c r="D8" s="157" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="158" t="s">
-        <v>542</v>
-      </c>
-      <c r="B9" s="158" t="s">
-        <v>541</v>
-      </c>
-      <c r="C9" s="158" t="s">
-        <v>540</v>
-      </c>
-      <c r="D9" s="158" t="s">
-        <v>539</v>
+      <c r="A9" s="157" t="s">
+        <v>538</v>
+      </c>
+      <c r="B9" s="157" t="s">
+        <v>537</v>
+      </c>
+      <c r="C9" s="157" t="s">
+        <v>536</v>
+      </c>
+      <c r="D9" s="157" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="158" t="s">
-        <v>538</v>
-      </c>
-      <c r="B10" s="158" t="s">
-        <v>537</v>
-      </c>
-      <c r="C10" s="158" t="s">
-        <v>536</v>
-      </c>
-      <c r="D10" s="157"/>
+      <c r="A10" s="157" t="s">
+        <v>534</v>
+      </c>
+      <c r="B10" s="157" t="s">
+        <v>533</v>
+      </c>
+      <c r="C10" s="157" t="s">
+        <v>532</v>
+      </c>
+      <c r="D10" s="156"/>
     </row>
     <row r="11" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="157"/>
-      <c r="B11" s="157"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="157"/>
+      <c r="A11" s="156"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
     </row>
     <row r="12" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="157"/>
-      <c r="B12" s="157"/>
-      <c r="C12" s="157"/>
-      <c r="D12" s="157"/>
+      <c r="A12" s="156"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
     </row>
     <row r="13" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="157"/>
-      <c r="B13" s="157"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="157"/>
+      <c r="A13" s="156"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8522,102 +8671,102 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="26.85546875" style="81"/>
+    <col min="1" max="16384" width="26.85546875" style="80"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
-        <v>575</v>
-      </c>
-      <c r="B1" s="165" t="s">
-        <v>574</v>
-      </c>
-      <c r="C1" s="165" t="s">
-        <v>573</v>
-      </c>
-      <c r="D1" s="165" t="s">
-        <v>572</v>
-      </c>
-      <c r="E1" s="165" t="s">
-        <v>84</v>
+      <c r="A1" s="164" t="s">
+        <v>571</v>
+      </c>
+      <c r="B1" s="164" t="s">
+        <v>570</v>
+      </c>
+      <c r="C1" s="164" t="s">
+        <v>569</v>
+      </c>
+      <c r="D1" s="164" t="s">
+        <v>568</v>
+      </c>
+      <c r="E1" s="164" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="164" t="s">
-        <v>571</v>
-      </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
+      <c r="A2" s="163" t="s">
+        <v>567</v>
+      </c>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
     </row>
     <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="164" t="s">
-        <v>570</v>
-      </c>
-      <c r="B3" s="164"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
+      <c r="A3" s="163" t="s">
+        <v>566</v>
+      </c>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="164" t="s">
-        <v>569</v>
-      </c>
-      <c r="B4" s="164"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
+      <c r="A4" s="163" t="s">
+        <v>565</v>
+      </c>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
     </row>
     <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="164" t="s">
-        <v>568</v>
-      </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
+      <c r="A5" s="163" t="s">
+        <v>564</v>
+      </c>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
     </row>
     <row r="6" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="164" t="s">
-        <v>567</v>
-      </c>
-      <c r="B6" s="164"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
+      <c r="A6" s="163" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
     </row>
     <row r="7" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="164" t="s">
-        <v>566</v>
-      </c>
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
+      <c r="A7" s="163" t="s">
+        <v>562</v>
+      </c>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="164" t="s">
-        <v>565</v>
-      </c>
-      <c r="B8" s="164"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
+      <c r="A8" s="163" t="s">
+        <v>561</v>
+      </c>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="163"/>
-      <c r="B10" s="163"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="163"/>
+      <c r="A10" s="162"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="162"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8636,399 +8785,399 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" style="166" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" style="166" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="166" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="166" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="166" customWidth="1"/>
-    <col min="6" max="6" width="16" style="166" customWidth="1"/>
-    <col min="7" max="7" width="0" style="166" hidden="1"/>
-    <col min="8" max="16383" width="9.140625" style="166" hidden="1"/>
-    <col min="16384" max="16384" width="10" style="166" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" style="165" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" style="165" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="165" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="165" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="165" customWidth="1"/>
+    <col min="6" max="6" width="16" style="165" customWidth="1"/>
+    <col min="7" max="7" width="0" style="165" hidden="1"/>
+    <col min="8" max="16383" width="9.140625" style="165" hidden="1"/>
+    <col min="16384" max="16384" width="10" style="165" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="172" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="173" t="s">
-        <v>584</v>
-      </c>
-      <c r="B1" s="173" t="s">
-        <v>583</v>
-      </c>
-      <c r="C1" s="173" t="s">
-        <v>582</v>
-      </c>
-      <c r="D1" s="173" t="s">
-        <v>581</v>
-      </c>
-      <c r="E1" s="173" t="s">
+    <row r="1" spans="1:7" s="171" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="172" t="s">
         <v>580</v>
       </c>
-      <c r="F1" s="169"/>
+      <c r="B1" s="172" t="s">
+        <v>579</v>
+      </c>
+      <c r="C1" s="172" t="s">
+        <v>578</v>
+      </c>
+      <c r="D1" s="172" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1" s="172" t="s">
+        <v>576</v>
+      </c>
+      <c r="F1" s="168"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="169" t="s">
-        <v>579</v>
-      </c>
-      <c r="B2" s="171" t="s">
-        <v>578</v>
-      </c>
-      <c r="C2" s="171">
+      <c r="A2" s="168" t="s">
+        <v>575</v>
+      </c>
+      <c r="B2" s="170" t="s">
+        <v>574</v>
+      </c>
+      <c r="C2" s="170">
         <v>1227504373</v>
       </c>
-      <c r="D2" s="171">
+      <c r="D2" s="170">
         <v>1023409495</v>
       </c>
-      <c r="E2" s="171">
+      <c r="E2" s="170">
         <v>1115204079</v>
       </c>
-      <c r="F2" s="169"/>
-      <c r="G2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="167"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="169" t="s">
-        <v>579</v>
-      </c>
-      <c r="B3" s="171" t="s">
-        <v>578</v>
-      </c>
-      <c r="C3" s="171">
+      <c r="A3" s="168" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3" s="170" t="s">
+        <v>574</v>
+      </c>
+      <c r="C3" s="170">
         <v>1028358685</v>
       </c>
-      <c r="D3" s="171">
+      <c r="D3" s="170">
         <v>1221416005</v>
       </c>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="167"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="170" t="s">
-        <v>577</v>
-      </c>
-      <c r="B4" s="169" t="s">
-        <v>576</v>
-      </c>
-      <c r="C4" s="169">
+      <c r="A4" s="169" t="s">
+        <v>573</v>
+      </c>
+      <c r="B4" s="168" t="s">
+        <v>572</v>
+      </c>
+      <c r="C4" s="168">
         <v>1125519116</v>
       </c>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="167"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="169"/>
-      <c r="B5" s="169"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="168"/>
+      <c r="A5" s="168"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="167"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="169"/>
-      <c r="B6" s="169"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="168"/>
+      <c r="A6" s="168"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="167"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="169"/>
-      <c r="B7" s="169"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="168"/>
+      <c r="A7" s="168"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="167"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="169"/>
-      <c r="B8" s="169"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="168"/>
+      <c r="A8" s="168"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="167"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="169"/>
-      <c r="B9" s="169"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="168"/>
+      <c r="A9" s="168"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="167"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="169"/>
-      <c r="B10" s="169"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="168"/>
+      <c r="A10" s="168"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="167"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="169"/>
-      <c r="B11" s="169"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="169"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="168"/>
+      <c r="A11" s="168"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="167"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="169"/>
-      <c r="B12" s="169"/>
-      <c r="C12" s="169"/>
-      <c r="D12" s="169"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="168"/>
+      <c r="A12" s="168"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="167"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="169"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="168"/>
+      <c r="A13" s="168"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="167"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="169"/>
-      <c r="B14" s="169"/>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="168"/>
+      <c r="A14" s="168"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="167"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="169"/>
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="168"/>
+      <c r="A15" s="168"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="167"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="169"/>
-      <c r="B16" s="169"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="168"/>
+      <c r="A16" s="168"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="167"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="169"/>
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="168"/>
+      <c r="A17" s="168"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="167"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="169"/>
-      <c r="B18" s="169"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="168"/>
+      <c r="A18" s="168"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="168"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="167"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="169"/>
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="168"/>
+      <c r="A19" s="168"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="167"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="169"/>
-      <c r="B20" s="169"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="168"/>
+      <c r="A20" s="168"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="167"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="169"/>
-      <c r="B21" s="169"/>
-      <c r="C21" s="169"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="169"/>
-      <c r="G21" s="168"/>
+      <c r="A21" s="168"/>
+      <c r="B21" s="168"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="168"/>
+      <c r="F21" s="168"/>
+      <c r="G21" s="167"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="169"/>
-      <c r="B22" s="169"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="168"/>
+      <c r="A22" s="168"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="167"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="169"/>
-      <c r="B23" s="169"/>
-      <c r="C23" s="169"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="168"/>
+      <c r="A23" s="168"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="167"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="169"/>
-      <c r="B24" s="169"/>
-      <c r="C24" s="169"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="168"/>
+      <c r="A24" s="168"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="167"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="169"/>
-      <c r="B25" s="169"/>
-      <c r="C25" s="169"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="168"/>
+      <c r="A25" s="168"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="167"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="169"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="168"/>
+      <c r="A26" s="168"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="167"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="169"/>
-      <c r="B27" s="169"/>
-      <c r="C27" s="169"/>
-      <c r="D27" s="169"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="168"/>
+      <c r="A27" s="168"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="167"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="169"/>
-      <c r="B28" s="169"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="168"/>
+      <c r="A28" s="168"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="167"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="169"/>
-      <c r="B29" s="169"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="168"/>
+      <c r="A29" s="168"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="168"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="167"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="169"/>
-      <c r="B30" s="169"/>
-      <c r="C30" s="169"/>
-      <c r="D30" s="169"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="168"/>
+      <c r="A30" s="168"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="167"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="169"/>
-      <c r="B31" s="169"/>
-      <c r="C31" s="169"/>
-      <c r="D31" s="169"/>
-      <c r="E31" s="169"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="168"/>
+      <c r="A31" s="168"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="167"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="169"/>
-      <c r="B32" s="169"/>
-      <c r="C32" s="169"/>
-      <c r="D32" s="169"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="168"/>
+      <c r="A32" s="168"/>
+      <c r="B32" s="168"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="167"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="169"/>
-      <c r="B33" s="169"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="168"/>
+      <c r="A33" s="168"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="167"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="169"/>
-      <c r="B34" s="169"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="168"/>
+      <c r="A34" s="168"/>
+      <c r="B34" s="168"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
+      <c r="E34" s="168"/>
+      <c r="F34" s="168"/>
+      <c r="G34" s="167"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="169"/>
-      <c r="B35" s="169"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="169"/>
-      <c r="F35" s="169"/>
-      <c r="G35" s="168"/>
+      <c r="A35" s="168"/>
+      <c r="B35" s="168"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="168"/>
+      <c r="G35" s="167"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="169"/>
-      <c r="B36" s="169"/>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="169"/>
-      <c r="F36" s="169"/>
-      <c r="G36" s="168"/>
+      <c r="A36" s="168"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="167"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="169"/>
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="168"/>
+      <c r="A37" s="168"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
+      <c r="E37" s="168"/>
+      <c r="F37" s="168"/>
+      <c r="G37" s="167"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="169"/>
-      <c r="B38" s="169"/>
-      <c r="C38" s="169"/>
-      <c r="D38" s="169"/>
-      <c r="E38" s="169"/>
-      <c r="F38" s="169"/>
-      <c r="G38" s="168"/>
+      <c r="A38" s="168"/>
+      <c r="B38" s="168"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
+      <c r="E38" s="168"/>
+      <c r="F38" s="168"/>
+      <c r="G38" s="167"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="167"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
-      <c r="E39" s="167"/>
-      <c r="F39" s="167"/>
+      <c r="A39" s="166"/>
+      <c r="B39" s="166"/>
+      <c r="C39" s="166"/>
+      <c r="D39" s="166"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="166"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9050,112 +9199,112 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="112.7109375" style="97" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="97" customWidth="1"/>
-    <col min="3" max="7" width="0" style="97" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="97" hidden="1"/>
+    <col min="1" max="1" width="112.7109375" style="96" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="96" customWidth="1"/>
+    <col min="3" max="7" width="0" style="96" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="96" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="178" t="s">
-        <v>598</v>
-      </c>
-      <c r="B1" s="178" t="s">
-        <v>84</v>
+      <c r="A1" s="177" t="s">
+        <v>594</v>
+      </c>
+      <c r="B1" s="177" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="177" t="s">
-        <v>597</v>
-      </c>
-      <c r="B2" s="176"/>
+      <c r="A2" s="176" t="s">
+        <v>593</v>
+      </c>
+      <c r="B2" s="175"/>
     </row>
     <row r="3" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="177" t="s">
-        <v>596</v>
-      </c>
-      <c r="B3" s="176"/>
+      <c r="A3" s="176" t="s">
+        <v>592</v>
+      </c>
+      <c r="B3" s="175"/>
     </row>
     <row r="4" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="177" t="s">
-        <v>595</v>
-      </c>
-      <c r="B4" s="176"/>
+      <c r="A4" s="176" t="s">
+        <v>591</v>
+      </c>
+      <c r="B4" s="175"/>
     </row>
     <row r="5" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="177" t="s">
-        <v>594</v>
-      </c>
-      <c r="B5" s="176"/>
+      <c r="A5" s="176" t="s">
+        <v>590</v>
+      </c>
+      <c r="B5" s="175"/>
     </row>
     <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="177" t="s">
-        <v>593</v>
-      </c>
-      <c r="B6" s="176"/>
+      <c r="A6" s="176" t="s">
+        <v>589</v>
+      </c>
+      <c r="B6" s="175"/>
     </row>
     <row r="7" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="177" t="s">
-        <v>592</v>
-      </c>
-      <c r="B7" s="176"/>
+      <c r="A7" s="176" t="s">
+        <v>588</v>
+      </c>
+      <c r="B7" s="175"/>
     </row>
     <row r="8" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="177" t="s">
-        <v>591</v>
-      </c>
-      <c r="B8" s="176"/>
+      <c r="A8" s="176" t="s">
+        <v>587</v>
+      </c>
+      <c r="B8" s="175"/>
     </row>
     <row r="9" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="177" t="s">
-        <v>590</v>
-      </c>
-      <c r="B9" s="176"/>
+      <c r="A9" s="176" t="s">
+        <v>586</v>
+      </c>
+      <c r="B9" s="175"/>
     </row>
     <row r="10" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="177" t="s">
-        <v>589</v>
-      </c>
-      <c r="B10" s="176"/>
+      <c r="A10" s="176" t="s">
+        <v>585</v>
+      </c>
+      <c r="B10" s="175"/>
     </row>
     <row r="11" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="177" t="s">
-        <v>588</v>
-      </c>
-      <c r="B11" s="176"/>
+      <c r="A11" s="176" t="s">
+        <v>584</v>
+      </c>
+      <c r="B11" s="175"/>
     </row>
     <row r="12" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="177" t="s">
-        <v>587</v>
-      </c>
-      <c r="B12" s="176"/>
+      <c r="A12" s="176" t="s">
+        <v>583</v>
+      </c>
+      <c r="B12" s="175"/>
     </row>
     <row r="13" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="176"/>
-      <c r="B13" s="176"/>
+      <c r="A13" s="175"/>
+      <c r="B13" s="175"/>
     </row>
     <row r="14" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="176"/>
-      <c r="B14" s="176"/>
+      <c r="A14" s="175"/>
+      <c r="B14" s="175"/>
     </row>
     <row r="15" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="176"/>
-      <c r="B15" s="176"/>
+      <c r="A15" s="175"/>
+      <c r="B15" s="175"/>
     </row>
     <row r="16" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="176"/>
-      <c r="B16" s="176"/>
+      <c r="A16" s="175"/>
+      <c r="B16" s="175"/>
     </row>
     <row r="17" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="176"/>
-      <c r="B17" s="176"/>
+      <c r="A17" s="175"/>
+      <c r="B17" s="175"/>
     </row>
     <row r="18" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="175" t="s">
-        <v>586</v>
-      </c>
-      <c r="B18" s="174" t="s">
-        <v>585</v>
+      <c r="A18" s="174" t="s">
+        <v>582</v>
+      </c>
+      <c r="B18" s="173" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -9178,684 +9327,684 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="179" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="179"/>
-    <col min="3" max="3" width="10.140625" style="179" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="179" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="179" customWidth="1"/>
-    <col min="6" max="6" width="76.140625" style="179" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="179" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" style="179" customWidth="1"/>
-    <col min="9" max="9" width="23" style="179" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="179" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="179"/>
+    <col min="1" max="1" width="16" style="178" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="178"/>
+    <col min="3" max="3" width="10.140625" style="178" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="178" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="178" customWidth="1"/>
+    <col min="6" max="6" width="76.140625" style="178" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="178" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="178" customWidth="1"/>
+    <col min="9" max="9" width="23" style="178" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="178" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="178"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
-        <v>631</v>
-      </c>
-      <c r="B1" s="183" t="s">
-        <v>630</v>
-      </c>
-      <c r="C1" s="183" t="s">
-        <v>629</v>
-      </c>
-      <c r="D1" s="183" t="s">
-        <v>628</v>
-      </c>
-      <c r="E1" s="183" t="s">
+      <c r="A1" s="182" t="s">
         <v>627</v>
       </c>
-      <c r="F1" s="183" t="s">
+      <c r="B1" s="182" t="s">
         <v>626</v>
       </c>
-      <c r="G1" s="183" t="s">
+      <c r="C1" s="182" t="s">
         <v>625</v>
       </c>
-      <c r="H1" s="183" t="s">
+      <c r="D1" s="182" t="s">
         <v>624</v>
       </c>
-      <c r="I1" s="183" t="s">
+      <c r="E1" s="182" t="s">
         <v>623</v>
       </c>
-      <c r="J1" s="183" t="s">
+      <c r="F1" s="182" t="s">
         <v>622</v>
       </c>
+      <c r="G1" s="182" t="s">
+        <v>621</v>
+      </c>
+      <c r="H1" s="182" t="s">
+        <v>620</v>
+      </c>
+      <c r="I1" s="182" t="s">
+        <v>619</v>
+      </c>
+      <c r="J1" s="182" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="180">
+      <c r="A2" s="179">
         <v>80</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180">
+      <c r="B2" s="179"/>
+      <c r="C2" s="179">
         <v>70</v>
       </c>
-      <c r="D2" s="180">
+      <c r="D2" s="179">
         <v>5</v>
       </c>
-      <c r="E2" s="180">
+      <c r="E2" s="179">
         <v>2</v>
       </c>
-      <c r="F2" s="180" t="s">
-        <v>621</v>
-      </c>
-      <c r="G2" s="180" t="s">
-        <v>620</v>
-      </c>
-      <c r="H2" s="180">
+      <c r="F2" s="179" t="s">
+        <v>617</v>
+      </c>
+      <c r="G2" s="179" t="s">
+        <v>616</v>
+      </c>
+      <c r="H2" s="179">
         <v>1095305744</v>
       </c>
-      <c r="I2" s="180" t="s">
-        <v>619</v>
-      </c>
-      <c r="J2" s="180" t="s">
-        <v>618</v>
+      <c r="I2" s="179" t="s">
+        <v>615</v>
+      </c>
+      <c r="J2" s="179" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="180">
+      <c r="A3" s="179">
         <v>65</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180">
+      <c r="B3" s="179"/>
+      <c r="C3" s="179">
         <v>70</v>
       </c>
-      <c r="D3" s="180">
+      <c r="D3" s="179">
         <v>2</v>
       </c>
-      <c r="E3" s="180">
+      <c r="E3" s="179">
         <v>2</v>
       </c>
-      <c r="F3" s="182" t="s">
-        <v>617</v>
-      </c>
-      <c r="G3" s="180" t="s">
-        <v>616</v>
-      </c>
-      <c r="H3" s="180">
+      <c r="F3" s="181" t="s">
+        <v>613</v>
+      </c>
+      <c r="G3" s="179" t="s">
+        <v>612</v>
+      </c>
+      <c r="H3" s="179">
         <v>1003511128</v>
       </c>
-      <c r="I3" s="180" t="s">
-        <v>615</v>
-      </c>
-      <c r="J3" s="180" t="s">
-        <v>614</v>
+      <c r="I3" s="179" t="s">
+        <v>611</v>
+      </c>
+      <c r="J3" s="179" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="180">
+      <c r="A4" s="179">
         <v>60</v>
       </c>
-      <c r="B4" s="180">
+      <c r="B4" s="179">
         <v>650</v>
       </c>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180">
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179">
         <v>2</v>
       </c>
-      <c r="F4" s="180" t="s">
-        <v>613</v>
-      </c>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
+      <c r="F4" s="179" t="s">
+        <v>609</v>
+      </c>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="180">
+      <c r="A5" s="179">
         <v>65</v>
       </c>
-      <c r="B5" s="180">
+      <c r="B5" s="179">
         <v>700</v>
       </c>
-      <c r="C5" s="180">
+      <c r="C5" s="179">
         <v>110</v>
       </c>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180">
+      <c r="D5" s="179"/>
+      <c r="E5" s="179">
         <v>2</v>
       </c>
-      <c r="F5" s="180" t="s">
-        <v>612</v>
-      </c>
-      <c r="G5" s="180" t="s">
+      <c r="F5" s="179" t="s">
+        <v>608</v>
+      </c>
+      <c r="G5" s="179" t="s">
+        <v>597</v>
+      </c>
+      <c r="H5" s="179">
+        <v>1098092622</v>
+      </c>
+      <c r="I5" s="179" t="s">
+        <v>607</v>
+      </c>
+      <c r="J5" s="179" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="179">
+        <v>90</v>
+      </c>
+      <c r="B6" s="179"/>
+      <c r="C6" s="179">
+        <v>90</v>
+      </c>
+      <c r="D6" s="179">
+        <v>2</v>
+      </c>
+      <c r="E6" s="179">
+        <v>2</v>
+      </c>
+      <c r="F6" s="179" t="s">
+        <v>605</v>
+      </c>
+      <c r="G6" s="179" t="s">
+        <v>597</v>
+      </c>
+      <c r="H6" s="179">
+        <v>1002714644</v>
+      </c>
+      <c r="I6" s="179" t="s">
+        <v>604</v>
+      </c>
+      <c r="J6" s="179" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="179">
+        <v>55</v>
+      </c>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179">
+        <v>75</v>
+      </c>
+      <c r="D7" s="179">
+        <v>5</v>
+      </c>
+      <c r="E7" s="179">
+        <v>3</v>
+      </c>
+      <c r="F7" s="180" t="s">
+        <v>602</v>
+      </c>
+      <c r="G7" s="179" t="s">
+        <v>597</v>
+      </c>
+      <c r="H7" s="179" t="s">
         <v>601</v>
       </c>
-      <c r="H5" s="180">
-        <v>1098092622</v>
-      </c>
-      <c r="I5" s="180" t="s">
-        <v>611</v>
-      </c>
-      <c r="J5" s="180" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="180">
-        <v>90</v>
-      </c>
-      <c r="B6" s="180"/>
-      <c r="C6" s="180">
-        <v>90</v>
-      </c>
-      <c r="D6" s="180">
-        <v>2</v>
-      </c>
-      <c r="E6" s="180">
-        <v>2</v>
-      </c>
-      <c r="F6" s="180" t="s">
-        <v>609</v>
-      </c>
-      <c r="G6" s="180" t="s">
-        <v>601</v>
-      </c>
-      <c r="H6" s="180">
-        <v>1002714644</v>
-      </c>
-      <c r="I6" s="180" t="s">
-        <v>608</v>
-      </c>
-      <c r="J6" s="180" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="180">
-        <v>55</v>
-      </c>
-      <c r="B7" s="180"/>
-      <c r="C7" s="180">
-        <v>75</v>
-      </c>
-      <c r="D7" s="180">
-        <v>5</v>
-      </c>
-      <c r="E7" s="180">
+      <c r="I7" s="179" t="s">
+        <v>600</v>
+      </c>
+      <c r="J7" s="179" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="179">
+        <v>80</v>
+      </c>
+      <c r="B8" s="179">
+        <v>800</v>
+      </c>
+      <c r="C8" s="179">
+        <v>70</v>
+      </c>
+      <c r="D8" s="179">
+        <v>4</v>
+      </c>
+      <c r="E8" s="179">
         <v>3</v>
       </c>
-      <c r="F7" s="181" t="s">
-        <v>606</v>
-      </c>
-      <c r="G7" s="180" t="s">
-        <v>601</v>
-      </c>
-      <c r="H7" s="180" t="s">
-        <v>605</v>
-      </c>
-      <c r="I7" s="180" t="s">
-        <v>604</v>
-      </c>
-      <c r="J7" s="180" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="180">
-        <v>80</v>
-      </c>
-      <c r="B8" s="180">
-        <v>800</v>
-      </c>
-      <c r="C8" s="180">
-        <v>70</v>
-      </c>
-      <c r="D8" s="180">
-        <v>4</v>
-      </c>
-      <c r="E8" s="180">
-        <v>3</v>
-      </c>
-      <c r="F8" s="181" t="s">
-        <v>602</v>
-      </c>
-      <c r="G8" s="180" t="s">
-        <v>601</v>
-      </c>
-      <c r="H8" s="180">
+      <c r="F8" s="180" t="s">
+        <v>598</v>
+      </c>
+      <c r="G8" s="179" t="s">
+        <v>597</v>
+      </c>
+      <c r="H8" s="179">
         <v>1555012961</v>
       </c>
-      <c r="I8" s="180" t="s">
-        <v>600</v>
-      </c>
-      <c r="J8" s="180" t="s">
-        <v>599</v>
+      <c r="I8" s="179" t="s">
+        <v>596</v>
+      </c>
+      <c r="J8" s="179" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="180"/>
-      <c r="B9" s="180"/>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="180"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="180"/>
-      <c r="B10" s="180"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="180"/>
+      <c r="A10" s="179"/>
+      <c r="B10" s="179"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="179"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="180"/>
-      <c r="B11" s="180"/>
-      <c r="C11" s="180"/>
-      <c r="D11" s="180"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="180"/>
-      <c r="J11" s="180"/>
+      <c r="A11" s="179"/>
+      <c r="B11" s="179"/>
+      <c r="C11" s="179"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="179"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="179"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="180"/>
-      <c r="B12" s="180"/>
-      <c r="C12" s="180"/>
-      <c r="D12" s="180"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="180"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="180"/>
-      <c r="J12" s="180"/>
+      <c r="A12" s="179"/>
+      <c r="B12" s="179"/>
+      <c r="C12" s="179"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="179"/>
+      <c r="J12" s="179"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="180"/>
-      <c r="B13" s="180"/>
-      <c r="C13" s="180"/>
-      <c r="D13" s="180"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="180"/>
+      <c r="A13" s="179"/>
+      <c r="B13" s="179"/>
+      <c r="C13" s="179"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="179"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="179"/>
+      <c r="J13" s="179"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="180"/>
-      <c r="B14" s="180"/>
-      <c r="C14" s="180"/>
-      <c r="D14" s="180"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="180"/>
-      <c r="J14" s="180"/>
+      <c r="A14" s="179"/>
+      <c r="B14" s="179"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="179"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="179"/>
+      <c r="J14" s="179"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="180"/>
-      <c r="B15" s="180"/>
-      <c r="C15" s="180"/>
-      <c r="D15" s="180"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="180"/>
+      <c r="A15" s="179"/>
+      <c r="B15" s="179"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="179"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="180"/>
-      <c r="B16" s="180"/>
-      <c r="C16" s="180"/>
-      <c r="D16" s="180"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="180"/>
+      <c r="A16" s="179"/>
+      <c r="B16" s="179"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="179"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="180"/>
-      <c r="B17" s="180"/>
-      <c r="C17" s="180"/>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
+      <c r="A17" s="179"/>
+      <c r="B17" s="179"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="179"/>
+      <c r="J17" s="179"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="180"/>
-      <c r="B18" s="180"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="180"/>
-      <c r="J18" s="180"/>
+      <c r="A18" s="179"/>
+      <c r="B18" s="179"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="179"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="180"/>
-      <c r="B19" s="180"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="180"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="180"/>
-      <c r="J19" s="180"/>
+      <c r="A19" s="179"/>
+      <c r="B19" s="179"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="179"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="180"/>
-      <c r="B20" s="180"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="180"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="180"/>
-      <c r="J20" s="180"/>
+      <c r="A20" s="179"/>
+      <c r="B20" s="179"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="179"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="179"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="179"/>
+      <c r="J20" s="179"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="180"/>
-      <c r="B21" s="180"/>
-      <c r="C21" s="180"/>
-      <c r="D21" s="180"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="180"/>
-      <c r="J21" s="180"/>
+      <c r="A21" s="179"/>
+      <c r="B21" s="179"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="179"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="180"/>
-      <c r="B22" s="180"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="180"/>
-      <c r="J22" s="180"/>
+      <c r="A22" s="179"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="179"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="180"/>
-      <c r="B23" s="180"/>
-      <c r="C23" s="180"/>
-      <c r="D23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="180"/>
+      <c r="A23" s="179"/>
+      <c r="B23" s="179"/>
+      <c r="C23" s="179"/>
+      <c r="D23" s="179"/>
+      <c r="E23" s="179"/>
+      <c r="F23" s="179"/>
+      <c r="G23" s="179"/>
+      <c r="H23" s="179"/>
+      <c r="I23" s="179"/>
+      <c r="J23" s="179"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="180"/>
-      <c r="B24" s="180"/>
-      <c r="C24" s="180"/>
-      <c r="D24" s="180"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="180"/>
-      <c r="J24" s="180"/>
+      <c r="A24" s="179"/>
+      <c r="B24" s="179"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="179"/>
+      <c r="E24" s="179"/>
+      <c r="F24" s="179"/>
+      <c r="G24" s="179"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="179"/>
+      <c r="J24" s="179"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="180"/>
-      <c r="B25" s="180"/>
-      <c r="C25" s="180"/>
-      <c r="D25" s="180"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="180"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="180"/>
-      <c r="J25" s="180"/>
+      <c r="A25" s="179"/>
+      <c r="B25" s="179"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="179"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="179"/>
+      <c r="G25" s="179"/>
+      <c r="H25" s="179"/>
+      <c r="I25" s="179"/>
+      <c r="J25" s="179"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="180"/>
-      <c r="B26" s="180"/>
-      <c r="C26" s="180"/>
-      <c r="D26" s="180"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="180"/>
-      <c r="G26" s="180"/>
-      <c r="H26" s="180"/>
-      <c r="I26" s="180"/>
-      <c r="J26" s="180"/>
+      <c r="A26" s="179"/>
+      <c r="B26" s="179"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="179"/>
+      <c r="H26" s="179"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="179"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="180"/>
-      <c r="B27" s="180"/>
-      <c r="C27" s="180"/>
-      <c r="D27" s="180"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="180"/>
+      <c r="A27" s="179"/>
+      <c r="B27" s="179"/>
+      <c r="C27" s="179"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="179"/>
+      <c r="H27" s="179"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="179"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="180"/>
-      <c r="B28" s="180"/>
-      <c r="C28" s="180"/>
-      <c r="D28" s="180"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="180"/>
-      <c r="H28" s="180"/>
-      <c r="I28" s="180"/>
-      <c r="J28" s="180"/>
+      <c r="A28" s="179"/>
+      <c r="B28" s="179"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="179"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="179"/>
+      <c r="G28" s="179"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="179"/>
+      <c r="J28" s="179"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="180"/>
-      <c r="B29" s="180"/>
-      <c r="C29" s="180"/>
-      <c r="D29" s="180"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="180"/>
-      <c r="J29" s="180"/>
+      <c r="A29" s="179"/>
+      <c r="B29" s="179"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="179"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="179"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="179"/>
+      <c r="J29" s="179"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="180"/>
-      <c r="B30" s="180"/>
-      <c r="C30" s="180"/>
-      <c r="D30" s="180"/>
-      <c r="E30" s="180"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="180"/>
-      <c r="H30" s="180"/>
-      <c r="I30" s="180"/>
-      <c r="J30" s="180"/>
+      <c r="A30" s="179"/>
+      <c r="B30" s="179"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="179"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="180"/>
-      <c r="B31" s="180"/>
-      <c r="C31" s="180"/>
-      <c r="D31" s="180"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="180"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="180"/>
-      <c r="J31" s="180"/>
+      <c r="A31" s="179"/>
+      <c r="B31" s="179"/>
+      <c r="C31" s="179"/>
+      <c r="D31" s="179"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="179"/>
+      <c r="I31" s="179"/>
+      <c r="J31" s="179"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="180"/>
-      <c r="B32" s="180"/>
-      <c r="C32" s="180"/>
-      <c r="D32" s="180"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="180"/>
-      <c r="J32" s="180"/>
+      <c r="A32" s="179"/>
+      <c r="B32" s="179"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="179"/>
+      <c r="J32" s="179"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="180"/>
-      <c r="B33" s="180"/>
-      <c r="C33" s="180"/>
-      <c r="D33" s="180"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="180"/>
-      <c r="H33" s="180"/>
-      <c r="I33" s="180"/>
-      <c r="J33" s="180"/>
+      <c r="A33" s="179"/>
+      <c r="B33" s="179"/>
+      <c r="C33" s="179"/>
+      <c r="D33" s="179"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="179"/>
+      <c r="G33" s="179"/>
+      <c r="H33" s="179"/>
+      <c r="I33" s="179"/>
+      <c r="J33" s="179"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="180"/>
-      <c r="B34" s="180"/>
-      <c r="C34" s="180"/>
-      <c r="D34" s="180"/>
-      <c r="E34" s="180"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="180"/>
-      <c r="H34" s="180"/>
-      <c r="I34" s="180"/>
-      <c r="J34" s="180"/>
+      <c r="A34" s="179"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="179"/>
+      <c r="D34" s="179"/>
+      <c r="E34" s="179"/>
+      <c r="F34" s="179"/>
+      <c r="G34" s="179"/>
+      <c r="H34" s="179"/>
+      <c r="I34" s="179"/>
+      <c r="J34" s="179"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="180"/>
-      <c r="B35" s="180"/>
-      <c r="C35" s="180"/>
-      <c r="D35" s="180"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="180"/>
-      <c r="J35" s="180"/>
+      <c r="A35" s="179"/>
+      <c r="B35" s="179"/>
+      <c r="C35" s="179"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="179"/>
+      <c r="F35" s="179"/>
+      <c r="G35" s="179"/>
+      <c r="H35" s="179"/>
+      <c r="I35" s="179"/>
+      <c r="J35" s="179"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="180"/>
-      <c r="B36" s="180"/>
-      <c r="C36" s="180"/>
-      <c r="D36" s="180"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="180"/>
-      <c r="G36" s="180"/>
-      <c r="H36" s="180"/>
-      <c r="I36" s="180"/>
-      <c r="J36" s="180"/>
+      <c r="A36" s="179"/>
+      <c r="B36" s="179"/>
+      <c r="C36" s="179"/>
+      <c r="D36" s="179"/>
+      <c r="E36" s="179"/>
+      <c r="F36" s="179"/>
+      <c r="G36" s="179"/>
+      <c r="H36" s="179"/>
+      <c r="I36" s="179"/>
+      <c r="J36" s="179"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="180"/>
-      <c r="B37" s="180"/>
-      <c r="C37" s="180"/>
-      <c r="D37" s="180"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="180"/>
-      <c r="G37" s="180"/>
-      <c r="H37" s="180"/>
-      <c r="I37" s="180"/>
-      <c r="J37" s="180"/>
+      <c r="A37" s="179"/>
+      <c r="B37" s="179"/>
+      <c r="C37" s="179"/>
+      <c r="D37" s="179"/>
+      <c r="E37" s="179"/>
+      <c r="F37" s="179"/>
+      <c r="G37" s="179"/>
+      <c r="H37" s="179"/>
+      <c r="I37" s="179"/>
+      <c r="J37" s="179"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="180"/>
-      <c r="B38" s="180"/>
-      <c r="C38" s="180"/>
-      <c r="D38" s="180"/>
-      <c r="E38" s="180"/>
-      <c r="F38" s="180"/>
-      <c r="G38" s="180"/>
-      <c r="H38" s="180"/>
-      <c r="I38" s="180"/>
-      <c r="J38" s="180"/>
+      <c r="A38" s="179"/>
+      <c r="B38" s="179"/>
+      <c r="C38" s="179"/>
+      <c r="D38" s="179"/>
+      <c r="E38" s="179"/>
+      <c r="F38" s="179"/>
+      <c r="G38" s="179"/>
+      <c r="H38" s="179"/>
+      <c r="I38" s="179"/>
+      <c r="J38" s="179"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="180"/>
-      <c r="B39" s="180"/>
-      <c r="C39" s="180"/>
-      <c r="D39" s="180"/>
-      <c r="E39" s="180"/>
-      <c r="F39" s="180"/>
-      <c r="G39" s="180"/>
-      <c r="H39" s="180"/>
-      <c r="I39" s="180"/>
-      <c r="J39" s="180"/>
+      <c r="A39" s="179"/>
+      <c r="B39" s="179"/>
+      <c r="C39" s="179"/>
+      <c r="D39" s="179"/>
+      <c r="E39" s="179"/>
+      <c r="F39" s="179"/>
+      <c r="G39" s="179"/>
+      <c r="H39" s="179"/>
+      <c r="I39" s="179"/>
+      <c r="J39" s="179"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="180"/>
-      <c r="B40" s="180"/>
-      <c r="C40" s="180"/>
-      <c r="D40" s="180"/>
-      <c r="E40" s="180"/>
-      <c r="F40" s="180"/>
-      <c r="G40" s="180"/>
-      <c r="H40" s="180"/>
-      <c r="I40" s="180"/>
-      <c r="J40" s="180"/>
+      <c r="A40" s="179"/>
+      <c r="B40" s="179"/>
+      <c r="C40" s="179"/>
+      <c r="D40" s="179"/>
+      <c r="E40" s="179"/>
+      <c r="F40" s="179"/>
+      <c r="G40" s="179"/>
+      <c r="H40" s="179"/>
+      <c r="I40" s="179"/>
+      <c r="J40" s="179"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="180"/>
-      <c r="B41" s="180"/>
-      <c r="C41" s="180"/>
-      <c r="D41" s="180"/>
-      <c r="E41" s="180"/>
-      <c r="F41" s="180"/>
-      <c r="G41" s="180"/>
-      <c r="H41" s="180"/>
-      <c r="I41" s="180"/>
-      <c r="J41" s="180"/>
+      <c r="A41" s="179"/>
+      <c r="B41" s="179"/>
+      <c r="C41" s="179"/>
+      <c r="D41" s="179"/>
+      <c r="E41" s="179"/>
+      <c r="F41" s="179"/>
+      <c r="G41" s="179"/>
+      <c r="H41" s="179"/>
+      <c r="I41" s="179"/>
+      <c r="J41" s="179"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="180"/>
-      <c r="B42" s="180"/>
-      <c r="C42" s="180"/>
-      <c r="D42" s="180"/>
-      <c r="E42" s="180"/>
-      <c r="F42" s="180"/>
-      <c r="G42" s="180"/>
-      <c r="H42" s="180"/>
-      <c r="I42" s="180"/>
-      <c r="J42" s="180"/>
+      <c r="A42" s="179"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
+      <c r="E42" s="179"/>
+      <c r="F42" s="179"/>
+      <c r="G42" s="179"/>
+      <c r="H42" s="179"/>
+      <c r="I42" s="179"/>
+      <c r="J42" s="179"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="180"/>
-      <c r="B43" s="180"/>
-      <c r="C43" s="180"/>
-      <c r="D43" s="180"/>
-      <c r="E43" s="180"/>
-      <c r="F43" s="180"/>
-      <c r="G43" s="180"/>
-      <c r="H43" s="180"/>
-      <c r="I43" s="180"/>
-      <c r="J43" s="180"/>
+      <c r="A43" s="179"/>
+      <c r="B43" s="179"/>
+      <c r="C43" s="179"/>
+      <c r="D43" s="179"/>
+      <c r="E43" s="179"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="179"/>
+      <c r="H43" s="179"/>
+      <c r="I43" s="179"/>
+      <c r="J43" s="179"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="180"/>
-      <c r="B44" s="180"/>
-      <c r="C44" s="180"/>
-      <c r="D44" s="180"/>
-      <c r="E44" s="180"/>
-      <c r="F44" s="180"/>
-      <c r="G44" s="180"/>
-      <c r="H44" s="180"/>
-      <c r="I44" s="180"/>
-      <c r="J44" s="180"/>
+      <c r="A44" s="179"/>
+      <c r="B44" s="179"/>
+      <c r="C44" s="179"/>
+      <c r="D44" s="179"/>
+      <c r="E44" s="179"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="179"/>
+      <c r="H44" s="179"/>
+      <c r="I44" s="179"/>
+      <c r="J44" s="179"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9875,43 +10024,43 @@
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>646</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>650</v>
       </c>
       <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -9921,7 +10070,7 @@
     </row>
     <row r="3" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -10024,39 +10173,39 @@
   <sheetData>
     <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>84</v>
+      <c r="G1" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -10073,7 +10222,7 @@
     </row>
     <row r="4" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -10164,6 +10313,306 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D93FA79-DCB8-4005-875C-FBB5977A1ED7}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="28" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="28" style="234"/>
+    <col min="6" max="6" width="17.140625" style="234" customWidth="1"/>
+    <col min="7" max="16384" width="28" style="234"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="237" t="s">
+        <v>695</v>
+      </c>
+      <c r="B1" s="237" t="s">
+        <v>664</v>
+      </c>
+      <c r="C1" s="237" t="s">
+        <v>694</v>
+      </c>
+      <c r="D1" s="237" t="s">
+        <v>693</v>
+      </c>
+      <c r="E1" s="236"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="243" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="237" t="s">
+        <v>692</v>
+      </c>
+      <c r="B2" s="237" t="s">
+        <v>691</v>
+      </c>
+      <c r="C2" s="237" t="s">
+        <v>690</v>
+      </c>
+      <c r="D2" s="237" t="s">
+        <v>689</v>
+      </c>
+      <c r="E2" s="236"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="237" t="s">
+        <v>688</v>
+      </c>
+      <c r="B3" s="237" t="s">
+        <v>687</v>
+      </c>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="237" t="s">
+        <v>686</v>
+      </c>
+      <c r="F3" s="235"/>
+      <c r="G3" s="242" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="238" t="s">
+        <v>684</v>
+      </c>
+      <c r="B4" s="238"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="235"/>
+      <c r="G4" s="235"/>
+    </row>
+    <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="237" t="s">
+        <v>683</v>
+      </c>
+      <c r="B5" s="237" t="s">
+        <v>682</v>
+      </c>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="235"/>
+      <c r="G5" s="235"/>
+    </row>
+    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="236"/>
+      <c r="B6" s="236"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="235"/>
+      <c r="G6" s="235"/>
+    </row>
+    <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="238" t="s">
+        <v>681</v>
+      </c>
+      <c r="B7" s="238"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="238" t="s">
+        <v>681</v>
+      </c>
+      <c r="E7" s="238"/>
+      <c r="F7" s="235"/>
+      <c r="G7" s="235"/>
+    </row>
+    <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="237" t="s">
+        <v>680</v>
+      </c>
+      <c r="B8" s="237" t="s">
+        <v>679</v>
+      </c>
+      <c r="C8" s="237" t="s">
+        <v>678</v>
+      </c>
+      <c r="D8" s="237" t="s">
+        <v>677</v>
+      </c>
+      <c r="E8" s="236"/>
+      <c r="F8" s="235"/>
+      <c r="G8" s="235"/>
+    </row>
+    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="237"/>
+      <c r="B9" s="237"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="235"/>
+      <c r="G9" s="235"/>
+    </row>
+    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="238" t="s">
+        <v>676</v>
+      </c>
+      <c r="B10" s="238"/>
+      <c r="C10" s="238"/>
+      <c r="D10" s="238"/>
+      <c r="E10" s="238"/>
+      <c r="F10" s="235"/>
+      <c r="G10" s="235"/>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="237" t="s">
+        <v>675</v>
+      </c>
+      <c r="B11" s="236"/>
+      <c r="C11" s="236"/>
+      <c r="D11" s="236"/>
+      <c r="E11" s="236"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="235"/>
+    </row>
+    <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="236"/>
+      <c r="B12" s="236"/>
+      <c r="C12" s="236"/>
+      <c r="D12" s="236"/>
+      <c r="E12" s="236"/>
+      <c r="F12" s="235"/>
+      <c r="G12" s="235"/>
+    </row>
+    <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="238" t="s">
+        <v>674</v>
+      </c>
+      <c r="B13" s="238"/>
+      <c r="C13" s="238"/>
+      <c r="D13" s="238"/>
+      <c r="E13" s="238"/>
+      <c r="F13" s="235"/>
+      <c r="G13" s="235"/>
+    </row>
+    <row r="14" spans="1:7" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="241" t="s">
+        <v>673</v>
+      </c>
+      <c r="B14" s="241" t="s">
+        <v>672</v>
+      </c>
+      <c r="C14" s="241" t="s">
+        <v>671</v>
+      </c>
+      <c r="D14" s="239" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="240"/>
+      <c r="F14" s="235"/>
+      <c r="G14" s="235"/>
+    </row>
+    <row r="15" spans="1:7" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="241" t="s">
+        <v>670</v>
+      </c>
+      <c r="B15" s="240" t="s">
+        <v>669</v>
+      </c>
+      <c r="C15" s="240"/>
+      <c r="D15" s="240"/>
+      <c r="E15" s="239" t="s">
+        <v>668</v>
+      </c>
+      <c r="F15" s="235"/>
+      <c r="G15" s="235"/>
+    </row>
+    <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="238" t="s">
+        <v>667</v>
+      </c>
+      <c r="B16" s="238"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="238"/>
+      <c r="E16" s="238"/>
+      <c r="F16" s="235"/>
+      <c r="G16" s="235"/>
+    </row>
+    <row r="17" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="237" t="s">
+        <v>666</v>
+      </c>
+      <c r="B17" s="236"/>
+      <c r="C17" s="236"/>
+      <c r="D17" s="236"/>
+      <c r="E17" s="237" t="s">
+        <v>665</v>
+      </c>
+      <c r="F17" s="235"/>
+      <c r="G17" s="235"/>
+    </row>
+    <row r="18" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="236"/>
+      <c r="B18" s="236"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="236"/>
+      <c r="E18" s="236"/>
+      <c r="F18" s="235"/>
+      <c r="G18" s="235"/>
+    </row>
+    <row r="19" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="236"/>
+      <c r="B19" s="236"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="236"/>
+      <c r="E19" s="236"/>
+      <c r="F19" s="235"/>
+      <c r="G19" s="235"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A16:E16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://www.upwork.com/" xr:uid="{A4E18105-A3C6-49FD-9511-BEE8B5EAB356}"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://www.freelancer.com/" xr:uid="{A522C05A-5C51-4CBB-8737-94D2D707B35B}"/>
+    <hyperlink ref="C1" r:id="rId3" display="https://www.fiverr.com/" xr:uid="{57329CC4-9E9E-44FA-913B-AA3E51DABCE0}"/>
+    <hyperlink ref="D1" r:id="rId4" display="https://www.guru.com/" xr:uid="{82DAD4E8-5ABE-4638-9845-BC7C5AFD3EEA}"/>
+    <hyperlink ref="E3" r:id="rId5" display="https://bestcompany.com/" xr:uid="{AF28303E-C4E9-4CA0-8A10-7D7CF9E63096}"/>
+    <hyperlink ref="A11" r:id="rId6" display="http://www.freelanceme.net/" xr:uid="{82DDE908-F29D-4DA8-BD5D-3527C2A74018}"/>
+    <hyperlink ref="A5" r:id="rId7" display="https://khamsat.com/" xr:uid="{BDE03C40-CA10-4DAE-AEE3-56DC7DAD0C4B}"/>
+    <hyperlink ref="E17" r:id="rId8" display="https://99designs.com/" xr:uid="{11838D05-8C55-4B2A-8F45-90DCD0323288}"/>
+    <hyperlink ref="A2" r:id="rId9" display="https://www.toptal.com/" xr:uid="{EB98D574-01C8-484D-831C-8245E6AA0426}"/>
+    <hyperlink ref="B2" r:id="rId10" display="https://www.crowded.com/" xr:uid="{5E43BA03-3650-4462-8483-22345A1F0A3E}"/>
+    <hyperlink ref="G1" location="'0'!A1" display="Back" xr:uid="{7C93E468-1FFE-40A3-A428-6F8080517A7E}"/>
+    <hyperlink ref="B5" r:id="rId11" xr:uid="{F38ED486-D5B6-4FB1-8F5A-93A2B1BCF73A}"/>
+    <hyperlink ref="C2" r:id="rId12" xr:uid="{140654D4-D87A-431D-8327-26EF10EE59FF}"/>
+    <hyperlink ref="D2" r:id="rId13" xr:uid="{644834A0-B512-4F9E-9E3B-9644919CD210}"/>
+    <hyperlink ref="A3" r:id="rId14" xr:uid="{D7D4365C-1670-4B10-B27C-33F96D70C474}"/>
+    <hyperlink ref="A17" r:id="rId15" xr:uid="{3F92F1A4-E671-4413-906D-A933E4DFF297}"/>
+    <hyperlink ref="B3" r:id="rId16" xr:uid="{08F7DB3D-A8B5-4711-9D3C-96E133C87426}"/>
+    <hyperlink ref="A14" r:id="rId17" display="Learn With Marie" xr:uid="{A1EF4910-7004-4843-9715-CC56A9B106B7}"/>
+    <hyperlink ref="D14" r:id="rId18" xr:uid="{C5932111-3220-4E62-918C-EA82E34778EC}"/>
+    <hyperlink ref="C14" r:id="rId19" display="فكرة - صهيب الدسوقي" xr:uid="{7C70ADB7-3820-4ED7-8B2F-416A62D29481}"/>
+    <hyperlink ref="B15" r:id="rId20" xr:uid="{B6583816-DA26-4DD8-805C-DA4ECFD39131}"/>
+    <hyperlink ref="A15" r:id="rId21" display="https://www.tiktok.com/@learnwithmarie" xr:uid="{26FFFD5A-21D2-45D8-B3DB-F7B824C75210}"/>
+    <hyperlink ref="B8" r:id="rId22" xr:uid="{BC5A3069-DB6E-4E32-BFF5-BF93401F8B09}"/>
+    <hyperlink ref="A8" r:id="rId23" xr:uid="{F28F470B-4CFC-40A4-A4BC-35EC33F8A890}"/>
+    <hyperlink ref="D8" r:id="rId24" xr:uid="{F8091AD5-58BB-4103-BA99-DF7772D898A3}"/>
+    <hyperlink ref="C8" r:id="rId25" xr:uid="{1882561C-0CDA-45A6-8515-0E468926D35C}"/>
+    <hyperlink ref="E15" r:id="rId26" xr:uid="{03CF2A07-5A96-405F-9743-77E0EEFA981D}"/>
+    <hyperlink ref="B14" r:id="rId27" xr:uid="{700C123D-EE36-4A7E-A063-C6E319A9DC14}"/>
+    <hyperlink ref="G3" r:id="rId28" xr:uid="{9D15A780-F8AF-4B3B-BF4A-87F19453D537}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB5A39B-13FD-4680-9D9E-24AEB101DBF9}">
   <dimension ref="A1:I22"/>
@@ -10176,29 +10625,29 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="H1" s="1"/>
-      <c r="I1" s="18" t="s">
-        <v>84</v>
+      <c r="I1" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10459,21 +10908,21 @@
   <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>158</v>
+      <c r="A1" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>154</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="18" t="s">
-        <v>84</v>
+      <c r="F1" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -10500,116 +10949,116 @@
   <sheetData>
     <row r="1" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -10622,8 +11071,8 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="18" t="s">
-        <v>84</v>
+      <c r="H6" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -10783,8 +11232,8 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="18" t="s">
-        <v>84</v>
+      <c r="E8" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -10823,7 +11272,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04494E5-1D25-4ED8-AAEC-AE66E69D915C}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
@@ -10834,249 +11283,241 @@
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="18" t="s">
+      <c r="G1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="11" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11092,6 +11533,42 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
+    <row r="14" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://www.youtube.com/c/eyadqunaibi/videos" xr:uid="{43B8E2DC-F96C-4340-8F6C-746048EB98D5}"/>
@@ -11099,53 +11576,50 @@
     <hyperlink ref="B5" r:id="rId3" display="https://www.youtube.com/channel/UCnc4DP-ohpBFg51ogObyMeQ/videos" xr:uid="{1B054AE7-7906-434B-B29D-A8B2DE30A3E9}"/>
     <hyperlink ref="F1" r:id="rId4" display="https://www.youtube.com/c/Belaqltube/videos" xr:uid="{C07F1275-C635-416E-AB7E-4E1EB1F702E5}"/>
     <hyperlink ref="D1" r:id="rId5" display="https://www.youtube.com/channel/UCWt3O9HfHs8-LqBFnRj1wZw/videos" xr:uid="{C4545AEB-FFD3-4827-A511-EB25ECC59D0F}"/>
-    <hyperlink ref="G1" r:id="rId6" display="https://www.youtube.com/@MShmsDinT/videos" xr:uid="{1C6DB09D-3A59-45D7-A222-73A4C99E1EA2}"/>
-    <hyperlink ref="D5" r:id="rId7" display="https://www.youtube.com/user/Albyyinah/videos" xr:uid="{BB97F436-79C2-4B1D-96AB-FA91EAB37F50}"/>
-    <hyperlink ref="F3" r:id="rId8" display="https://www.facebook.com/profile.php?id=100014104034372" xr:uid="{E2A96513-0A8A-47B1-B642-E413296DEAA2}"/>
-    <hyperlink ref="E5" r:id="rId9" display="https://www.youtube.com/channel/UCMr8VnDU1gojDgzlgkDisxA/videos" xr:uid="{7765CC63-34B1-4A80-97AD-5E82997C8FA1}"/>
-    <hyperlink ref="H1" r:id="rId10" display="https://www.youtube.com/channel/UCASAOTD6fMPEg8jmO4nPblQ/videos" xr:uid="{B50BFE26-BAA2-46C4-BB2F-D1894EB7B1BA}"/>
-    <hyperlink ref="B1" r:id="rId11" display="https://www.youtube.com/c/MakanyWorld/videos" xr:uid="{A826D7B2-004B-4B5D-BCDC-ECABF41494AB}"/>
-    <hyperlink ref="E3" r:id="rId12" display="https://www.youtube.com/channel/UC-GsjCkUB5ndNryHMDdYfTA/videos" xr:uid="{031EB79A-6FDA-49BB-A13A-AB0CC7801A4E}"/>
-    <hyperlink ref="F5" r:id="rId13" display="https://www.youtube.com/c/BridgesfoundationOrgun/videos" xr:uid="{BD93C02D-6219-45AE-A7E8-E54AD79E6B2F}"/>
-    <hyperlink ref="C5" r:id="rId14" display="https://www.youtube.com/c/Shuounislamiya/videos" xr:uid="{EBE73D93-A083-48DF-A076-C41368BFD3C2}"/>
-    <hyperlink ref="A3" r:id="rId15" display="https://www.facebook.com/3laaHamed" xr:uid="{81B23A21-B187-41D0-A0AE-A59E52F15006}"/>
-    <hyperlink ref="E1" r:id="rId16" display="https://www.youtube.com/user/alsayedtvch1/videos" xr:uid="{2A6AADBD-9487-4FBA-87BD-09D7BAA42AC8}"/>
-    <hyperlink ref="B2" r:id="rId17" display="https://www.youtube.com/channel/UCScQCjryYxfCeLFdmmMm1EA" xr:uid="{40863D37-1106-4AFA-BADE-261CEED63668}"/>
-    <hyperlink ref="A2" r:id="rId18" display="https://www.youtube.com/user/YasserHozaimy/videos" xr:uid="{0499C3A8-A23B-4BE8-9712-482E670336ED}"/>
-    <hyperlink ref="C2" r:id="rId19" display="https://www.youtube.com/c/AbdulRazapAlbadr2345/videos" xr:uid="{CE8ED2CC-4E69-40A1-965E-9F5541346BA3}"/>
-    <hyperlink ref="H2" r:id="rId20" display="https://www.youtube.com/@Alkulify1/videos" xr:uid="{793D43BE-7408-439E-995B-2F4BE34C6CD1}"/>
-    <hyperlink ref="D2" r:id="rId21" display="https://www.youtube.com/user/FiqhShaf3i/videos" xr:uid="{252E0DCC-C302-4866-9B8A-F0A58CC25BBD}"/>
-    <hyperlink ref="E2" r:id="rId22" display="https://www.youtube.com/@DrAlSuwaidan/videos" xr:uid="{29BAC375-1C3A-43C4-BEA8-15E99109F1EB}"/>
-    <hyperlink ref="F2" r:id="rId23" display="https://www.youtube.com/@samirmoustafa/videos" xr:uid="{6822F3B1-BEC2-490B-B408-2DA83A89C2F8}"/>
-    <hyperlink ref="C3" r:id="rId24" display="https://www.youtube.com/@osamaoa24/videos" xr:uid="{5AE429ED-AD32-43CB-9F85-15DF00582C06}"/>
-    <hyperlink ref="B3" r:id="rId25" display="https://www.youtube.com/@SamehElgendawey/videos" xr:uid="{E8F9123C-B974-49BF-8EF1-3301D25DCAE2}"/>
-    <hyperlink ref="G2" r:id="rId26" display="https://www.youtube.com/@Sha5bata/videos" xr:uid="{C17148A2-EB32-45B5-B06B-B0A8F4239BBB}"/>
-    <hyperlink ref="A8" r:id="rId27" display="https://www.islamweb.net/ar" xr:uid="{C60F5FED-8955-4431-8E67-C83830E8F334}"/>
-    <hyperlink ref="B8" r:id="rId28" display="https://islamqa.info/ar" xr:uid="{9CC82866-8189-48AB-8574-1F9947976B53}"/>
-    <hyperlink ref="D3" r:id="rId29" display="https://www.youtube.com/channel/UCAN2kEVfIk0EC4w4hqhiQUw/videos" xr:uid="{759DCF15-70B5-47D4-A149-173802F53626}"/>
-    <hyperlink ref="C8" r:id="rId30" display="https://www.dar-alifta.org/home/index" xr:uid="{4A1D6199-D631-42B7-8E46-30E52E59562D}"/>
-    <hyperlink ref="D8" r:id="rId31" display="https://www.azhar.eg/splash.html" xr:uid="{4B4499E2-FCF3-468A-B4DA-DD97695AC61F}"/>
-    <hyperlink ref="E8" r:id="rId32" display="http://holyquran.net/search/sindex.php" xr:uid="{2EEA01FF-4BA5-4204-AE4B-FC03CBCAB485}"/>
-    <hyperlink ref="F8" r:id="rId33" display="https://en.muqri.com/" xr:uid="{B8BCFBCE-509D-41F4-B10E-717BEE2F3198}"/>
-    <hyperlink ref="G8" r:id="rId34" display="https://www.maajim.com/" xr:uid="{8FB0EB5D-92F0-4964-8980-35895D600134}"/>
-    <hyperlink ref="H8" r:id="rId35" display="https://www.dohadictionary.org/" xr:uid="{7C2FAFB0-0969-4244-9948-F1299C52E4E3}"/>
-    <hyperlink ref="A9" r:id="rId36" display="https://www.youtube.com/c/Uslameyat1/videos" xr:uid="{D68F1E5D-7FC2-4245-A668-B22AB0BA4D1D}"/>
-    <hyperlink ref="B9" r:id="rId37" display="https://www.youtube.com/@DRMohamedHedayah/videos" xr:uid="{BC00AC04-4BFC-446F-88A6-AAE4039BCE1A}"/>
-    <hyperlink ref="C9" r:id="rId38" display="https://www.facebook.com/Islam.anti.atheism" xr:uid="{7CA107BB-12D0-40F1-B227-EECA5EDA3C9D}"/>
-    <hyperlink ref="D9" r:id="rId39" display="https://islamhouse.com/ar/favorites/ar/1" xr:uid="{139EC5EC-86E4-4ED8-A5DE-77D728A63F67}"/>
-    <hyperlink ref="E9" r:id="rId40" display="https://www.facebook.com/AcademyZAD" xr:uid="{18076CB2-D37A-4E6C-B0FF-63A45481BA72}"/>
-    <hyperlink ref="F9" r:id="rId41" display="https://www.youtube.com/@mekameleen/playlists" xr:uid="{51261E04-35A9-4E94-90C4-1855B85E3A3E}"/>
-    <hyperlink ref="G9" r:id="rId42" display="https://dorar.net/" xr:uid="{5C263283-4D18-46F9-BA83-A31D6A5E56D1}"/>
-    <hyperlink ref="I12" r:id="rId43" display="https://www.youtube.com/@AhmedZayedChannel/videos" xr:uid="{42F1FFDD-6608-4B3B-A815-018A4494CAC7}"/>
-    <hyperlink ref="J12" r:id="rId44" display="https://www.facebook.com/MINDREL" xr:uid="{AB42180A-5C61-4501-B694-F11C557EE2C3}"/>
-    <hyperlink ref="A11" r:id="rId45" display="https://www.facebook.com/groups/801437283794126" xr:uid="{F43AA43E-7489-4CB7-9BF4-60AF2F3B83FA}"/>
-    <hyperlink ref="B11" r:id="rId46" display="https://www.facebook.com/groups/2755970391334452" xr:uid="{C44595C1-0104-4A02-B105-C7CE091613F6}"/>
-    <hyperlink ref="C1" r:id="rId47" display="https://www.youtube.com/@Archive_Makany_World/videos" xr:uid="{EF71FB90-0CA3-4064-919B-CC073FE46870}"/>
-    <hyperlink ref="H3" r:id="rId48" xr:uid="{AC18FD90-2A67-4CC7-A5D6-5A9DA0742C67}"/>
+    <hyperlink ref="D5" r:id="rId6" display="https://www.youtube.com/user/Albyyinah/videos" xr:uid="{BB97F436-79C2-4B1D-96AB-FA91EAB37F50}"/>
+    <hyperlink ref="E5" r:id="rId7" display="https://www.youtube.com/channel/UCMr8VnDU1gojDgzlgkDisxA/videos" xr:uid="{7765CC63-34B1-4A80-97AD-5E82997C8FA1}"/>
+    <hyperlink ref="H1" r:id="rId8" display="https://www.youtube.com/channel/UCASAOTD6fMPEg8jmO4nPblQ/videos" xr:uid="{B50BFE26-BAA2-46C4-BB2F-D1894EB7B1BA}"/>
+    <hyperlink ref="B1" r:id="rId9" display="https://www.youtube.com/c/MakanyWorld/videos" xr:uid="{A826D7B2-004B-4B5D-BCDC-ECABF41494AB}"/>
+    <hyperlink ref="D3" r:id="rId10" display="https://www.youtube.com/channel/UC-GsjCkUB5ndNryHMDdYfTA/videos" xr:uid="{031EB79A-6FDA-49BB-A13A-AB0CC7801A4E}"/>
+    <hyperlink ref="F5" r:id="rId11" display="https://www.youtube.com/c/BridgesfoundationOrgun/videos" xr:uid="{BD93C02D-6219-45AE-A7E8-E54AD79E6B2F}"/>
+    <hyperlink ref="C5" r:id="rId12" display="https://www.youtube.com/c/Shuounislamiya/videos" xr:uid="{EBE73D93-A083-48DF-A076-C41368BFD3C2}"/>
+    <hyperlink ref="H2" r:id="rId13" display="https://www.facebook.com/3laaHamed" xr:uid="{81B23A21-B187-41D0-A0AE-A59E52F15006}"/>
+    <hyperlink ref="E1" r:id="rId14" display="https://www.youtube.com/user/alsayedtvch1/videos" xr:uid="{2A6AADBD-9487-4FBA-87BD-09D7BAA42AC8}"/>
+    <hyperlink ref="B2" r:id="rId15" display="https://www.youtube.com/channel/UCScQCjryYxfCeLFdmmMm1EA" xr:uid="{40863D37-1106-4AFA-BADE-261CEED63668}"/>
+    <hyperlink ref="A2" r:id="rId16" display="https://www.youtube.com/user/YasserHozaimy/videos" xr:uid="{0499C3A8-A23B-4BE8-9712-482E670336ED}"/>
+    <hyperlink ref="C2" r:id="rId17" display="https://www.youtube.com/c/AbdulRazapAlbadr2345/videos" xr:uid="{CE8ED2CC-4E69-40A1-965E-9F5541346BA3}"/>
+    <hyperlink ref="G2" r:id="rId18" display="https://www.youtube.com/@Alkulify1/videos" xr:uid="{793D43BE-7408-439E-995B-2F4BE34C6CD1}"/>
+    <hyperlink ref="D2" r:id="rId19" display="https://www.youtube.com/user/FiqhShaf3i/videos" xr:uid="{252E0DCC-C302-4866-9B8A-F0A58CC25BBD}"/>
+    <hyperlink ref="E2" r:id="rId20" display="https://www.youtube.com/@DrAlSuwaidan/videos" xr:uid="{29BAC375-1C3A-43C4-BEA8-15E99109F1EB}"/>
+    <hyperlink ref="F2" r:id="rId21" display="https://www.youtube.com/@samirmoustafa/videos" xr:uid="{6822F3B1-BEC2-490B-B408-2DA83A89C2F8}"/>
+    <hyperlink ref="B3" r:id="rId22" display="https://www.youtube.com/@osamaoa24/videos" xr:uid="{5AE429ED-AD32-43CB-9F85-15DF00582C06}"/>
+    <hyperlink ref="A3" r:id="rId23" display="https://www.youtube.com/@SamehElgendawey/videos" xr:uid="{E8F9123C-B974-49BF-8EF1-3301D25DCAE2}"/>
+    <hyperlink ref="G1" r:id="rId24" display="https://www.youtube.com/@Sha5bata/videos" xr:uid="{C17148A2-EB32-45B5-B06B-B0A8F4239BBB}"/>
+    <hyperlink ref="A8" r:id="rId25" display="https://www.islamweb.net/ar" xr:uid="{C60F5FED-8955-4431-8E67-C83830E8F334}"/>
+    <hyperlink ref="B8" r:id="rId26" display="https://islamqa.info/ar" xr:uid="{9CC82866-8189-48AB-8574-1F9947976B53}"/>
+    <hyperlink ref="C3" r:id="rId27" display="https://www.youtube.com/channel/UCAN2kEVfIk0EC4w4hqhiQUw/videos" xr:uid="{759DCF15-70B5-47D4-A149-173802F53626}"/>
+    <hyperlink ref="C8" r:id="rId28" display="https://www.dar-alifta.org/home/index" xr:uid="{4A1D6199-D631-42B7-8E46-30E52E59562D}"/>
+    <hyperlink ref="D8" r:id="rId29" display="https://www.azhar.eg/splash.html" xr:uid="{4B4499E2-FCF3-468A-B4DA-DD97695AC61F}"/>
+    <hyperlink ref="E8" r:id="rId30" display="http://holyquran.net/search/sindex.php" xr:uid="{2EEA01FF-4BA5-4204-AE4B-FC03CBCAB485}"/>
+    <hyperlink ref="F8" r:id="rId31" display="https://en.muqri.com/" xr:uid="{B8BCFBCE-509D-41F4-B10E-717BEE2F3198}"/>
+    <hyperlink ref="G8" r:id="rId32" display="https://www.maajim.com/" xr:uid="{8FB0EB5D-92F0-4964-8980-35895D600134}"/>
+    <hyperlink ref="H8" r:id="rId33" display="https://www.dohadictionary.org/" xr:uid="{7C2FAFB0-0969-4244-9948-F1299C52E4E3}"/>
+    <hyperlink ref="A9" r:id="rId34" display="https://www.youtube.com/c/Uslameyat1/videos" xr:uid="{D68F1E5D-7FC2-4245-A668-B22AB0BA4D1D}"/>
+    <hyperlink ref="B9" r:id="rId35" display="https://www.youtube.com/@DRMohamedHedayah/videos" xr:uid="{BC00AC04-4BFC-446F-88A6-AAE4039BCE1A}"/>
+    <hyperlink ref="C9" r:id="rId36" display="https://www.facebook.com/Islam.anti.atheism" xr:uid="{7CA107BB-12D0-40F1-B227-EECA5EDA3C9D}"/>
+    <hyperlink ref="D9" r:id="rId37" display="https://islamhouse.com/ar/favorites/ar/1" xr:uid="{139EC5EC-86E4-4ED8-A5DE-77D728A63F67}"/>
+    <hyperlink ref="E9" r:id="rId38" display="https://www.facebook.com/AcademyZAD" xr:uid="{18076CB2-D37A-4E6C-B0FF-63A45481BA72}"/>
+    <hyperlink ref="F9" r:id="rId39" display="https://www.youtube.com/@mekameleen/playlists" xr:uid="{51261E04-35A9-4E94-90C4-1855B85E3A3E}"/>
+    <hyperlink ref="G9" r:id="rId40" display="https://dorar.net/" xr:uid="{5C263283-4D18-46F9-BA83-A31D6A5E56D1}"/>
+    <hyperlink ref="I12" r:id="rId41" display="https://www.youtube.com/@AhmedZayedChannel/videos" xr:uid="{42F1FFDD-6608-4B3B-A815-018A4494CAC7}"/>
+    <hyperlink ref="J12" r:id="rId42" display="https://www.facebook.com/MINDREL" xr:uid="{AB42180A-5C61-4501-B694-F11C557EE2C3}"/>
+    <hyperlink ref="A11" r:id="rId43" display="https://www.facebook.com/groups/801437283794126" xr:uid="{F43AA43E-7489-4CB7-9BF4-60AF2F3B83FA}"/>
+    <hyperlink ref="B11" r:id="rId44" display="https://www.facebook.com/groups/2755970391334452" xr:uid="{C44595C1-0104-4A02-B105-C7CE091613F6}"/>
+    <hyperlink ref="C1" r:id="rId45" display="https://www.youtube.com/@Archive_Makany_World/videos" xr:uid="{EF71FB90-0CA3-4064-919B-CC073FE46870}"/>
     <hyperlink ref="J1" location="'0'!A1" display="Back" xr:uid="{D3A73D6A-1164-4602-8515-858039F2DC39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId49"/>
+  <pageSetup orientation="portrait" r:id="rId46"/>
 </worksheet>
 </file>
 
@@ -11166,10 +11640,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -11180,22 +11654,22 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="185" t="s">
-        <v>657</v>
+      <c r="B2" s="184" t="s">
+        <v>653</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="18" t="s">
-        <v>84</v>
+      <c r="F2" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="185" t="s">
-        <v>661</v>
+      <c r="B3" s="184" t="s">
+        <v>657</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -11204,10 +11678,10 @@
     </row>
     <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="B4" s="185" t="s">
-        <v>658</v>
+        <v>651</v>
+      </c>
+      <c r="B4" s="184" t="s">
+        <v>654</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -11216,10 +11690,10 @@
     </row>
     <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="B5" s="185" t="s">
-        <v>659</v>
+        <v>656</v>
+      </c>
+      <c r="B5" s="184" t="s">
+        <v>655</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -11228,10 +11702,10 @@
     </row>
     <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B6" s="185" t="s">
-        <v>666</v>
+        <v>661</v>
+      </c>
+      <c r="B6" s="184" t="s">
+        <v>662</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -11239,16 +11713,16 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
-      <c r="B7" s="185"/>
+      <c r="A7" s="184"/>
+      <c r="B7" s="184"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="185"/>
+      <c r="A8" s="184"/>
+      <c r="B8" s="184"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -11256,7 +11730,7 @@
     </row>
     <row r="9" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="185"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -11264,7 +11738,7 @@
     </row>
     <row r="10" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="185"/>
+      <c r="B10" s="184"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -11272,7 +11746,7 @@
     </row>
     <row r="11" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="185"/>
+      <c r="B11" s="184"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -11280,7 +11754,7 @@
     </row>
     <row r="12" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="185"/>
+      <c r="B12" s="184"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -11288,10 +11762,10 @@
     </row>
     <row r="13" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B13" s="185" t="s">
-        <v>663</v>
+        <v>180</v>
+      </c>
+      <c r="B13" s="184" t="s">
+        <v>659</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -11300,7 +11774,7 @@
     </row>
     <row r="14" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="185"/>
+      <c r="B14" s="184"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>

--- a/HTML/0 Excel SRC Files/3 Excel.xlsx
+++ b/HTML/0 Excel SRC Files/3 Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374EE87A-DDD4-4EC4-AF81-F90AF5EA2854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DD00B0-DAB7-41D1-A4D5-9BABDD8EE59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" tabRatio="899" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" tabRatio="899" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="698">
   <si>
     <t>البيت الكبير</t>
   </si>
@@ -1055,9 +1055,6 @@
   </si>
   <si>
     <t>جنزبيل / كمون</t>
-  </si>
-  <si>
-    <t>المقليات</t>
   </si>
   <si>
     <t>جبنة قريش</t>
@@ -2219,12 +2216,18 @@
   <si>
     <t>[Freelance]</t>
   </si>
+  <si>
+    <t>الفول / الطعمية</t>
+  </si>
+  <si>
+    <t>المقليات / زيوت القلي</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2604,6 +2607,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="22">
     <fill>
@@ -2733,7 +2744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -3385,17 +3396,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -3413,7 +3413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3516,9 +3516,6 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3922,7 +3919,7 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3952,7 +3949,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3961,6 +3958,33 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3986,18 +4010,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4108,35 +4120,29 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="21" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4909,8 +4915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4933,22 +4939,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>227</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4958,8 +4964,8 @@
       <c r="B2" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="183" t="s">
-        <v>637</v>
+      <c r="C2" s="182" t="s">
+        <v>636</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -5032,7 +5038,7 @@
       <c r="D7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="183" t="s">
+      <c r="E7" s="182" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -5042,7 +5048,7 @@
         <v>150</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5050,25 +5056,25 @@
         <v>128</v>
       </c>
       <c r="B8" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>631</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="D8" s="20" t="s">
+        <v>635</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>634</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>633</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>632</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>636</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>635</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>634</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>633</v>
-      </c>
       <c r="H8" s="20" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5111,6 +5117,7 @@
     <hyperlink ref="F1" location="Inside!A1" display="Inside" xr:uid="{9E119639-1878-44FC-9553-FA20D8EDDF7F}"/>
     <hyperlink ref="D8" location="Lib!A1" display="Library" xr:uid="{1B3F76CA-2136-45B1-8723-4D2B619E52BF}"/>
     <hyperlink ref="H7" location="FL!A1" display="[Freelance]" xr:uid="{799980D9-B524-48BA-A56B-E3B4855132DE}"/>
+    <hyperlink ref="E1" location="Food!A1" display="Body" xr:uid="{93D3B2A3-E9BA-49D3-B3E5-952B4074149D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>
@@ -5965,15 +5972,15 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
-      <c r="B5" s="186"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="187"/>
+      <c r="A5" s="193"/>
+      <c r="B5" s="194"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="195"/>
     </row>
     <row r="6" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
@@ -5990,15 +5997,15 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="187"/>
+      <c r="A7" s="193"/>
+      <c r="B7" s="194"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="195"/>
     </row>
     <row r="8" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -6047,15 +6054,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
-      <c r="B10" s="186"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="187"/>
+      <c r="A10" s="193"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="195"/>
     </row>
     <row r="11" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
@@ -6104,15 +6111,15 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="185"/>
-      <c r="B13" s="188"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="188"/>
-      <c r="E13" s="188"/>
-      <c r="F13" s="188"/>
-      <c r="G13" s="188"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="187"/>
+      <c r="A13" s="193"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="195"/>
     </row>
     <row r="14" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
@@ -6661,10 +6668,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9977A93-9C4A-4E25-9D64-A0FBE0508D58}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N2"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6677,13 +6684,14 @@
     <col min="6" max="6" width="14.5703125" style="34" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" style="34" customWidth="1"/>
     <col min="8" max="8" width="1.140625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" style="34" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="34" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="34"/>
+    <col min="9" max="9" width="27.5703125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="34" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" style="34" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>320</v>
       </c>
@@ -6696,520 +6704,530 @@
       <c r="D1" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="E1" s="189"/>
-      <c r="F1" s="190" t="s">
+      <c r="E1" s="197"/>
+      <c r="F1" s="198" t="s">
         <v>323</v>
       </c>
-      <c r="G1" s="191"/>
-      <c r="I1" s="35" t="s">
-        <v>324</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="M1" s="194" t="s">
+      <c r="G1" s="199"/>
+      <c r="I1" s="200" t="s">
+        <v>366</v>
+      </c>
+      <c r="J1" s="201"/>
+      <c r="L1" s="240" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="195"/>
-    </row>
-    <row r="2" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="37">
         <v>77.5</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <v>18</v>
       </c>
-      <c r="E2" s="189"/>
+      <c r="E2" s="197"/>
       <c r="F2" s="32" t="s">
         <v>328</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="I2" s="40" t="s">
-        <v>329</v>
-      </c>
-      <c r="J2" s="41" t="s">
+      <c r="I2" s="59" t="s">
+        <v>368</v>
+      </c>
+      <c r="J2" s="60">
+        <v>1.5</v>
+      </c>
+      <c r="L2" s="241"/>
+    </row>
+    <row r="3" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="M2" s="196"/>
-      <c r="N2" s="197"/>
-    </row>
-    <row r="3" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="B3" s="42">
+        <v>98</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>331</v>
       </c>
-      <c r="B3" s="43">
-        <v>98</v>
-      </c>
-      <c r="C3" s="44" t="s">
+      <c r="D3" s="42">
+        <v>22</v>
+      </c>
+      <c r="E3" s="197"/>
+      <c r="F3" s="44" t="s">
         <v>332</v>
       </c>
-      <c r="D3" s="43">
+      <c r="G3" s="37">
+        <v>132</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>371</v>
+      </c>
+      <c r="J3" s="60">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="B4" s="42">
+        <v>76</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="D4" s="42">
         <v>22</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="G3" s="38">
-        <v>132</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
-        <v>336</v>
-      </c>
-      <c r="B4" s="43">
-        <v>76</v>
-      </c>
-      <c r="C4" s="44" t="s">
+      <c r="E4" s="197"/>
+      <c r="F4" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="D4" s="43">
+      <c r="G4" s="37">
+        <v>120</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="J4" s="239" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" s="42">
+        <v>61</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" s="47">
         <v>22</v>
       </c>
-      <c r="E4" s="189"/>
-      <c r="F4" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="G4" s="38">
-        <v>120</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>339</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>341</v>
-      </c>
-      <c r="B5" s="43">
-        <v>61</v>
-      </c>
-      <c r="C5" s="47" t="s">
+      <c r="E5" s="197"/>
+      <c r="F5" s="45" t="s">
         <v>342</v>
       </c>
-      <c r="D5" s="48">
-        <v>22</v>
-      </c>
-      <c r="E5" s="189"/>
-      <c r="F5" s="46" t="s">
-        <v>343</v>
-      </c>
-      <c r="G5" s="43">
+      <c r="G5" s="42">
         <v>128</v>
       </c>
-      <c r="I5" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="J5" s="41" t="s">
+      <c r="I5" s="59" t="s">
+        <v>379</v>
+      </c>
+      <c r="J5" s="60">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="43" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="44" t="s">
+      <c r="D6" s="42">
+        <v>40</v>
+      </c>
+      <c r="E6" s="197"/>
+      <c r="F6" s="45" t="s">
         <v>346</v>
       </c>
-      <c r="D6" s="43">
-        <v>40</v>
-      </c>
-      <c r="E6" s="189"/>
-      <c r="F6" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="G6" s="43">
+      <c r="G6" s="42">
         <v>100</v>
       </c>
-      <c r="I6" s="50" t="s">
-        <v>348</v>
-      </c>
-      <c r="J6" s="41" t="s">
+      <c r="I6" s="59" t="s">
+        <v>381</v>
+      </c>
+      <c r="J6" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44" t="s">
+      <c r="D7" s="42" t="s">
         <v>350</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="E7" s="197"/>
+      <c r="F7" s="50" t="s">
         <v>351</v>
       </c>
-      <c r="E7" s="189"/>
-      <c r="F7" s="51" t="s">
-        <v>352</v>
-      </c>
-      <c r="G7" s="52"/>
-      <c r="I7" s="40" t="s">
-        <v>353</v>
-      </c>
-      <c r="J7" s="41" t="s">
+      <c r="G7" s="51"/>
+      <c r="I7" s="59" t="s">
+        <v>383</v>
+      </c>
+      <c r="J7" s="60">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="32" t="s">
         <v>355</v>
-      </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="32" t="s">
-        <v>356</v>
       </c>
       <c r="G8" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="I8" s="40" t="s">
-        <v>357</v>
-      </c>
-      <c r="J8" s="41" t="s">
+      <c r="I8" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="J8" s="60"/>
+    </row>
+    <row r="9" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="197"/>
+      <c r="F9" s="52" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="53" t="s">
-        <v>359</v>
-      </c>
-      <c r="G9" s="38">
+      <c r="G9" s="37">
         <v>143</v>
       </c>
-      <c r="I9" s="54" t="s">
-        <v>360</v>
-      </c>
-      <c r="J9" s="55" t="s">
+      <c r="I9" s="68" t="s">
+        <v>390</v>
+      </c>
+      <c r="J9" s="69"/>
+    </row>
+    <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="55" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="56" t="s">
+      <c r="B10" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="C10" s="43"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="197"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="42"/>
+      <c r="I10" s="198" t="s">
+        <v>394</v>
+      </c>
+      <c r="J10" s="199"/>
+    </row>
+    <row r="11" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="56" t="s">
         <v>363</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="43"/>
-    </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="57" t="s">
+      <c r="B11" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="C11" s="57" t="s">
         <v>364</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>363</v>
-      </c>
-      <c r="C11" s="58" t="s">
+      <c r="D11" s="48" t="s">
         <v>365</v>
       </c>
-      <c r="D11" s="49" t="s">
-        <v>366</v>
-      </c>
-      <c r="E11" s="189"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="43"/>
-      <c r="I11" s="192" t="s">
+      <c r="E11" s="197"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="42"/>
+    </row>
+    <row r="12" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="58" t="s">
         <v>367</v>
-      </c>
-      <c r="J11" s="193"/>
-    </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59" t="s">
-        <v>368</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>321</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="E12" s="189"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="43"/>
-      <c r="I12" s="60" t="s">
+      <c r="E12" s="197"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="42"/>
+      <c r="I12" s="244" t="s">
+        <v>325</v>
+      </c>
+      <c r="J12" s="245"/>
+    </row>
+    <row r="13" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="61" t="s">
         <v>369</v>
       </c>
-      <c r="J12" s="61">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62" t="s">
+      <c r="B13" s="37">
+        <v>69</v>
+      </c>
+      <c r="C13" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="B13" s="38">
-        <v>69</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>371</v>
-      </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <v>41</v>
       </c>
-      <c r="E13" s="189"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="52"/>
-      <c r="I13" s="60" t="s">
+      <c r="E13" s="197"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="I13" s="40" t="s">
+        <v>697</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="61" t="s">
         <v>372</v>
       </c>
-      <c r="J13" s="61">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="62" t="s">
+      <c r="B14" s="42">
+        <v>23</v>
+      </c>
+      <c r="C14" s="52" t="s">
         <v>373</v>
       </c>
-      <c r="B14" s="43">
-        <v>23</v>
-      </c>
-      <c r="C14" s="53" t="s">
+      <c r="D14" s="37">
+        <v>84</v>
+      </c>
+      <c r="E14" s="197"/>
+      <c r="F14" s="32" t="s">
         <v>374</v>
-      </c>
-      <c r="D14" s="38">
-        <v>84</v>
-      </c>
-      <c r="E14" s="189"/>
-      <c r="F14" s="32" t="s">
-        <v>375</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="I14" s="60" t="s">
-        <v>376</v>
-      </c>
-      <c r="J14" s="61" t="s">
+      <c r="I14" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="C15" s="45" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
-        <v>323</v>
-      </c>
-      <c r="B15" s="43" t="s">
+      <c r="D15" s="42">
+        <v>169</v>
+      </c>
+      <c r="E15" s="197"/>
+      <c r="F15" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="G15" s="37">
+        <v>120</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="55" t="s">
+        <v>361</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="D16" s="42">
+        <v>142</v>
+      </c>
+      <c r="E16" s="197"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="42"/>
+      <c r="I16" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="62" t="s">
         <v>363</v>
       </c>
-      <c r="C15" s="46" t="s">
-        <v>378</v>
-      </c>
-      <c r="D15" s="43">
-        <v>169</v>
-      </c>
-      <c r="E15" s="189"/>
-      <c r="F15" s="53" t="s">
-        <v>379</v>
-      </c>
-      <c r="G15" s="38">
+      <c r="B17" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="D17" s="42">
+        <v>35</v>
+      </c>
+      <c r="E17" s="197"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="42"/>
+      <c r="I17" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="J17" s="54"/>
+    </row>
+    <row r="18" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="63" t="s">
+        <v>384</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>385</v>
+      </c>
+      <c r="D18" s="42">
         <v>120</v>
       </c>
-      <c r="I15" s="60" t="s">
-        <v>380</v>
-      </c>
-      <c r="J15" s="61">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
-        <v>362</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>363</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>381</v>
-      </c>
-      <c r="D16" s="43">
-        <v>142</v>
-      </c>
-      <c r="E16" s="189"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="43"/>
-      <c r="I16" s="60" t="s">
-        <v>382</v>
-      </c>
-      <c r="J16" s="61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="63" t="s">
-        <v>364</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>363</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>383</v>
-      </c>
-      <c r="D17" s="43">
-        <v>35</v>
-      </c>
-      <c r="E17" s="189"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="43"/>
-      <c r="I17" s="60" t="s">
-        <v>384</v>
-      </c>
-      <c r="J17" s="61">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="64" t="s">
-        <v>385</v>
-      </c>
-      <c r="B18" s="65" t="s">
+      <c r="F18" s="45"/>
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>388</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="D19" s="42">
+        <v>100</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="I19" s="242" t="s">
+        <v>324</v>
+      </c>
+      <c r="J19" s="243"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="59" t="s">
+        <v>391</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>392</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>393</v>
+      </c>
+      <c r="D20" s="47">
+        <v>75</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>396</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>397</v>
+      </c>
+      <c r="D21" s="64" t="s">
         <v>321</v>
       </c>
-      <c r="C18" s="46" t="s">
-        <v>386</v>
-      </c>
-      <c r="D18" s="43">
-        <v>120</v>
-      </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="43"/>
-      <c r="I18" s="60" t="s">
-        <v>387</v>
-      </c>
-      <c r="J18" s="61"/>
-    </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="66" t="s">
-        <v>388</v>
-      </c>
-      <c r="B19" s="67" t="s">
-        <v>389</v>
-      </c>
-      <c r="C19" s="68" t="s">
-        <v>390</v>
-      </c>
-      <c r="D19" s="43">
-        <v>100</v>
-      </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
-      <c r="I19" s="69" t="s">
-        <v>391</v>
-      </c>
-      <c r="J19" s="70"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="60" t="s">
-        <v>392</v>
-      </c>
-      <c r="B20" s="71" t="s">
-        <v>393</v>
-      </c>
-      <c r="C20" s="72" t="s">
-        <v>394</v>
-      </c>
-      <c r="D20" s="48">
-        <v>75</v>
-      </c>
-      <c r="I20" s="190" t="s">
-        <v>395</v>
-      </c>
-      <c r="J20" s="191"/>
-    </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
-        <v>396</v>
-      </c>
-      <c r="B21" s="71" t="s">
-        <v>397</v>
-      </c>
-      <c r="C21" s="64" t="s">
+      <c r="I21" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="B22" s="72" t="s">
         <v>398</v>
       </c>
-      <c r="D21" s="65" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="69" t="s">
-        <v>371</v>
-      </c>
-      <c r="B22" s="73" t="s">
+      <c r="C22" s="43" t="s">
         <v>399</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="D22" s="48" t="s">
         <v>400</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="I22" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="J22" s="49" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="57"/>
+      <c r="D23" s="51"/>
+      <c r="I23" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="J23" s="39"/>
+    </row>
+    <row r="24" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="J24" s="53"/>
+    </row>
+    <row r="26" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:10" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="73" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="58"/>
-      <c r="D23" s="52"/>
-    </row>
-    <row r="30" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:10" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="74" t="s">
+      <c r="B27" s="74" t="s">
         <v>402</v>
       </c>
-      <c r="B31" s="75" t="s">
+      <c r="C27" s="75" t="s">
         <v>403</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="D27" s="76" t="s">
         <v>404</v>
       </c>
-      <c r="D31" s="77" t="s">
+      <c r="E27" s="77"/>
+      <c r="F27" s="78" t="s">
         <v>405</v>
       </c>
-      <c r="E31" s="78"/>
-      <c r="F31" s="79" t="s">
-        <v>406</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="E1:E17"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="I12:J12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D31" location="Sports!A1" display="Sport" xr:uid="{0E60B1D8-A03B-425B-B677-F574292DD411}"/>
-    <hyperlink ref="F31" location="Clothes!A1" display="--&gt; Cloths &lt;--" xr:uid="{375C4977-9AD6-4263-81AE-B5BA08EB21E5}"/>
-    <hyperlink ref="C31" location="'W(KG)'!A1" display="Weight (KG)" xr:uid="{0E005189-6B4A-4EAD-8361-B65EF0013ADB}"/>
-    <hyperlink ref="B31" location="Kidney!A1" display="كٌلي" xr:uid="{3DC46F57-A74B-4F13-A464-0459652F93B3}"/>
-    <hyperlink ref="A31" location="Advise!A1" display="نصائح" xr:uid="{D338DCDA-2EE3-4AE9-AD5C-8878ADCCB93E}"/>
-    <hyperlink ref="M1:N2" location="'0'!A1" display="Back" xr:uid="{6251A5A8-2E74-46A2-BD4C-E5981E350C13}"/>
+    <hyperlink ref="D27" location="Sports!A1" display="Sport" xr:uid="{0E60B1D8-A03B-425B-B677-F574292DD411}"/>
+    <hyperlink ref="F27" location="Clothes!A1" display="--&gt; Cloths &lt;--" xr:uid="{375C4977-9AD6-4263-81AE-B5BA08EB21E5}"/>
+    <hyperlink ref="C27" location="'W(KG)'!A1" display="Weight (KG)" xr:uid="{0E005189-6B4A-4EAD-8361-B65EF0013ADB}"/>
+    <hyperlink ref="B27" location="Kidney!A1" display="كٌلي" xr:uid="{3DC46F57-A74B-4F13-A464-0459652F93B3}"/>
+    <hyperlink ref="A27" location="Advise!A1" display="نصائح" xr:uid="{D338DCDA-2EE3-4AE9-AD5C-8878ADCCB93E}"/>
+    <hyperlink ref="L1:L2" location="'0'!A1" display="Back" xr:uid="{6251A5A8-2E74-46A2-BD4C-E5981E350C13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7226,36 +7244,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="80" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" style="80" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" style="80" customWidth="1"/>
-    <col min="4" max="4" width="58.42578125" style="80" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="80" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="80" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="80"/>
-    <col min="8" max="8" width="32.85546875" style="80" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="80"/>
-    <col min="11" max="11" width="8.28515625" style="80" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="80"/>
-    <col min="14" max="14" width="10" style="80" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="80"/>
+    <col min="1" max="1" width="2.7109375" style="79" customWidth="1"/>
+    <col min="2" max="2" width="49.140625" style="79" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="79" customWidth="1"/>
+    <col min="4" max="4" width="58.42578125" style="79" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="79" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="79" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="79"/>
+    <col min="8" max="8" width="32.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="79"/>
+    <col min="11" max="11" width="8.28515625" style="79" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="79"/>
+    <col min="14" max="14" width="10" style="79" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="86" t="s">
-        <v>419</v>
-      </c>
-      <c r="D1" s="86" t="s">
+      <c r="B1" s="85" t="s">
         <v>418</v>
       </c>
-      <c r="F1" s="198" t="s">
+      <c r="D1" s="85" t="s">
+        <v>417</v>
+      </c>
+      <c r="F1" s="202" t="s">
         <v>83</v>
       </c>
       <c r="I1" s="34"/>
       <c r="L1" s="34"/>
     </row>
     <row r="2" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="199"/>
+      <c r="F2" s="203"/>
       <c r="G2" s="34"/>
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
@@ -7266,49 +7284,49 @@
       <c r="N2" s="34"/>
     </row>
     <row r="3" spans="2:14" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="81" t="s">
-        <v>417</v>
-      </c>
-      <c r="D3" s="85" t="s">
+      <c r="B3" s="80" t="s">
         <v>416</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>415</v>
       </c>
       <c r="I3" s="34"/>
       <c r="L3" s="34"/>
     </row>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:14" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="81" t="s">
-        <v>415</v>
-      </c>
-      <c r="D5" s="82" t="s">
+      <c r="B5" s="80" t="s">
         <v>414</v>
       </c>
-      <c r="H5" s="84" t="s">
+      <c r="D5" s="81" t="s">
         <v>413</v>
+      </c>
+      <c r="H5" s="83" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:14" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="83" t="s">
-        <v>412</v>
-      </c>
-      <c r="D7" s="82" t="s">
+      <c r="B7" s="82" t="s">
         <v>411</v>
+      </c>
+      <c r="D7" s="81" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="81" t="s">
-        <v>410</v>
-      </c>
-      <c r="D9" s="82" t="s">
+      <c r="B9" s="80" t="s">
         <v>409</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="81" t="s">
-        <v>408</v>
+      <c r="D11" s="80" t="s">
+        <v>407</v>
       </c>
       <c r="E11" s="34"/>
     </row>
@@ -7317,8 +7335,8 @@
       <c r="E12" s="34"/>
     </row>
     <row r="13" spans="2:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="81" t="s">
-        <v>407</v>
+      <c r="D13" s="80" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -7347,131 +7365,131 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="57" style="87" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="87" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" style="87" customWidth="1"/>
-    <col min="4" max="4" width="35" style="87" customWidth="1"/>
-    <col min="5" max="5" width="30" style="87" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="87"/>
+    <col min="1" max="1" width="57" style="86" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="86" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" style="86" customWidth="1"/>
+    <col min="4" max="4" width="35" style="86" customWidth="1"/>
+    <col min="5" max="5" width="30" style="86" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="86"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="90" t="s">
-        <v>447</v>
-      </c>
-      <c r="B1" s="90" t="s">
+      <c r="A1" s="89" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" s="89" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="90" t="s">
-        <v>446</v>
-      </c>
-      <c r="D1" s="200" t="s">
+      <c r="C1" s="89" t="s">
         <v>445</v>
       </c>
-      <c r="E1" s="200"/>
-      <c r="G1" s="198" t="s">
+      <c r="D1" s="204" t="s">
+        <v>444</v>
+      </c>
+      <c r="E1" s="204"/>
+      <c r="G1" s="202" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="88" t="s">
-        <v>444</v>
-      </c>
-      <c r="B2" s="88" t="s">
+      <c r="A2" s="87" t="s">
         <v>443</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="B2" s="87" t="s">
         <v>442</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="87" t="s">
         <v>441</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="D2" s="87" t="s">
         <v>440</v>
       </c>
-      <c r="G2" s="199"/>
+      <c r="E2" s="87" t="s">
+        <v>439</v>
+      </c>
+      <c r="G2" s="203"/>
     </row>
     <row r="3" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
-        <v>439</v>
-      </c>
-      <c r="B3" s="88" t="s">
+      <c r="A3" s="87" t="s">
         <v>438</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="B3" s="87" t="s">
         <v>437</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="C3" s="87" t="s">
         <v>436</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="D3" s="87" t="s">
         <v>435</v>
       </c>
+      <c r="E3" s="87" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="88" t="s">
-        <v>434</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="87" t="s">
         <v>433</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="B4" s="87" t="s">
         <v>432</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="C4" s="87" t="s">
         <v>431</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="D4" s="87" t="s">
         <v>430</v>
       </c>
+      <c r="E4" s="87" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="88" t="s">
-        <v>429</v>
-      </c>
-      <c r="B5" s="88" t="s">
+      <c r="A5" s="87" t="s">
         <v>428</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="B5" s="87" t="s">
         <v>427</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="C5" s="87" t="s">
         <v>426</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="D5" s="87" t="s">
         <v>425</v>
       </c>
+      <c r="E5" s="87" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="88" t="s">
-        <v>424</v>
-      </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="89" t="s">
+      <c r="A6" s="87" t="s">
         <v>423</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="88" t="s">
         <v>422</v>
       </c>
-      <c r="E6" s="88"/>
+      <c r="D6" s="87" t="s">
+        <v>421</v>
+      </c>
+      <c r="E6" s="87"/>
     </row>
     <row r="7" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88" t="s">
-        <v>421</v>
-      </c>
-      <c r="E7" s="88"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87" t="s">
+        <v>420</v>
+      </c>
+      <c r="E7" s="87"/>
     </row>
     <row r="8" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88" t="s">
-        <v>420</v>
-      </c>
-      <c r="E8" s="88"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87" t="s">
+        <v>419</v>
+      </c>
+      <c r="E8" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7527,225 +7545,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="202" t="s">
-        <v>458</v>
-      </c>
-      <c r="B1" s="203"/>
-      <c r="D1" s="100" t="s">
+      <c r="A1" s="206" t="s">
         <v>457</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="B1" s="207"/>
+      <c r="D1" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="F1" s="99" t="s">
         <v>455</v>
       </c>
-      <c r="J1" s="204" t="s">
+      <c r="G1" s="99" t="s">
+        <v>454</v>
+      </c>
+      <c r="J1" s="208" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="205"/>
+      <c r="K1" s="209"/>
     </row>
     <row r="2" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99">
+      <c r="A2" s="98">
         <v>93</v>
       </c>
-      <c r="B2" s="98">
+      <c r="B2" s="97">
         <v>45115</v>
       </c>
-      <c r="D2" s="97" t="s">
-        <v>454</v>
-      </c>
-      <c r="F2" s="97">
+      <c r="D2" s="96" t="s">
+        <v>453</v>
+      </c>
+      <c r="F2" s="96">
         <v>55.4</v>
       </c>
-      <c r="G2" s="97">
+      <c r="G2" s="96">
         <v>74.8</v>
       </c>
-      <c r="J2" s="206"/>
-      <c r="K2" s="207"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="211"/>
     </row>
     <row r="3" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="94">
+      <c r="A3" s="93">
         <v>90</v>
       </c>
-      <c r="B3" s="95">
+      <c r="B3" s="94">
         <v>45135</v>
       </c>
-      <c r="D3" s="80"/>
+      <c r="D3" s="79"/>
     </row>
     <row r="4" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="94">
+      <c r="A4" s="93">
         <v>90</v>
       </c>
-      <c r="B4" s="95">
+      <c r="B4" s="94">
         <v>45146</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="94">
+      <c r="A5" s="93">
         <v>88.45</v>
       </c>
-      <c r="B5" s="95">
+      <c r="B5" s="94">
         <v>45192</v>
       </c>
-      <c r="F5" s="51" t="s">
-        <v>451</v>
-      </c>
-      <c r="G5" s="51">
+      <c r="F5" s="50" t="s">
+        <v>450</v>
+      </c>
+      <c r="G5" s="50">
         <v>29</v>
       </c>
-      <c r="J5" s="212" t="s">
-        <v>450</v>
-      </c>
-      <c r="K5" s="212"/>
+      <c r="J5" s="216" t="s">
+        <v>449</v>
+      </c>
+      <c r="K5" s="216"/>
     </row>
     <row r="6" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="94">
+      <c r="A6" s="93">
         <v>86.65</v>
       </c>
-      <c r="B6" s="95">
+      <c r="B6" s="94">
         <v>45204</v>
       </c>
-      <c r="D6" s="80"/>
+      <c r="D6" s="79"/>
       <c r="F6" s="34"/>
-      <c r="G6" s="80"/>
-      <c r="J6" s="201">
+      <c r="G6" s="79"/>
+      <c r="J6" s="205">
         <v>45234</v>
       </c>
-      <c r="K6" s="201"/>
+      <c r="K6" s="205"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="94">
+      <c r="A7" s="93">
         <v>86.45</v>
       </c>
-      <c r="B7" s="95">
+      <c r="B7" s="94">
         <v>45211</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="F7" s="208" t="s">
-        <v>449</v>
-      </c>
-      <c r="G7" s="209"/>
-      <c r="H7" s="80"/>
-      <c r="J7" s="213">
+      <c r="D7" s="79"/>
+      <c r="F7" s="212" t="s">
+        <v>448</v>
+      </c>
+      <c r="G7" s="213"/>
+      <c r="H7" s="79"/>
+      <c r="J7" s="217">
         <v>45264</v>
       </c>
-      <c r="K7" s="213"/>
+      <c r="K7" s="217"/>
     </row>
     <row r="8" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="94">
+      <c r="A8" s="93">
         <v>85.2</v>
       </c>
-      <c r="B8" s="95">
+      <c r="B8" s="94">
         <v>45232</v>
       </c>
-      <c r="D8" s="80"/>
-      <c r="F8" s="210" t="s">
-        <v>448</v>
-      </c>
-      <c r="G8" s="211"/>
-      <c r="H8" s="80"/>
-      <c r="J8" s="201"/>
-      <c r="K8" s="201"/>
+      <c r="D8" s="79"/>
+      <c r="F8" s="214" t="s">
+        <v>447</v>
+      </c>
+      <c r="G8" s="215"/>
+      <c r="H8" s="79"/>
+      <c r="J8" s="205"/>
+      <c r="K8" s="205"/>
     </row>
     <row r="9" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="94">
+      <c r="A9" s="93">
         <v>84.8</v>
       </c>
-      <c r="B9" s="95">
+      <c r="B9" s="94">
         <v>45234</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="201"/>
+      <c r="D9" s="79"/>
+      <c r="J9" s="205"/>
+      <c r="K9" s="205"/>
     </row>
     <row r="10" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="94"/>
-      <c r="B10" s="93"/>
-      <c r="D10" s="80"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="201"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="92"/>
+      <c r="D10" s="79"/>
+      <c r="J10" s="205"/>
+      <c r="K10" s="205"/>
     </row>
     <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="93"/>
-      <c r="D11" s="80"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="201"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="92"/>
+      <c r="D11" s="79"/>
+      <c r="J11" s="205"/>
+      <c r="K11" s="205"/>
     </row>
     <row r="12" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="93"/>
-      <c r="D12" s="80"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="201"/>
+      <c r="A12" s="93"/>
+      <c r="B12" s="92"/>
+      <c r="D12" s="79"/>
+      <c r="J12" s="205"/>
+      <c r="K12" s="205"/>
     </row>
     <row r="13" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
-      <c r="B13" s="93"/>
-      <c r="D13" s="80"/>
-      <c r="J13" s="201"/>
-      <c r="K13" s="201"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="92"/>
+      <c r="D13" s="79"/>
+      <c r="J13" s="205"/>
+      <c r="K13" s="205"/>
     </row>
     <row r="14" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="94"/>
-      <c r="B14" s="93"/>
-      <c r="D14" s="80"/>
-      <c r="J14" s="201"/>
-      <c r="K14" s="201"/>
+      <c r="A14" s="93"/>
+      <c r="B14" s="92"/>
+      <c r="D14" s="79"/>
+      <c r="J14" s="205"/>
+      <c r="K14" s="205"/>
     </row>
     <row r="15" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="94"/>
-      <c r="B15" s="93"/>
-      <c r="D15" s="80"/>
-      <c r="J15" s="201"/>
-      <c r="K15" s="201"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="92"/>
+      <c r="D15" s="79"/>
+      <c r="J15" s="205"/>
+      <c r="K15" s="205"/>
     </row>
     <row r="16" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="94"/>
-      <c r="B16" s="93"/>
-      <c r="J16" s="201"/>
-      <c r="K16" s="201"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="92"/>
+      <c r="J16" s="205"/>
+      <c r="K16" s="205"/>
     </row>
     <row r="17" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="94"/>
-      <c r="B17" s="93"/>
-      <c r="J17" s="201"/>
-      <c r="K17" s="201"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="92"/>
+      <c r="J17" s="205"/>
+      <c r="K17" s="205"/>
     </row>
     <row r="18" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="94"/>
-      <c r="B18" s="93"/>
-      <c r="J18" s="201"/>
-      <c r="K18" s="201"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="92"/>
+      <c r="J18" s="205"/>
+      <c r="K18" s="205"/>
     </row>
     <row r="19" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
-      <c r="B19" s="93"/>
-      <c r="J19" s="201"/>
-      <c r="K19" s="201"/>
+      <c r="A19" s="93"/>
+      <c r="B19" s="92"/>
+      <c r="J19" s="205"/>
+      <c r="K19" s="205"/>
     </row>
     <row r="20" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
-      <c r="B20" s="93"/>
-      <c r="J20" s="201"/>
-      <c r="K20" s="201"/>
+      <c r="A20" s="93"/>
+      <c r="B20" s="92"/>
+      <c r="J20" s="205"/>
+      <c r="K20" s="205"/>
     </row>
     <row r="21" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="94"/>
-      <c r="B21" s="93"/>
-      <c r="J21" s="201"/>
-      <c r="K21" s="201"/>
+      <c r="A21" s="93"/>
+      <c r="B21" s="92"/>
+      <c r="J21" s="205"/>
+      <c r="K21" s="205"/>
     </row>
     <row r="22" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="92"/>
-      <c r="B22" s="91"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -7784,321 +7802,319 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EAC2E5-A839-4CFE-81CB-B3D389005C51}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K2"/>
-    </sheetView>
+    <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="101" customWidth="1"/>
-    <col min="2" max="2" width="25" style="101" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" style="101" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" style="101" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="101" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="101" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="101" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="101" customWidth="1"/>
-    <col min="9" max="9" width="24" style="101" customWidth="1"/>
-    <col min="10" max="10" width="1.5703125" style="101" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="101" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="101"/>
+    <col min="1" max="1" width="17.140625" style="100" customWidth="1"/>
+    <col min="2" max="2" width="25" style="100" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" style="100" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" style="100" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="100" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="100" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="100" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="100" customWidth="1"/>
+    <col min="9" max="9" width="24" style="100" customWidth="1"/>
+    <col min="10" max="10" width="1.5703125" style="100" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="100" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="100"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="150" t="s">
-        <v>509</v>
-      </c>
-      <c r="B1" s="149" t="s">
+      <c r="A1" s="149" t="s">
         <v>508</v>
       </c>
-      <c r="C1" s="148" t="s">
+      <c r="B1" s="148" t="s">
         <v>507</v>
       </c>
-      <c r="E1" s="147" t="s">
+      <c r="C1" s="147" t="s">
         <v>506</v>
       </c>
-      <c r="F1" s="146" t="s">
+      <c r="E1" s="146" t="s">
         <v>505</v>
       </c>
-      <c r="G1" s="145" t="s">
+      <c r="F1" s="145" t="s">
         <v>504</v>
       </c>
-      <c r="H1" s="145" t="s">
+      <c r="G1" s="144" t="s">
         <v>503</v>
       </c>
-      <c r="I1" s="144" t="s">
+      <c r="H1" s="144" t="s">
         <v>502</v>
       </c>
-      <c r="K1" s="198" t="s">
+      <c r="I1" s="143" t="s">
+        <v>501</v>
+      </c>
+      <c r="K1" s="202" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="217" t="s">
-        <v>501</v>
-      </c>
-      <c r="B2" s="143" t="s">
+      <c r="A2" s="221" t="s">
         <v>500</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="B2" s="142" t="s">
         <v>499</v>
       </c>
-      <c r="E2" s="231" t="s">
+      <c r="C2" s="109" t="s">
         <v>498</v>
       </c>
-      <c r="F2" s="142" t="s">
+      <c r="E2" s="235" t="s">
         <v>497</v>
       </c>
-      <c r="G2" s="141" t="s">
+      <c r="F2" s="141" t="s">
         <v>496</v>
       </c>
-      <c r="H2" s="141" t="s">
+      <c r="G2" s="140" t="s">
         <v>495</v>
       </c>
-      <c r="I2" s="140"/>
-      <c r="K2" s="199"/>
+      <c r="H2" s="140" t="s">
+        <v>494</v>
+      </c>
+      <c r="I2" s="139"/>
+      <c r="K2" s="203"/>
     </row>
     <row r="3" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="217"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="110" t="s">
-        <v>494</v>
-      </c>
-      <c r="E3" s="232"/>
-      <c r="F3" s="139" t="s">
+      <c r="A3" s="221"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="109" t="s">
         <v>493</v>
       </c>
-      <c r="G3" s="138" t="s">
+      <c r="E3" s="236"/>
+      <c r="F3" s="138" t="s">
         <v>492</v>
       </c>
-      <c r="H3" s="138"/>
-      <c r="I3" s="137"/>
+      <c r="G3" s="137" t="s">
+        <v>491</v>
+      </c>
+      <c r="H3" s="137"/>
+      <c r="I3" s="136"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="217"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="110"/>
-      <c r="E4" s="233"/>
-      <c r="F4" s="136" t="s">
-        <v>491</v>
-      </c>
-      <c r="G4" s="135">
+      <c r="A4" s="221"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="109"/>
+      <c r="E4" s="237"/>
+      <c r="F4" s="135" t="s">
+        <v>490</v>
+      </c>
+      <c r="G4" s="134">
         <v>44</v>
       </c>
-      <c r="H4" s="135" t="s">
-        <v>490</v>
-      </c>
-      <c r="I4" s="134" t="s">
-        <v>459</v>
-      </c>
-      <c r="K4" s="219" t="s">
+      <c r="H4" s="134" t="s">
         <v>489</v>
       </c>
+      <c r="I4" s="133" t="s">
+        <v>458</v>
+      </c>
+      <c r="K4" s="223" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="217"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="110"/>
-      <c r="E5" s="222" t="s">
-        <v>488</v>
-      </c>
-      <c r="F5" s="133" t="s">
+      <c r="A5" s="221"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="109"/>
+      <c r="E5" s="226" t="s">
+        <v>487</v>
+      </c>
+      <c r="F5" s="132" t="s">
+        <v>483</v>
+      </c>
+      <c r="G5" s="131" t="s">
+        <v>486</v>
+      </c>
+      <c r="H5" s="131"/>
+      <c r="I5" s="130" t="s">
+        <v>485</v>
+      </c>
+      <c r="K5" s="224"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="221"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="109"/>
+      <c r="E6" s="227"/>
+      <c r="F6" s="128" t="s">
         <v>484</v>
       </c>
-      <c r="G5" s="132" t="s">
-        <v>487</v>
-      </c>
-      <c r="H5" s="132"/>
-      <c r="I5" s="131" t="s">
-        <v>486</v>
-      </c>
-      <c r="K5" s="220"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="217"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="110"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="129" t="s">
-        <v>485</v>
-      </c>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="126"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="217" t="s">
-        <v>484</v>
-      </c>
-      <c r="B7" s="111" t="s">
+      <c r="A7" s="221" t="s">
         <v>483</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="B7" s="110" t="s">
         <v>482</v>
       </c>
-      <c r="E7" s="224"/>
-      <c r="F7" s="126" t="s">
+      <c r="C7" s="109" t="s">
         <v>481</v>
       </c>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="124"/>
+      <c r="E7" s="228"/>
+      <c r="F7" s="125" t="s">
+        <v>480</v>
+      </c>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="123"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="217"/>
-      <c r="B8" s="228" t="s">
-        <v>480</v>
-      </c>
-      <c r="C8" s="110" t="s">
+      <c r="A8" s="221"/>
+      <c r="B8" s="232" t="s">
         <v>479</v>
       </c>
-      <c r="E8" s="225" t="s">
+      <c r="C8" s="109" t="s">
         <v>478</v>
       </c>
-      <c r="F8" s="123" t="s">
+      <c r="E8" s="229" t="s">
         <v>477</v>
       </c>
-      <c r="G8" s="229">
+      <c r="F8" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="G8" s="233">
         <v>1.8229166666666667</v>
       </c>
-      <c r="H8" s="122"/>
-      <c r="I8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="120"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="217"/>
-      <c r="B9" s="228"/>
-      <c r="C9" s="110" t="s">
-        <v>476</v>
-      </c>
-      <c r="E9" s="226"/>
-      <c r="F9" s="120" t="s">
+      <c r="A9" s="221"/>
+      <c r="B9" s="232"/>
+      <c r="C9" s="109" t="s">
         <v>475</v>
       </c>
-      <c r="G9" s="230"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="118"/>
+      <c r="E9" s="230"/>
+      <c r="F9" s="119" t="s">
+        <v>474</v>
+      </c>
+      <c r="G9" s="234"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="117"/>
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="217"/>
-      <c r="B10" s="96" t="s">
-        <v>474</v>
-      </c>
-      <c r="C10" s="110"/>
+      <c r="A10" s="221"/>
+      <c r="B10" s="95" t="s">
+        <v>473</v>
+      </c>
+      <c r="C10" s="109"/>
     </row>
     <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="217" t="s">
-        <v>473</v>
-      </c>
-      <c r="B11" s="117" t="s">
+      <c r="A11" s="221" t="s">
         <v>472</v>
       </c>
-      <c r="C11" s="110"/>
-      <c r="E11" s="227" t="s">
+      <c r="B11" s="116" t="s">
         <v>471</v>
       </c>
-      <c r="F11" s="116" t="s">
+      <c r="C11" s="109"/>
+      <c r="E11" s="231" t="s">
         <v>470</v>
       </c>
-      <c r="I11" s="218" t="s">
+      <c r="F11" s="115" t="s">
         <v>469</v>
       </c>
+      <c r="I11" s="222" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="217"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="110"/>
-      <c r="E12" s="217"/>
-      <c r="F12" s="115" t="s">
-        <v>468</v>
-      </c>
-      <c r="I12" s="218"/>
+      <c r="A12" s="221"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="109"/>
+      <c r="E12" s="221"/>
+      <c r="F12" s="114" t="s">
+        <v>467</v>
+      </c>
+      <c r="I12" s="222"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="217"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="110"/>
-      <c r="E13" s="217"/>
-      <c r="F13" s="114"/>
-      <c r="I13" s="218"/>
+      <c r="A13" s="221"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="109"/>
+      <c r="E13" s="221"/>
+      <c r="F13" s="113"/>
+      <c r="I13" s="222"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="217"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="110"/>
-      <c r="E14" s="217"/>
-      <c r="F14" s="114"/>
-      <c r="I14" s="112" t="s">
-        <v>467</v>
+      <c r="A14" s="221"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="109"/>
+      <c r="E14" s="221"/>
+      <c r="F14" s="113"/>
+      <c r="I14" s="111" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="217"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="110"/>
-      <c r="E15" s="221"/>
-      <c r="F15" s="113"/>
-      <c r="I15" s="112" t="s">
-        <v>466</v>
+      <c r="A15" s="221"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="109"/>
+      <c r="E15" s="225"/>
+      <c r="F15" s="112"/>
+      <c r="I15" s="111" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="217"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="110"/>
+      <c r="A16" s="221"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="109"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="217" t="s">
-        <v>465</v>
-      </c>
-      <c r="B17" s="111" t="s">
+      <c r="A17" s="221" t="s">
         <v>464</v>
       </c>
-      <c r="C17" s="110"/>
+      <c r="B17" s="110" t="s">
+        <v>463</v>
+      </c>
+      <c r="C17" s="109"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="217"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="110"/>
+      <c r="A18" s="221"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="109"/>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="217"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="110"/>
+      <c r="A19" s="221"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="109"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="221"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="108"/>
+      <c r="A20" s="225"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="107"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="214" t="s">
-        <v>463</v>
-      </c>
-      <c r="B22" s="215"/>
-      <c r="C22" s="216"/>
+      <c r="A22" s="218" t="s">
+        <v>462</v>
+      </c>
+      <c r="B22" s="219"/>
+      <c r="C22" s="220"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="107" t="s">
+      <c r="A23" s="106" t="s">
+        <v>460</v>
+      </c>
+      <c r="B23" s="105" t="s">
         <v>461</v>
       </c>
-      <c r="B23" s="106" t="s">
-        <v>462</v>
-      </c>
-      <c r="C23" s="105" t="s">
+      <c r="C23" s="104" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="103" t="s">
+        <v>460</v>
+      </c>
+      <c r="B24" s="102" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="104" t="s">
-        <v>461</v>
-      </c>
-      <c r="B24" s="103" t="s">
-        <v>460</v>
-      </c>
-      <c r="C24" s="102" t="s">
-        <v>459</v>
+      <c r="C24" s="101" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -8145,12 +8161,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V1" s="198" t="s">
+      <c r="V1" s="202" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="22:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V2" s="199"/>
+      <c r="V2" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8181,276 +8197,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
-        <v>531</v>
-      </c>
-      <c r="B1" s="155" t="s">
+      <c r="A1" s="154" t="s">
         <v>530</v>
       </c>
-      <c r="C1" s="155" t="s">
+      <c r="B1" s="154" t="s">
         <v>529</v>
       </c>
-      <c r="D1" s="155" t="s">
+      <c r="C1" s="154" t="s">
         <v>528</v>
       </c>
-      <c r="E1" s="155" t="s">
+      <c r="D1" s="154" t="s">
         <v>527</v>
       </c>
-      <c r="F1" s="155" t="s">
+      <c r="E1" s="154" t="s">
         <v>526</v>
       </c>
-      <c r="H1" s="198" t="s">
+      <c r="F1" s="154" t="s">
+        <v>525</v>
+      </c>
+      <c r="H1" s="202" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="153" t="s">
-        <v>525</v>
-      </c>
-      <c r="B2" s="96" t="s">
+      <c r="A2" s="152" t="s">
         <v>524</v>
       </c>
-      <c r="C2" s="96" t="s">
-        <v>524</v>
-      </c>
-      <c r="D2" s="96" t="s">
+      <c r="B2" s="95" t="s">
+        <v>523</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>523</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>514</v>
+      </c>
+      <c r="E2" s="95">
+        <v>2</v>
+      </c>
+      <c r="F2" s="95" t="s">
+        <v>514</v>
+      </c>
+      <c r="H2" s="203"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="152" t="s">
+        <v>522</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>514</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>514</v>
+      </c>
+      <c r="D3" s="95">
+        <v>15</v>
+      </c>
+      <c r="E3" s="95">
+        <v>3</v>
+      </c>
+      <c r="F3" s="153" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="152" t="s">
+        <v>521</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" s="95" t="s">
+        <v>514</v>
+      </c>
+      <c r="D4" s="95">
+        <v>15</v>
+      </c>
+      <c r="E4" s="95">
+        <v>3</v>
+      </c>
+      <c r="F4" s="153" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="B5" s="95" t="s">
+        <v>518</v>
+      </c>
+      <c r="C5" s="95" t="s">
+        <v>518</v>
+      </c>
+      <c r="D5" s="95" t="s">
+        <v>514</v>
+      </c>
+      <c r="E5" s="95" t="s">
+        <v>514</v>
+      </c>
+      <c r="F5" s="95" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="152" t="s">
+        <v>517</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>514</v>
+      </c>
+      <c r="C6" s="95" t="s">
+        <v>514</v>
+      </c>
+      <c r="D6" s="95">
+        <v>15</v>
+      </c>
+      <c r="E6" s="95">
+        <v>3</v>
+      </c>
+      <c r="F6" s="95" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="152" t="s">
+        <v>516</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>514</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>514</v>
+      </c>
+      <c r="D7" s="95">
+        <v>15</v>
+      </c>
+      <c r="E7" s="95">
+        <v>3</v>
+      </c>
+      <c r="F7" s="95" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="152" t="s">
         <v>515</v>
       </c>
-      <c r="E2" s="96">
+      <c r="B8" s="95" t="s">
+        <v>514</v>
+      </c>
+      <c r="C8" s="95" t="s">
+        <v>514</v>
+      </c>
+      <c r="D8" s="95">
+        <v>50</v>
+      </c>
+      <c r="E8" s="95">
         <v>2</v>
       </c>
-      <c r="F2" s="96" t="s">
-        <v>515</v>
-      </c>
-      <c r="H2" s="199"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="s">
-        <v>523</v>
-      </c>
-      <c r="B3" s="96" t="s">
-        <v>515</v>
-      </c>
-      <c r="C3" s="96" t="s">
-        <v>515</v>
-      </c>
-      <c r="D3" s="96">
-        <v>15</v>
-      </c>
-      <c r="E3" s="96">
-        <v>3</v>
-      </c>
-      <c r="F3" s="154" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="153" t="s">
-        <v>522</v>
-      </c>
-      <c r="B4" s="96" t="s">
-        <v>515</v>
-      </c>
-      <c r="C4" s="96" t="s">
-        <v>515</v>
-      </c>
-      <c r="D4" s="96">
-        <v>15</v>
-      </c>
-      <c r="E4" s="96">
-        <v>3</v>
-      </c>
-      <c r="F4" s="154" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="153" t="s">
-        <v>520</v>
-      </c>
-      <c r="B5" s="96" t="s">
-        <v>519</v>
-      </c>
-      <c r="C5" s="96" t="s">
-        <v>519</v>
-      </c>
-      <c r="D5" s="96" t="s">
-        <v>515</v>
-      </c>
-      <c r="E5" s="96" t="s">
-        <v>515</v>
-      </c>
-      <c r="F5" s="96" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="153" t="s">
-        <v>518</v>
-      </c>
-      <c r="B6" s="96" t="s">
-        <v>515</v>
-      </c>
-      <c r="C6" s="96" t="s">
-        <v>515</v>
-      </c>
-      <c r="D6" s="96">
-        <v>15</v>
-      </c>
-      <c r="E6" s="96">
-        <v>3</v>
-      </c>
-      <c r="F6" s="96" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="153" t="s">
-        <v>517</v>
-      </c>
-      <c r="B7" s="96" t="s">
-        <v>515</v>
-      </c>
-      <c r="C7" s="96" t="s">
-        <v>515</v>
-      </c>
-      <c r="D7" s="96">
-        <v>15</v>
-      </c>
-      <c r="E7" s="96">
-        <v>3</v>
-      </c>
-      <c r="F7" s="96" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="153" t="s">
-        <v>516</v>
-      </c>
-      <c r="B8" s="96" t="s">
-        <v>515</v>
-      </c>
-      <c r="C8" s="96" t="s">
-        <v>515</v>
-      </c>
-      <c r="D8" s="96">
-        <v>50</v>
-      </c>
-      <c r="E8" s="96">
-        <v>2</v>
-      </c>
-      <c r="F8" s="96" t="s">
-        <v>515</v>
+      <c r="F8" s="95" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="153"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
+      <c r="A9" s="152"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="153"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
+      <c r="A10" s="152"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="153"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
+      <c r="A11" s="152"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="153"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
+      <c r="A12" s="152"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="153"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
+      <c r="A13" s="152"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="153"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
+      <c r="A14" s="152"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="153"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
+      <c r="A15" s="152"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="153"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
+      <c r="A16" s="152"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="153"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
+      <c r="A17" s="152"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="153"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
+      <c r="A18" s="152"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="152" t="s">
-        <v>514</v>
+      <c r="B20" s="151" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="152" t="s">
-        <v>513</v>
+      <c r="B21" s="151" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="152" t="s">
-        <v>512</v>
+      <c r="B22" s="151" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="152" t="s">
-        <v>511</v>
+      <c r="B23" s="151" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="151" t="s">
-        <v>510</v>
+      <c r="B24" s="150" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="151"/>
+      <c r="B26" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8486,142 +8502,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="159" t="s">
-        <v>560</v>
-      </c>
-      <c r="B1" s="157" t="s">
+      <c r="A1" s="158" t="s">
         <v>559</v>
       </c>
-      <c r="C1" s="159" t="s">
+      <c r="B1" s="156" t="s">
         <v>558</v>
       </c>
-      <c r="D1" s="158"/>
+      <c r="C1" s="158" t="s">
+        <v>557</v>
+      </c>
+      <c r="D1" s="157"/>
     </row>
     <row r="2" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="159" t="s">
-        <v>557</v>
-      </c>
-      <c r="B2" s="159" t="s">
+      <c r="A2" s="158" t="s">
         <v>556</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="B2" s="158" t="s">
         <v>555</v>
       </c>
-      <c r="D2" s="158"/>
+      <c r="C2" s="158" t="s">
+        <v>554</v>
+      </c>
+      <c r="D2" s="157"/>
     </row>
     <row r="3" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="159" t="s">
-        <v>554</v>
-      </c>
-      <c r="B3" s="159" t="s">
+      <c r="A3" s="158" t="s">
         <v>553</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="B3" s="158" t="s">
         <v>552</v>
       </c>
-      <c r="D3" s="161" t="s">
+      <c r="C3" s="158" t="s">
         <v>551</v>
       </c>
+      <c r="D3" s="160" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="159" t="s">
-        <v>660</v>
-      </c>
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="161" t="s">
-        <v>550</v>
+      <c r="A4" s="158" t="s">
+        <v>659</v>
+      </c>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="160" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="158"/>
-      <c r="B5" s="157" t="s">
-        <v>549</v>
-      </c>
-      <c r="C5" s="159" t="s">
+      <c r="A5" s="157"/>
+      <c r="B5" s="156" t="s">
         <v>548</v>
       </c>
-      <c r="D5" s="160" t="s">
+      <c r="C5" s="158" t="s">
         <v>547</v>
       </c>
+      <c r="D5" s="159" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="159" t="s">
-        <v>546</v>
-      </c>
-      <c r="B6" s="159" t="s">
+      <c r="A6" s="158" t="s">
         <v>545</v>
       </c>
-      <c r="C6" s="159" t="s">
+      <c r="B6" s="158" t="s">
         <v>544</v>
       </c>
-      <c r="D6" s="160" t="s">
+      <c r="C6" s="158" t="s">
         <v>543</v>
       </c>
+      <c r="D6" s="159" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="159" t="s">
-        <v>542</v>
-      </c>
-      <c r="B7" s="158"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
+      <c r="A7" s="158" t="s">
+        <v>541</v>
+      </c>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
     </row>
     <row r="8" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="158"/>
-      <c r="B8" s="157" t="s">
-        <v>541</v>
-      </c>
-      <c r="C8" s="157" t="s">
+      <c r="A8" s="157"/>
+      <c r="B8" s="156" t="s">
         <v>540</v>
       </c>
-      <c r="D8" s="157" t="s">
+      <c r="C8" s="156" t="s">
         <v>539</v>
       </c>
+      <c r="D8" s="156" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="157" t="s">
-        <v>538</v>
-      </c>
-      <c r="B9" s="157" t="s">
+      <c r="A9" s="156" t="s">
         <v>537</v>
       </c>
-      <c r="C9" s="157" t="s">
+      <c r="B9" s="156" t="s">
         <v>536</v>
       </c>
-      <c r="D9" s="157" t="s">
+      <c r="C9" s="156" t="s">
         <v>535</v>
       </c>
+      <c r="D9" s="156" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="157" t="s">
-        <v>534</v>
-      </c>
-      <c r="B10" s="157" t="s">
+      <c r="A10" s="156" t="s">
         <v>533</v>
       </c>
-      <c r="C10" s="157" t="s">
+      <c r="B10" s="156" t="s">
         <v>532</v>
       </c>
-      <c r="D10" s="156"/>
+      <c r="C10" s="156" t="s">
+        <v>531</v>
+      </c>
+      <c r="D10" s="155"/>
     </row>
     <row r="11" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="156"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
+      <c r="A11" s="155"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
     </row>
     <row r="12" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="156"/>
-      <c r="B12" s="156"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
+      <c r="A12" s="155"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
     </row>
     <row r="13" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="156"/>
-      <c r="B13" s="156"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
+      <c r="A13" s="155"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="155"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8671,102 +8687,102 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="26.85546875" style="80"/>
+    <col min="1" max="16384" width="26.85546875" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
-        <v>571</v>
-      </c>
-      <c r="B1" s="164" t="s">
+      <c r="A1" s="163" t="s">
         <v>570</v>
       </c>
-      <c r="C1" s="164" t="s">
+      <c r="B1" s="163" t="s">
         <v>569</v>
       </c>
-      <c r="D1" s="164" t="s">
+      <c r="C1" s="163" t="s">
         <v>568</v>
       </c>
-      <c r="E1" s="164" t="s">
+      <c r="D1" s="163" t="s">
+        <v>567</v>
+      </c>
+      <c r="E1" s="163" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163" t="s">
-        <v>567</v>
-      </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
+      <c r="A2" s="162" t="s">
+        <v>566</v>
+      </c>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
     </row>
     <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="163" t="s">
-        <v>566</v>
-      </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
+      <c r="A3" s="162" t="s">
+        <v>565</v>
+      </c>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="163" t="s">
-        <v>565</v>
-      </c>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
+      <c r="A4" s="162" t="s">
+        <v>564</v>
+      </c>
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
     </row>
     <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="163" t="s">
-        <v>564</v>
-      </c>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
+      <c r="A5" s="162" t="s">
+        <v>563</v>
+      </c>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
     </row>
     <row r="6" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="163" t="s">
-        <v>563</v>
-      </c>
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
+      <c r="A6" s="162" t="s">
+        <v>562</v>
+      </c>
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
     </row>
     <row r="7" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="163" t="s">
-        <v>562</v>
-      </c>
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
+      <c r="A7" s="162" t="s">
+        <v>561</v>
+      </c>
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="163" t="s">
-        <v>561</v>
-      </c>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
+      <c r="A8" s="162" t="s">
+        <v>560</v>
+      </c>
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="162"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="162"/>
-      <c r="B10" s="162"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="162"/>
+      <c r="A10" s="161"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8785,399 +8801,399 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" style="165" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" style="165" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="165" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="165" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="165" customWidth="1"/>
-    <col min="6" max="6" width="16" style="165" customWidth="1"/>
-    <col min="7" max="7" width="0" style="165" hidden="1"/>
-    <col min="8" max="16383" width="9.140625" style="165" hidden="1"/>
-    <col min="16384" max="16384" width="10" style="165" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" style="164" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" style="164" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="164" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="164" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="164" customWidth="1"/>
+    <col min="6" max="6" width="16" style="164" customWidth="1"/>
+    <col min="7" max="7" width="0" style="164" hidden="1"/>
+    <col min="8" max="16383" width="9.140625" style="164" hidden="1"/>
+    <col min="16384" max="16384" width="10" style="164" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="171" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="172" t="s">
-        <v>580</v>
-      </c>
-      <c r="B1" s="172" t="s">
+    <row r="1" spans="1:7" s="170" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="171" t="s">
         <v>579</v>
       </c>
-      <c r="C1" s="172" t="s">
+      <c r="B1" s="171" t="s">
         <v>578</v>
       </c>
-      <c r="D1" s="172" t="s">
+      <c r="C1" s="171" t="s">
         <v>577</v>
       </c>
-      <c r="E1" s="172" t="s">
+      <c r="D1" s="171" t="s">
         <v>576</v>
       </c>
-      <c r="F1" s="168"/>
+      <c r="E1" s="171" t="s">
+        <v>575</v>
+      </c>
+      <c r="F1" s="167"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
-        <v>575</v>
-      </c>
-      <c r="B2" s="170" t="s">
+      <c r="A2" s="167" t="s">
         <v>574</v>
       </c>
-      <c r="C2" s="170">
+      <c r="B2" s="169" t="s">
+        <v>573</v>
+      </c>
+      <c r="C2" s="169">
         <v>1227504373</v>
       </c>
-      <c r="D2" s="170">
+      <c r="D2" s="169">
         <v>1023409495</v>
       </c>
-      <c r="E2" s="170">
+      <c r="E2" s="169">
         <v>1115204079</v>
       </c>
-      <c r="F2" s="168"/>
-      <c r="G2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="166"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="168" t="s">
-        <v>575</v>
-      </c>
-      <c r="B3" s="170" t="s">
+      <c r="A3" s="167" t="s">
         <v>574</v>
       </c>
-      <c r="C3" s="170">
+      <c r="B3" s="169" t="s">
+        <v>573</v>
+      </c>
+      <c r="C3" s="169">
         <v>1028358685</v>
       </c>
-      <c r="D3" s="170">
+      <c r="D3" s="169">
         <v>1221416005</v>
       </c>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="166"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="169" t="s">
-        <v>573</v>
-      </c>
-      <c r="B4" s="168" t="s">
+      <c r="A4" s="168" t="s">
         <v>572</v>
       </c>
-      <c r="C4" s="168">
+      <c r="B4" s="167" t="s">
+        <v>571</v>
+      </c>
+      <c r="C4" s="167">
         <v>1125519116</v>
       </c>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="166"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="168"/>
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="167"/>
+      <c r="A5" s="167"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="166"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="168"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="167"/>
+      <c r="A6" s="167"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="166"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="168"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="167"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="166"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="168"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="167"/>
+      <c r="A8" s="167"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="166"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="168"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="167"/>
+      <c r="A9" s="167"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="166"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="168"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="167"/>
+      <c r="A10" s="167"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="166"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="168"/>
-      <c r="B11" s="168"/>
-      <c r="C11" s="168"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="167"/>
+      <c r="A11" s="167"/>
+      <c r="B11" s="167"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="166"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="168"/>
-      <c r="B12" s="168"/>
-      <c r="C12" s="168"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="168"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="167"/>
+      <c r="A12" s="167"/>
+      <c r="B12" s="167"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="166"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="168"/>
-      <c r="B13" s="168"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="168"/>
-      <c r="E13" s="168"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="167"/>
+      <c r="A13" s="167"/>
+      <c r="B13" s="167"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="166"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="168"/>
-      <c r="B14" s="168"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="168"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="167"/>
+      <c r="A14" s="167"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="166"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="168"/>
-      <c r="B15" s="168"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="167"/>
+      <c r="A15" s="167"/>
+      <c r="B15" s="167"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="166"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="168"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="168"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="167"/>
+      <c r="A16" s="167"/>
+      <c r="B16" s="167"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="166"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="168"/>
-      <c r="B17" s="168"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="168"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="167"/>
+      <c r="A17" s="167"/>
+      <c r="B17" s="167"/>
+      <c r="C17" s="167"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="166"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="168"/>
-      <c r="B18" s="168"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="168"/>
-      <c r="E18" s="168"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="167"/>
+      <c r="A18" s="167"/>
+      <c r="B18" s="167"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="166"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="168"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="168"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="168"/>
-      <c r="G19" s="167"/>
+      <c r="A19" s="167"/>
+      <c r="B19" s="167"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="166"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="168"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="167"/>
+      <c r="A20" s="167"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="166"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="168"/>
-      <c r="B21" s="168"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="168"/>
-      <c r="E21" s="168"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="167"/>
+      <c r="A21" s="167"/>
+      <c r="B21" s="167"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="166"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="168"/>
-      <c r="B22" s="168"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="167"/>
+      <c r="A22" s="167"/>
+      <c r="B22" s="167"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="166"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="168"/>
-      <c r="B23" s="168"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="167"/>
+      <c r="A23" s="167"/>
+      <c r="B23" s="167"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="166"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="168"/>
-      <c r="B24" s="168"/>
-      <c r="C24" s="168"/>
-      <c r="D24" s="168"/>
-      <c r="E24" s="168"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="167"/>
+      <c r="A24" s="167"/>
+      <c r="B24" s="167"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="166"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="168"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="167"/>
+      <c r="A25" s="167"/>
+      <c r="B25" s="167"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="166"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="168"/>
-      <c r="B26" s="168"/>
-      <c r="C26" s="168"/>
-      <c r="D26" s="168"/>
-      <c r="E26" s="168"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="167"/>
+      <c r="A26" s="167"/>
+      <c r="B26" s="167"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="166"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="168"/>
-      <c r="B27" s="168"/>
-      <c r="C27" s="168"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="167"/>
+      <c r="A27" s="167"/>
+      <c r="B27" s="167"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="166"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="168"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="167"/>
+      <c r="A28" s="167"/>
+      <c r="B28" s="167"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="166"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="168"/>
-      <c r="B29" s="168"/>
-      <c r="C29" s="168"/>
-      <c r="D29" s="168"/>
-      <c r="E29" s="168"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="167"/>
+      <c r="A29" s="167"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="166"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="168"/>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="167"/>
+      <c r="A30" s="167"/>
+      <c r="B30" s="167"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="166"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="168"/>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="167"/>
+      <c r="A31" s="167"/>
+      <c r="B31" s="167"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="166"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="168"/>
-      <c r="B32" s="168"/>
-      <c r="C32" s="168"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="168"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="167"/>
+      <c r="A32" s="167"/>
+      <c r="B32" s="167"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="166"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="168"/>
-      <c r="B33" s="168"/>
-      <c r="C33" s="168"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="167"/>
+      <c r="A33" s="167"/>
+      <c r="B33" s="167"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="166"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="168"/>
-      <c r="B34" s="168"/>
-      <c r="C34" s="168"/>
-      <c r="D34" s="168"/>
-      <c r="E34" s="168"/>
-      <c r="F34" s="168"/>
-      <c r="G34" s="167"/>
+      <c r="A34" s="167"/>
+      <c r="B34" s="167"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="167"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="166"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="168"/>
-      <c r="B35" s="168"/>
-      <c r="C35" s="168"/>
-      <c r="D35" s="168"/>
-      <c r="E35" s="168"/>
-      <c r="F35" s="168"/>
-      <c r="G35" s="167"/>
+      <c r="A35" s="167"/>
+      <c r="B35" s="167"/>
+      <c r="C35" s="167"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="166"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="168"/>
-      <c r="B36" s="168"/>
-      <c r="C36" s="168"/>
-      <c r="D36" s="168"/>
-      <c r="E36" s="168"/>
-      <c r="F36" s="168"/>
-      <c r="G36" s="167"/>
+      <c r="A36" s="167"/>
+      <c r="B36" s="167"/>
+      <c r="C36" s="167"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="166"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="168"/>
-      <c r="B37" s="168"/>
-      <c r="C37" s="168"/>
-      <c r="D37" s="168"/>
-      <c r="E37" s="168"/>
-      <c r="F37" s="168"/>
-      <c r="G37" s="167"/>
+      <c r="A37" s="167"/>
+      <c r="B37" s="167"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="166"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="168"/>
-      <c r="B38" s="168"/>
-      <c r="C38" s="168"/>
-      <c r="D38" s="168"/>
-      <c r="E38" s="168"/>
-      <c r="F38" s="168"/>
-      <c r="G38" s="167"/>
+      <c r="A38" s="167"/>
+      <c r="B38" s="167"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="167"/>
+      <c r="G38" s="166"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="166"/>
-      <c r="B39" s="166"/>
-      <c r="C39" s="166"/>
-      <c r="D39" s="166"/>
-      <c r="E39" s="166"/>
-      <c r="F39" s="166"/>
+      <c r="A39" s="165"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="165"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9199,112 +9215,112 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="112.7109375" style="96" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="96" customWidth="1"/>
-    <col min="3" max="7" width="0" style="96" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="96" hidden="1"/>
+    <col min="1" max="1" width="112.7109375" style="95" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="95" customWidth="1"/>
+    <col min="3" max="7" width="0" style="95" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="95" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="177" t="s">
-        <v>594</v>
-      </c>
-      <c r="B1" s="177" t="s">
+      <c r="A1" s="176" t="s">
+        <v>593</v>
+      </c>
+      <c r="B1" s="176" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="176" t="s">
-        <v>593</v>
-      </c>
-      <c r="B2" s="175"/>
+      <c r="A2" s="175" t="s">
+        <v>592</v>
+      </c>
+      <c r="B2" s="174"/>
     </row>
     <row r="3" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="176" t="s">
-        <v>592</v>
-      </c>
-      <c r="B3" s="175"/>
+      <c r="A3" s="175" t="s">
+        <v>591</v>
+      </c>
+      <c r="B3" s="174"/>
     </row>
     <row r="4" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="176" t="s">
-        <v>591</v>
-      </c>
-      <c r="B4" s="175"/>
+      <c r="A4" s="175" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4" s="174"/>
     </row>
     <row r="5" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="176" t="s">
-        <v>590</v>
-      </c>
-      <c r="B5" s="175"/>
+      <c r="A5" s="175" t="s">
+        <v>589</v>
+      </c>
+      <c r="B5" s="174"/>
     </row>
     <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="176" t="s">
-        <v>589</v>
-      </c>
-      <c r="B6" s="175"/>
+      <c r="A6" s="175" t="s">
+        <v>588</v>
+      </c>
+      <c r="B6" s="174"/>
     </row>
     <row r="7" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="176" t="s">
-        <v>588</v>
-      </c>
-      <c r="B7" s="175"/>
+      <c r="A7" s="175" t="s">
+        <v>587</v>
+      </c>
+      <c r="B7" s="174"/>
     </row>
     <row r="8" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="176" t="s">
-        <v>587</v>
-      </c>
-      <c r="B8" s="175"/>
+      <c r="A8" s="175" t="s">
+        <v>586</v>
+      </c>
+      <c r="B8" s="174"/>
     </row>
     <row r="9" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="176" t="s">
-        <v>586</v>
-      </c>
-      <c r="B9" s="175"/>
+      <c r="A9" s="175" t="s">
+        <v>585</v>
+      </c>
+      <c r="B9" s="174"/>
     </row>
     <row r="10" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="176" t="s">
-        <v>585</v>
-      </c>
-      <c r="B10" s="175"/>
+      <c r="A10" s="175" t="s">
+        <v>584</v>
+      </c>
+      <c r="B10" s="174"/>
     </row>
     <row r="11" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="176" t="s">
-        <v>584</v>
-      </c>
-      <c r="B11" s="175"/>
+      <c r="A11" s="175" t="s">
+        <v>583</v>
+      </c>
+      <c r="B11" s="174"/>
     </row>
     <row r="12" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="176" t="s">
-        <v>583</v>
-      </c>
-      <c r="B12" s="175"/>
+      <c r="A12" s="175" t="s">
+        <v>582</v>
+      </c>
+      <c r="B12" s="174"/>
     </row>
     <row r="13" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="175"/>
-      <c r="B13" s="175"/>
+      <c r="A13" s="174"/>
+      <c r="B13" s="174"/>
     </row>
     <row r="14" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="175"/>
-      <c r="B14" s="175"/>
+      <c r="A14" s="174"/>
+      <c r="B14" s="174"/>
     </row>
     <row r="15" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="175"/>
-      <c r="B15" s="175"/>
+      <c r="A15" s="174"/>
+      <c r="B15" s="174"/>
     </row>
     <row r="16" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="175"/>
-      <c r="B16" s="175"/>
+      <c r="A16" s="174"/>
+      <c r="B16" s="174"/>
     </row>
     <row r="17" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="175"/>
-      <c r="B17" s="175"/>
+      <c r="A17" s="174"/>
+      <c r="B17" s="174"/>
     </row>
     <row r="18" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="174" t="s">
-        <v>582</v>
-      </c>
-      <c r="B18" s="173" t="s">
+      <c r="A18" s="173" t="s">
         <v>581</v>
+      </c>
+      <c r="B18" s="172" t="s">
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -9327,684 +9343,684 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="178" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="178"/>
-    <col min="3" max="3" width="10.140625" style="178" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="178" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="178" customWidth="1"/>
-    <col min="6" max="6" width="76.140625" style="178" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="178" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" style="178" customWidth="1"/>
-    <col min="9" max="9" width="23" style="178" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="178" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="178"/>
+    <col min="1" max="1" width="16" style="177" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="177"/>
+    <col min="3" max="3" width="10.140625" style="177" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="177" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="177" customWidth="1"/>
+    <col min="6" max="6" width="76.140625" style="177" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="177" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="177" customWidth="1"/>
+    <col min="9" max="9" width="23" style="177" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="177" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="177"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="182" t="s">
-        <v>627</v>
-      </c>
-      <c r="B1" s="182" t="s">
+      <c r="A1" s="181" t="s">
         <v>626</v>
       </c>
-      <c r="C1" s="182" t="s">
+      <c r="B1" s="181" t="s">
         <v>625</v>
       </c>
-      <c r="D1" s="182" t="s">
+      <c r="C1" s="181" t="s">
         <v>624</v>
       </c>
-      <c r="E1" s="182" t="s">
+      <c r="D1" s="181" t="s">
         <v>623</v>
       </c>
-      <c r="F1" s="182" t="s">
+      <c r="E1" s="181" t="s">
         <v>622</v>
       </c>
-      <c r="G1" s="182" t="s">
+      <c r="F1" s="181" t="s">
         <v>621</v>
       </c>
-      <c r="H1" s="182" t="s">
+      <c r="G1" s="181" t="s">
         <v>620</v>
       </c>
-      <c r="I1" s="182" t="s">
+      <c r="H1" s="181" t="s">
         <v>619</v>
       </c>
-      <c r="J1" s="182" t="s">
+      <c r="I1" s="181" t="s">
         <v>618</v>
       </c>
+      <c r="J1" s="181" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="179">
+      <c r="A2" s="178">
         <v>80</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179">
+      <c r="B2" s="178"/>
+      <c r="C2" s="178">
         <v>70</v>
       </c>
-      <c r="D2" s="179">
+      <c r="D2" s="178">
         <v>5</v>
       </c>
-      <c r="E2" s="179">
+      <c r="E2" s="178">
         <v>2</v>
       </c>
-      <c r="F2" s="179" t="s">
-        <v>617</v>
-      </c>
-      <c r="G2" s="179" t="s">
+      <c r="F2" s="178" t="s">
         <v>616</v>
       </c>
-      <c r="H2" s="179">
+      <c r="G2" s="178" t="s">
+        <v>615</v>
+      </c>
+      <c r="H2" s="178">
         <v>1095305744</v>
       </c>
-      <c r="I2" s="179" t="s">
-        <v>615</v>
-      </c>
-      <c r="J2" s="179" t="s">
+      <c r="I2" s="178" t="s">
         <v>614</v>
       </c>
+      <c r="J2" s="178" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="179">
+      <c r="A3" s="178">
         <v>65</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179">
+      <c r="B3" s="178"/>
+      <c r="C3" s="178">
         <v>70</v>
       </c>
-      <c r="D3" s="179">
+      <c r="D3" s="178">
         <v>2</v>
       </c>
-      <c r="E3" s="179">
+      <c r="E3" s="178">
         <v>2</v>
       </c>
-      <c r="F3" s="181" t="s">
-        <v>613</v>
-      </c>
-      <c r="G3" s="179" t="s">
+      <c r="F3" s="180" t="s">
         <v>612</v>
       </c>
-      <c r="H3" s="179">
+      <c r="G3" s="178" t="s">
+        <v>611</v>
+      </c>
+      <c r="H3" s="178">
         <v>1003511128</v>
       </c>
-      <c r="I3" s="179" t="s">
-        <v>611</v>
-      </c>
-      <c r="J3" s="179" t="s">
+      <c r="I3" s="178" t="s">
         <v>610</v>
       </c>
+      <c r="J3" s="178" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="179">
+      <c r="A4" s="178">
         <v>60</v>
       </c>
-      <c r="B4" s="179">
+      <c r="B4" s="178">
         <v>650</v>
       </c>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179">
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178">
         <v>2</v>
       </c>
-      <c r="F4" s="179" t="s">
-        <v>609</v>
-      </c>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
+      <c r="F4" s="178" t="s">
+        <v>608</v>
+      </c>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="179">
+      <c r="A5" s="178">
         <v>65</v>
       </c>
-      <c r="B5" s="179">
+      <c r="B5" s="178">
         <v>700</v>
       </c>
-      <c r="C5" s="179">
+      <c r="C5" s="178">
         <v>110</v>
       </c>
-      <c r="D5" s="179"/>
-      <c r="E5" s="179">
+      <c r="D5" s="178"/>
+      <c r="E5" s="178">
         <v>2</v>
       </c>
-      <c r="F5" s="179" t="s">
-        <v>608</v>
-      </c>
-      <c r="G5" s="179" t="s">
+      <c r="F5" s="178" t="s">
+        <v>607</v>
+      </c>
+      <c r="G5" s="178" t="s">
+        <v>596</v>
+      </c>
+      <c r="H5" s="178">
+        <v>1098092622</v>
+      </c>
+      <c r="I5" s="178" t="s">
+        <v>606</v>
+      </c>
+      <c r="J5" s="178" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="178">
+        <v>90</v>
+      </c>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178">
+        <v>90</v>
+      </c>
+      <c r="D6" s="178">
+        <v>2</v>
+      </c>
+      <c r="E6" s="178">
+        <v>2</v>
+      </c>
+      <c r="F6" s="178" t="s">
+        <v>604</v>
+      </c>
+      <c r="G6" s="178" t="s">
+        <v>596</v>
+      </c>
+      <c r="H6" s="178">
+        <v>1002714644</v>
+      </c>
+      <c r="I6" s="178" t="s">
+        <v>603</v>
+      </c>
+      <c r="J6" s="178" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="178">
+        <v>55</v>
+      </c>
+      <c r="B7" s="178"/>
+      <c r="C7" s="178">
+        <v>75</v>
+      </c>
+      <c r="D7" s="178">
+        <v>5</v>
+      </c>
+      <c r="E7" s="178">
+        <v>3</v>
+      </c>
+      <c r="F7" s="179" t="s">
+        <v>601</v>
+      </c>
+      <c r="G7" s="178" t="s">
+        <v>596</v>
+      </c>
+      <c r="H7" s="178" t="s">
+        <v>600</v>
+      </c>
+      <c r="I7" s="178" t="s">
+        <v>599</v>
+      </c>
+      <c r="J7" s="178" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="178">
+        <v>80</v>
+      </c>
+      <c r="B8" s="178">
+        <v>800</v>
+      </c>
+      <c r="C8" s="178">
+        <v>70</v>
+      </c>
+      <c r="D8" s="178">
+        <v>4</v>
+      </c>
+      <c r="E8" s="178">
+        <v>3</v>
+      </c>
+      <c r="F8" s="179" t="s">
         <v>597</v>
       </c>
-      <c r="H5" s="179">
-        <v>1098092622</v>
-      </c>
-      <c r="I5" s="179" t="s">
-        <v>607</v>
-      </c>
-      <c r="J5" s="179" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="179">
-        <v>90</v>
-      </c>
-      <c r="B6" s="179"/>
-      <c r="C6" s="179">
-        <v>90</v>
-      </c>
-      <c r="D6" s="179">
-        <v>2</v>
-      </c>
-      <c r="E6" s="179">
-        <v>2</v>
-      </c>
-      <c r="F6" s="179" t="s">
-        <v>605</v>
-      </c>
-      <c r="G6" s="179" t="s">
-        <v>597</v>
-      </c>
-      <c r="H6" s="179">
-        <v>1002714644</v>
-      </c>
-      <c r="I6" s="179" t="s">
-        <v>604</v>
-      </c>
-      <c r="J6" s="179" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="179">
-        <v>55</v>
-      </c>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179">
-        <v>75</v>
-      </c>
-      <c r="D7" s="179">
-        <v>5</v>
-      </c>
-      <c r="E7" s="179">
-        <v>3</v>
-      </c>
-      <c r="F7" s="180" t="s">
-        <v>602</v>
-      </c>
-      <c r="G7" s="179" t="s">
-        <v>597</v>
-      </c>
-      <c r="H7" s="179" t="s">
-        <v>601</v>
-      </c>
-      <c r="I7" s="179" t="s">
-        <v>600</v>
-      </c>
-      <c r="J7" s="179" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="179">
-        <v>80</v>
-      </c>
-      <c r="B8" s="179">
-        <v>800</v>
-      </c>
-      <c r="C8" s="179">
-        <v>70</v>
-      </c>
-      <c r="D8" s="179">
-        <v>4</v>
-      </c>
-      <c r="E8" s="179">
-        <v>3</v>
-      </c>
-      <c r="F8" s="180" t="s">
-        <v>598</v>
-      </c>
-      <c r="G8" s="179" t="s">
-        <v>597</v>
-      </c>
-      <c r="H8" s="179">
+      <c r="G8" s="178" t="s">
+        <v>596</v>
+      </c>
+      <c r="H8" s="178">
         <v>1555012961</v>
       </c>
-      <c r="I8" s="179" t="s">
-        <v>596</v>
-      </c>
-      <c r="J8" s="179" t="s">
+      <c r="I8" s="178" t="s">
         <v>595</v>
       </c>
+      <c r="J8" s="178" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="179"/>
-      <c r="B9" s="179"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="179"/>
+      <c r="A9" s="178"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="178"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="179"/>
-      <c r="B10" s="179"/>
-      <c r="C10" s="179"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="179"/>
+      <c r="A10" s="178"/>
+      <c r="B10" s="178"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="178"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="179"/>
-      <c r="B11" s="179"/>
-      <c r="C11" s="179"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
+      <c r="A11" s="178"/>
+      <c r="B11" s="178"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="178"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="179"/>
-      <c r="B12" s="179"/>
-      <c r="C12" s="179"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="179"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="179"/>
-      <c r="J12" s="179"/>
+      <c r="A12" s="178"/>
+      <c r="B12" s="178"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="178"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="179"/>
-      <c r="B13" s="179"/>
-      <c r="C13" s="179"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="179"/>
-      <c r="J13" s="179"/>
+      <c r="A13" s="178"/>
+      <c r="B13" s="178"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="178"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="179"/>
-      <c r="B14" s="179"/>
-      <c r="C14" s="179"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="179"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="179"/>
-      <c r="J14" s="179"/>
+      <c r="A14" s="178"/>
+      <c r="B14" s="178"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="178"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="179"/>
-      <c r="B15" s="179"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="179"/>
+      <c r="A15" s="178"/>
+      <c r="B15" s="178"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="178"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="179"/>
-      <c r="B16" s="179"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="179"/>
+      <c r="A16" s="178"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="178"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="179"/>
-      <c r="B17" s="179"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="179"/>
-      <c r="J17" s="179"/>
+      <c r="A17" s="178"/>
+      <c r="B17" s="178"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="178"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="179"/>
-      <c r="B18" s="179"/>
-      <c r="C18" s="179"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="179"/>
+      <c r="A18" s="178"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="178"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="179"/>
-      <c r="B19" s="179"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="179"/>
+      <c r="A19" s="178"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="178"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="179"/>
-      <c r="B20" s="179"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="179"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="179"/>
+      <c r="A20" s="178"/>
+      <c r="B20" s="178"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="178"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="179"/>
-      <c r="B21" s="179"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="179"/>
+      <c r="A21" s="178"/>
+      <c r="B21" s="178"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="178"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="179"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="179"/>
+      <c r="A22" s="178"/>
+      <c r="B22" s="178"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="178"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="179"/>
-      <c r="B23" s="179"/>
-      <c r="C23" s="179"/>
-      <c r="D23" s="179"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="179"/>
-      <c r="H23" s="179"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="179"/>
+      <c r="A23" s="178"/>
+      <c r="B23" s="178"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="178"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="179"/>
-      <c r="B24" s="179"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="179"/>
-      <c r="H24" s="179"/>
-      <c r="I24" s="179"/>
-      <c r="J24" s="179"/>
+      <c r="A24" s="178"/>
+      <c r="B24" s="178"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="178"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="179"/>
-      <c r="B25" s="179"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="179"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="179"/>
-      <c r="H25" s="179"/>
-      <c r="I25" s="179"/>
-      <c r="J25" s="179"/>
+      <c r="A25" s="178"/>
+      <c r="B25" s="178"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="178"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="178"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="179"/>
-      <c r="B26" s="179"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="179"/>
+      <c r="A26" s="178"/>
+      <c r="B26" s="178"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="178"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="179"/>
-      <c r="B27" s="179"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="179"/>
-      <c r="H27" s="179"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="179"/>
+      <c r="A27" s="178"/>
+      <c r="B27" s="178"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="178"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="179"/>
-      <c r="B28" s="179"/>
-      <c r="C28" s="179"/>
-      <c r="D28" s="179"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="179"/>
+      <c r="A28" s="178"/>
+      <c r="B28" s="178"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="178"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="179"/>
-      <c r="B29" s="179"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="179"/>
+      <c r="A29" s="178"/>
+      <c r="B29" s="178"/>
+      <c r="C29" s="178"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="178"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="178"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="179"/>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="179"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="179"/>
+      <c r="A30" s="178"/>
+      <c r="B30" s="178"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="178"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="179"/>
-      <c r="B31" s="179"/>
-      <c r="C31" s="179"/>
-      <c r="D31" s="179"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="179"/>
-      <c r="J31" s="179"/>
+      <c r="A31" s="178"/>
+      <c r="B31" s="178"/>
+      <c r="C31" s="178"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="178"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="178"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="179"/>
-      <c r="B32" s="179"/>
-      <c r="C32" s="179"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="179"/>
-      <c r="I32" s="179"/>
-      <c r="J32" s="179"/>
+      <c r="A32" s="178"/>
+      <c r="B32" s="178"/>
+      <c r="C32" s="178"/>
+      <c r="D32" s="178"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="178"/>
+      <c r="H32" s="178"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="178"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="179"/>
-      <c r="B33" s="179"/>
-      <c r="C33" s="179"/>
-      <c r="D33" s="179"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="179"/>
-      <c r="H33" s="179"/>
-      <c r="I33" s="179"/>
-      <c r="J33" s="179"/>
+      <c r="A33" s="178"/>
+      <c r="B33" s="178"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="178"/>
+      <c r="G33" s="178"/>
+      <c r="H33" s="178"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="178"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="179"/>
-      <c r="B34" s="179"/>
-      <c r="C34" s="179"/>
-      <c r="D34" s="179"/>
-      <c r="E34" s="179"/>
-      <c r="F34" s="179"/>
-      <c r="G34" s="179"/>
-      <c r="H34" s="179"/>
-      <c r="I34" s="179"/>
-      <c r="J34" s="179"/>
+      <c r="A34" s="178"/>
+      <c r="B34" s="178"/>
+      <c r="C34" s="178"/>
+      <c r="D34" s="178"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="178"/>
+      <c r="G34" s="178"/>
+      <c r="H34" s="178"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="178"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="179"/>
-      <c r="B35" s="179"/>
-      <c r="C35" s="179"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="179"/>
-      <c r="F35" s="179"/>
-      <c r="G35" s="179"/>
-      <c r="H35" s="179"/>
-      <c r="I35" s="179"/>
-      <c r="J35" s="179"/>
+      <c r="A35" s="178"/>
+      <c r="B35" s="178"/>
+      <c r="C35" s="178"/>
+      <c r="D35" s="178"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="178"/>
+      <c r="G35" s="178"/>
+      <c r="H35" s="178"/>
+      <c r="I35" s="178"/>
+      <c r="J35" s="178"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="179"/>
-      <c r="B36" s="179"/>
-      <c r="C36" s="179"/>
-      <c r="D36" s="179"/>
-      <c r="E36" s="179"/>
-      <c r="F36" s="179"/>
-      <c r="G36" s="179"/>
-      <c r="H36" s="179"/>
-      <c r="I36" s="179"/>
-      <c r="J36" s="179"/>
+      <c r="A36" s="178"/>
+      <c r="B36" s="178"/>
+      <c r="C36" s="178"/>
+      <c r="D36" s="178"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="178"/>
+      <c r="G36" s="178"/>
+      <c r="H36" s="178"/>
+      <c r="I36" s="178"/>
+      <c r="J36" s="178"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="179"/>
-      <c r="B37" s="179"/>
-      <c r="C37" s="179"/>
-      <c r="D37" s="179"/>
-      <c r="E37" s="179"/>
-      <c r="F37" s="179"/>
-      <c r="G37" s="179"/>
-      <c r="H37" s="179"/>
-      <c r="I37" s="179"/>
-      <c r="J37" s="179"/>
+      <c r="A37" s="178"/>
+      <c r="B37" s="178"/>
+      <c r="C37" s="178"/>
+      <c r="D37" s="178"/>
+      <c r="E37" s="178"/>
+      <c r="F37" s="178"/>
+      <c r="G37" s="178"/>
+      <c r="H37" s="178"/>
+      <c r="I37" s="178"/>
+      <c r="J37" s="178"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="179"/>
-      <c r="B38" s="179"/>
-      <c r="C38" s="179"/>
-      <c r="D38" s="179"/>
-      <c r="E38" s="179"/>
-      <c r="F38" s="179"/>
-      <c r="G38" s="179"/>
-      <c r="H38" s="179"/>
-      <c r="I38" s="179"/>
-      <c r="J38" s="179"/>
+      <c r="A38" s="178"/>
+      <c r="B38" s="178"/>
+      <c r="C38" s="178"/>
+      <c r="D38" s="178"/>
+      <c r="E38" s="178"/>
+      <c r="F38" s="178"/>
+      <c r="G38" s="178"/>
+      <c r="H38" s="178"/>
+      <c r="I38" s="178"/>
+      <c r="J38" s="178"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="179"/>
-      <c r="B39" s="179"/>
-      <c r="C39" s="179"/>
-      <c r="D39" s="179"/>
-      <c r="E39" s="179"/>
-      <c r="F39" s="179"/>
-      <c r="G39" s="179"/>
-      <c r="H39" s="179"/>
-      <c r="I39" s="179"/>
-      <c r="J39" s="179"/>
+      <c r="A39" s="178"/>
+      <c r="B39" s="178"/>
+      <c r="C39" s="178"/>
+      <c r="D39" s="178"/>
+      <c r="E39" s="178"/>
+      <c r="F39" s="178"/>
+      <c r="G39" s="178"/>
+      <c r="H39" s="178"/>
+      <c r="I39" s="178"/>
+      <c r="J39" s="178"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="179"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="179"/>
-      <c r="E40" s="179"/>
-      <c r="F40" s="179"/>
-      <c r="G40" s="179"/>
-      <c r="H40" s="179"/>
-      <c r="I40" s="179"/>
-      <c r="J40" s="179"/>
+      <c r="A40" s="178"/>
+      <c r="B40" s="178"/>
+      <c r="C40" s="178"/>
+      <c r="D40" s="178"/>
+      <c r="E40" s="178"/>
+      <c r="F40" s="178"/>
+      <c r="G40" s="178"/>
+      <c r="H40" s="178"/>
+      <c r="I40" s="178"/>
+      <c r="J40" s="178"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="179"/>
-      <c r="B41" s="179"/>
-      <c r="C41" s="179"/>
-      <c r="D41" s="179"/>
-      <c r="E41" s="179"/>
-      <c r="F41" s="179"/>
-      <c r="G41" s="179"/>
-      <c r="H41" s="179"/>
-      <c r="I41" s="179"/>
-      <c r="J41" s="179"/>
+      <c r="A41" s="178"/>
+      <c r="B41" s="178"/>
+      <c r="C41" s="178"/>
+      <c r="D41" s="178"/>
+      <c r="E41" s="178"/>
+      <c r="F41" s="178"/>
+      <c r="G41" s="178"/>
+      <c r="H41" s="178"/>
+      <c r="I41" s="178"/>
+      <c r="J41" s="178"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="179"/>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
-      <c r="E42" s="179"/>
-      <c r="F42" s="179"/>
-      <c r="G42" s="179"/>
-      <c r="H42" s="179"/>
-      <c r="I42" s="179"/>
-      <c r="J42" s="179"/>
+      <c r="A42" s="178"/>
+      <c r="B42" s="178"/>
+      <c r="C42" s="178"/>
+      <c r="D42" s="178"/>
+      <c r="E42" s="178"/>
+      <c r="F42" s="178"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
+      <c r="J42" s="178"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="179"/>
-      <c r="B43" s="179"/>
-      <c r="C43" s="179"/>
-      <c r="D43" s="179"/>
-      <c r="E43" s="179"/>
-      <c r="F43" s="179"/>
-      <c r="G43" s="179"/>
-      <c r="H43" s="179"/>
-      <c r="I43" s="179"/>
-      <c r="J43" s="179"/>
+      <c r="A43" s="178"/>
+      <c r="B43" s="178"/>
+      <c r="C43" s="178"/>
+      <c r="D43" s="178"/>
+      <c r="E43" s="178"/>
+      <c r="F43" s="178"/>
+      <c r="G43" s="178"/>
+      <c r="H43" s="178"/>
+      <c r="I43" s="178"/>
+      <c r="J43" s="178"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="179"/>
-      <c r="B44" s="179"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="179"/>
-      <c r="E44" s="179"/>
-      <c r="F44" s="179"/>
-      <c r="G44" s="179"/>
-      <c r="H44" s="179"/>
-      <c r="I44" s="179"/>
-      <c r="J44" s="179"/>
+      <c r="A44" s="178"/>
+      <c r="B44" s="178"/>
+      <c r="C44" s="178"/>
+      <c r="D44" s="178"/>
+      <c r="E44" s="178"/>
+      <c r="F44" s="178"/>
+      <c r="G44" s="178"/>
+      <c r="H44" s="178"/>
+      <c r="I44" s="178"/>
+      <c r="J44" s="178"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10024,43 +10040,43 @@
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>645</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>646</v>
       </c>
       <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>648</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -10070,7 +10086,7 @@
     </row>
     <row r="3" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -10323,251 +10339,251 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="28" style="234"/>
-    <col min="6" max="6" width="17.140625" style="234" customWidth="1"/>
-    <col min="7" max="16384" width="28" style="234"/>
+    <col min="1" max="5" width="28" style="184"/>
+    <col min="6" max="6" width="17.140625" style="184" customWidth="1"/>
+    <col min="7" max="16384" width="28" style="184"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="237" t="s">
-        <v>695</v>
-      </c>
-      <c r="B1" s="237" t="s">
-        <v>664</v>
-      </c>
-      <c r="C1" s="237" t="s">
+      <c r="A1" s="187" t="s">
         <v>694</v>
       </c>
-      <c r="D1" s="237" t="s">
+      <c r="B1" s="187" t="s">
+        <v>663</v>
+      </c>
+      <c r="C1" s="187" t="s">
         <v>693</v>
       </c>
-      <c r="E1" s="236"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="243" t="s">
+      <c r="D1" s="187" t="s">
+        <v>692</v>
+      </c>
+      <c r="E1" s="186"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="192" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="237" t="s">
-        <v>692</v>
-      </c>
-      <c r="B2" s="237" t="s">
+      <c r="A2" s="187" t="s">
         <v>691</v>
       </c>
-      <c r="C2" s="237" t="s">
+      <c r="B2" s="187" t="s">
         <v>690</v>
       </c>
-      <c r="D2" s="237" t="s">
+      <c r="C2" s="187" t="s">
         <v>689</v>
       </c>
-      <c r="E2" s="236"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
+      <c r="D2" s="187" t="s">
+        <v>688</v>
+      </c>
+      <c r="E2" s="186"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
     </row>
     <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="237" t="s">
-        <v>688</v>
-      </c>
-      <c r="B3" s="237" t="s">
+      <c r="A3" s="187" t="s">
         <v>687</v>
       </c>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="237" t="s">
+      <c r="B3" s="187" t="s">
         <v>686</v>
       </c>
-      <c r="F3" s="235"/>
-      <c r="G3" s="242" t="s">
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="187" t="s">
         <v>685</v>
+      </c>
+      <c r="F3" s="185"/>
+      <c r="G3" s="191" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="238" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B4" s="238"/>
       <c r="C4" s="238"/>
       <c r="D4" s="238"/>
       <c r="E4" s="238"/>
-      <c r="F4" s="235"/>
-      <c r="G4" s="235"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
     </row>
     <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="237" t="s">
-        <v>683</v>
-      </c>
-      <c r="B5" s="237" t="s">
+      <c r="A5" s="187" t="s">
         <v>682</v>
       </c>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="235"/>
-      <c r="G5" s="235"/>
+      <c r="B5" s="187" t="s">
+        <v>681</v>
+      </c>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="185"/>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="236"/>
-      <c r="B6" s="236"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="235"/>
-      <c r="G6" s="235"/>
+      <c r="A6" s="186"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="185"/>
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="238" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B7" s="238"/>
       <c r="C7" s="238"/>
       <c r="D7" s="238" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E7" s="238"/>
-      <c r="F7" s="235"/>
-      <c r="G7" s="235"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="185"/>
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="237" t="s">
-        <v>680</v>
-      </c>
-      <c r="B8" s="237" t="s">
+      <c r="A8" s="187" t="s">
         <v>679</v>
       </c>
-      <c r="C8" s="237" t="s">
+      <c r="B8" s="187" t="s">
         <v>678</v>
       </c>
-      <c r="D8" s="237" t="s">
+      <c r="C8" s="187" t="s">
         <v>677</v>
       </c>
-      <c r="E8" s="236"/>
-      <c r="F8" s="235"/>
-      <c r="G8" s="235"/>
+      <c r="D8" s="187" t="s">
+        <v>676</v>
+      </c>
+      <c r="E8" s="186"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="237"/>
-      <c r="B9" s="237"/>
-      <c r="C9" s="237"/>
-      <c r="D9" s="237"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="235"/>
-      <c r="G9" s="235"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="187"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
     </row>
     <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="238" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B10" s="238"/>
       <c r="C10" s="238"/>
       <c r="D10" s="238"/>
       <c r="E10" s="238"/>
-      <c r="F10" s="235"/>
-      <c r="G10" s="235"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="185"/>
     </row>
     <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="237" t="s">
-        <v>675</v>
-      </c>
-      <c r="B11" s="236"/>
-      <c r="C11" s="236"/>
-      <c r="D11" s="236"/>
-      <c r="E11" s="236"/>
-      <c r="F11" s="235"/>
-      <c r="G11" s="235"/>
+      <c r="A11" s="187" t="s">
+        <v>674</v>
+      </c>
+      <c r="B11" s="186"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
     </row>
     <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="236"/>
-      <c r="B12" s="236"/>
-      <c r="C12" s="236"/>
-      <c r="D12" s="236"/>
-      <c r="E12" s="236"/>
-      <c r="F12" s="235"/>
-      <c r="G12" s="235"/>
+      <c r="A12" s="186"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="186"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
     </row>
     <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="238" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B13" s="238"/>
       <c r="C13" s="238"/>
       <c r="D13" s="238"/>
       <c r="E13" s="238"/>
-      <c r="F13" s="235"/>
-      <c r="G13" s="235"/>
+      <c r="F13" s="185"/>
+      <c r="G13" s="185"/>
     </row>
     <row r="14" spans="1:7" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="241" t="s">
-        <v>673</v>
-      </c>
-      <c r="B14" s="241" t="s">
+      <c r="A14" s="190" t="s">
         <v>672</v>
       </c>
-      <c r="C14" s="241" t="s">
+      <c r="B14" s="190" t="s">
         <v>671</v>
       </c>
-      <c r="D14" s="239" t="s">
+      <c r="C14" s="190" t="s">
+        <v>670</v>
+      </c>
+      <c r="D14" s="188" t="s">
         <v>166</v>
       </c>
-      <c r="E14" s="240"/>
-      <c r="F14" s="235"/>
-      <c r="G14" s="235"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
     </row>
     <row r="15" spans="1:7" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="241" t="s">
-        <v>670</v>
-      </c>
-      <c r="B15" s="240" t="s">
+      <c r="A15" s="190" t="s">
         <v>669</v>
       </c>
-      <c r="C15" s="240"/>
-      <c r="D15" s="240"/>
-      <c r="E15" s="239" t="s">
+      <c r="B15" s="189" t="s">
         <v>668</v>
       </c>
-      <c r="F15" s="235"/>
-      <c r="G15" s="235"/>
+      <c r="C15" s="189"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="188" t="s">
+        <v>667</v>
+      </c>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
     </row>
     <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="238" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B16" s="238"/>
       <c r="C16" s="238"/>
       <c r="D16" s="238"/>
       <c r="E16" s="238"/>
-      <c r="F16" s="235"/>
-      <c r="G16" s="235"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
     </row>
     <row r="17" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="237" t="s">
-        <v>666</v>
-      </c>
-      <c r="B17" s="236"/>
-      <c r="C17" s="236"/>
-      <c r="D17" s="236"/>
-      <c r="E17" s="237" t="s">
+      <c r="A17" s="187" t="s">
         <v>665</v>
       </c>
-      <c r="F17" s="235"/>
-      <c r="G17" s="235"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="186"/>
+      <c r="E17" s="187" t="s">
+        <v>664</v>
+      </c>
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
     </row>
     <row r="18" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="236"/>
-      <c r="B18" s="236"/>
-      <c r="C18" s="236"/>
-      <c r="D18" s="236"/>
-      <c r="E18" s="236"/>
-      <c r="F18" s="235"/>
-      <c r="G18" s="235"/>
+      <c r="A18" s="186"/>
+      <c r="B18" s="186"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
     </row>
     <row r="19" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="236"/>
-      <c r="B19" s="236"/>
-      <c r="C19" s="236"/>
-      <c r="D19" s="236"/>
-      <c r="E19" s="236"/>
-      <c r="F19" s="235"/>
-      <c r="G19" s="235"/>
+      <c r="A19" s="186"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11640,10 +11656,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -11654,8 +11670,8 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="184" t="s">
-        <v>653</v>
+      <c r="B2" s="183" t="s">
+        <v>652</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -11668,8 +11684,8 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="184" t="s">
-        <v>657</v>
+      <c r="B3" s="183" t="s">
+        <v>656</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -11678,10 +11694,10 @@
     </row>
     <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="B4" s="184" t="s">
-        <v>654</v>
+        <v>650</v>
+      </c>
+      <c r="B4" s="183" t="s">
+        <v>653</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -11690,10 +11706,10 @@
     </row>
     <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="B5" s="184" t="s">
         <v>655</v>
+      </c>
+      <c r="B5" s="183" t="s">
+        <v>654</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -11702,10 +11718,10 @@
     </row>
     <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B6" s="183" t="s">
         <v>661</v>
-      </c>
-      <c r="B6" s="184" t="s">
-        <v>662</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -11713,16 +11729,16 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="184"/>
-      <c r="B7" s="184"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="184"/>
-      <c r="B8" s="184"/>
+      <c r="A8" s="183"/>
+      <c r="B8" s="183"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -11730,7 +11746,7 @@
     </row>
     <row r="9" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="184"/>
+      <c r="B9" s="183"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -11738,7 +11754,7 @@
     </row>
     <row r="10" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="184"/>
+      <c r="B10" s="183"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -11746,7 +11762,7 @@
     </row>
     <row r="11" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="184"/>
+      <c r="B11" s="183"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -11754,7 +11770,7 @@
     </row>
     <row r="12" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="184"/>
+      <c r="B12" s="183"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -11764,8 +11780,8 @@
       <c r="A13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="184" t="s">
-        <v>659</v>
+      <c r="B13" s="183" t="s">
+        <v>658</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -11774,7 +11790,7 @@
     </row>
     <row r="14" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="184"/>
+      <c r="B14" s="183"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>

--- a/HTML/0 Excel SRC Files/3 Excel.xlsx
+++ b/HTML/0 Excel SRC Files/3 Excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435E2B53-CB40-4997-A40A-7D9E517942C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55836E5-92F8-4E06-9EFC-2B6E22B05229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" tabRatio="899" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,6 @@
     <sheet name="Advise1" sheetId="28" r:id="rId19"/>
     <sheet name="AVG" sheetId="29" r:id="rId20"/>
     <sheet name="Law" sheetId="30" r:id="rId21"/>
-    <sheet name="FL" sheetId="32" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="674">
   <si>
     <t>البيت الكبير</t>
   </si>
@@ -2069,104 +2068,6 @@
     <t>Jobs</t>
   </si>
   <si>
-    <t>Freelancer</t>
-  </si>
-  <si>
-    <t>99 Designs</t>
-  </si>
-  <si>
-    <t>Behance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designers </t>
-  </si>
-  <si>
-    <t>أبو العباقره</t>
-  </si>
-  <si>
-    <t>Mounis Firwana</t>
-  </si>
-  <si>
-    <t>Learn With Marie TIKTOK</t>
-  </si>
-  <si>
-    <t>فكرة 
- صهيب الدسوقي</t>
-  </si>
-  <si>
-    <t>وليد طه</t>
-  </si>
-  <si>
-    <t>Learn With 
-Marie</t>
-  </si>
-  <si>
-    <t>Freelancer People</t>
-  </si>
-  <si>
-    <t>Freelance Me</t>
-  </si>
-  <si>
-    <t>1/5</t>
-  </si>
-  <si>
-    <t>Rev</t>
-  </si>
-  <si>
-    <t>Go Transcript</t>
-  </si>
-  <si>
-    <t>Scribie</t>
-  </si>
-  <si>
-    <t>Happy Scribe</t>
-  </si>
-  <si>
-    <t>transcription</t>
-  </si>
-  <si>
-    <t>مستقل</t>
-  </si>
-  <si>
-    <t>خمسات</t>
-  </si>
-  <si>
-    <t>عربي</t>
-  </si>
-  <si>
-    <t>Upwork Egypt</t>
-  </si>
-  <si>
-    <t>Best Company</t>
-  </si>
-  <si>
-    <t>People/Hour</t>
-  </si>
-  <si>
-    <t>Flex Jobs</t>
-  </si>
-  <si>
-    <t>Jooble</t>
-  </si>
-  <si>
-    <t>Worxmart</t>
-  </si>
-  <si>
-    <t>crowded</t>
-  </si>
-  <si>
-    <t>Toptal</t>
-  </si>
-  <si>
-    <t>Guru</t>
-  </si>
-  <si>
-    <t>Fiverr</t>
-  </si>
-  <si>
-    <t>Up Work</t>
-  </si>
-  <si>
     <t>الفول / الطعمية</t>
   </si>
   <si>
@@ -2228,9 +2129,6 @@
   </si>
   <si>
     <t>صيانة</t>
-  </si>
-  <si>
-    <t>Freelance</t>
   </si>
   <si>
     <t>Health</t>
@@ -2246,7 +2144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2581,29 +2479,6 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2642,7 +2517,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2757,12 +2632,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="51">
     <border>
@@ -3433,7 +3302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3954,58 +3823,40 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4058,9 +3909,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4096,6 +3944,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4158,18 +4009,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4943,7 +4782,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4960,528 +4799,526 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="186">
+      <c r="A1" s="177">
         <v>1</v>
       </c>
-      <c r="B1" s="186">
+      <c r="B1" s="177">
         <v>2</v>
       </c>
-      <c r="C1" s="186" t="s">
+      <c r="C1" s="177" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="186" t="s">
+      <c r="D1" s="177" t="s">
         <v>619</v>
       </c>
-      <c r="E1" s="186" t="s">
+      <c r="E1" s="177" t="s">
         <v>219</v>
       </c>
-      <c r="F1" s="186" t="s">
+      <c r="F1" s="177" t="s">
         <v>622</v>
       </c>
-      <c r="G1" s="186" t="s">
+      <c r="G1" s="177" t="s">
         <v>649</v>
       </c>
-      <c r="H1" s="186" t="s">
-        <v>703</v>
-      </c>
-      <c r="I1" s="186" t="s">
-        <v>705</v>
+      <c r="H1" s="177" t="s">
+        <v>672</v>
+      </c>
+      <c r="I1" s="177" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="178" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="178" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="187" t="s">
+      <c r="C2" s="178" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="187" t="s">
+      <c r="D2" s="178" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="187" t="s">
+      <c r="E2" s="178" t="s">
         <v>624</v>
       </c>
-      <c r="F2" s="187" t="s">
+      <c r="F2" s="178" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="187" t="s">
+      <c r="G2" s="178" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="187"/>
-      <c r="I2" s="186" t="s">
-        <v>701</v>
+      <c r="H2" s="178"/>
+      <c r="I2" s="177" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="187"/>
-      <c r="B3" s="187"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="186" t="s">
+      <c r="A3" s="178"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="177" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="191" t="s">
+      <c r="A4" s="182" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="191" t="s">
+      <c r="B4" s="182" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="191" t="s">
+      <c r="C4" s="182" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="191" t="s">
+      <c r="D4" s="182" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="186" t="s">
-        <v>625</v>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="177" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="187" t="s">
+      <c r="A5" s="178" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="187" t="s">
+      <c r="B5" s="178" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="187" t="s">
+      <c r="C5" s="178" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="187" t="s">
+      <c r="D5" s="178" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="187" t="s">
+      <c r="E5" s="178" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="187" t="s">
+      <c r="F5" s="178" t="s">
         <v>181</v>
       </c>
-      <c r="G5" s="187" t="s">
+      <c r="G5" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="187"/>
-      <c r="I5" s="186" t="s">
-        <v>702</v>
-      </c>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="187" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="192"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="187"/>
     </row>
     <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="187" t="s">
+      <c r="A7" s="178" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="187" t="s">
+      <c r="B7" s="178" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="187" t="s">
+      <c r="C7" s="178" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="187" t="s">
+      <c r="D7" s="178" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="187" t="s">
+      <c r="E7" s="178" t="s">
         <v>188</v>
       </c>
-      <c r="F7" s="187" t="s">
+      <c r="F7" s="178" t="s">
         <v>189</v>
       </c>
-      <c r="G7" s="187" t="s">
+      <c r="G7" s="178" t="s">
         <v>190</v>
       </c>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
+      <c r="H7" s="178"/>
+      <c r="I7" s="178"/>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="192" t="s">
+      <c r="A8" s="187" t="s">
         <v>621</v>
       </c>
-      <c r="B8" s="192"/>
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="192"/>
+      <c r="B8" s="187"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="187"/>
+      <c r="H8" s="187"/>
+      <c r="I8" s="187"/>
     </row>
     <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="187" t="s">
+      <c r="A9" s="178" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="187" t="s">
+      <c r="B9" s="178" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="187" t="s">
+      <c r="C9" s="178" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="187" t="s">
+      <c r="D9" s="178" t="s">
         <v>154</v>
       </c>
-      <c r="E9" s="187" t="s">
+      <c r="E9" s="178" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="187" t="s">
+      <c r="F9" s="178" t="s">
         <v>156</v>
       </c>
-      <c r="G9" s="187" t="s">
+      <c r="G9" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="H9" s="187" t="s">
+      <c r="H9" s="178" t="s">
         <v>158</v>
       </c>
-      <c r="I9" s="187" t="s">
+      <c r="I9" s="178" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="187" t="s">
+      <c r="A10" s="178" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="187" t="s">
+      <c r="B10" s="178" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="187" t="s">
+      <c r="C10" s="178" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="187" t="s">
+      <c r="D10" s="178" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="187" t="s">
+      <c r="E10" s="178" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="187" t="s">
+      <c r="F10" s="178" t="s">
         <v>163</v>
       </c>
-      <c r="G10" s="187" t="s">
+      <c r="G10" s="178" t="s">
         <v>164</v>
       </c>
-      <c r="H10" s="187" t="s">
+      <c r="H10" s="178" t="s">
         <v>166</v>
       </c>
-      <c r="I10" s="187" t="s">
+      <c r="I10" s="178" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="187" t="s">
+      <c r="A11" s="178" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="187" t="s">
+      <c r="B11" s="178" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="187" t="s">
+      <c r="C11" s="178" t="s">
         <v>180</v>
       </c>
-      <c r="D11" s="187" t="s">
+      <c r="D11" s="178" t="s">
         <v>169</v>
       </c>
-      <c r="E11" s="187" t="s">
+      <c r="E11" s="178" t="s">
         <v>176</v>
       </c>
-      <c r="F11" s="187" t="s">
+      <c r="F11" s="178" t="s">
         <v>170</v>
       </c>
-      <c r="G11" s="187" t="s">
+      <c r="G11" s="178" t="s">
         <v>171</v>
       </c>
-      <c r="H11" s="187"/>
-      <c r="I11" s="187"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="178"/>
     </row>
     <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="187" t="s">
+      <c r="A12" s="178" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="187" t="s">
+      <c r="B12" s="178" t="s">
         <v>173</v>
       </c>
-      <c r="C12" s="187" t="s">
+      <c r="C12" s="178" t="s">
         <v>175</v>
       </c>
-      <c r="D12" s="187" t="s">
+      <c r="D12" s="178" t="s">
         <v>177</v>
       </c>
-      <c r="E12" s="187" t="s">
+      <c r="E12" s="178" t="s">
         <v>178</v>
       </c>
-      <c r="F12" s="187" t="s">
+      <c r="F12" s="178" t="s">
         <v>179</v>
       </c>
-      <c r="G12" s="187"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="187" t="s">
+      <c r="G12" s="178"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="178" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="193" t="s">
-        <v>704</v>
-      </c>
-      <c r="B13" s="193"/>
-      <c r="C13" s="193"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
+      <c r="A13" s="186" t="s">
+        <v>671</v>
+      </c>
+      <c r="B13" s="186"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="186"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="186"/>
     </row>
     <row r="14" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="178" t="s">
         <v>209</v>
       </c>
-      <c r="B14" s="187" t="s">
+      <c r="B14" s="178" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="187" t="s">
+      <c r="C14" s="178" t="s">
         <v>211</v>
       </c>
-      <c r="D14" s="187" t="s">
+      <c r="D14" s="178" t="s">
         <v>212</v>
       </c>
-      <c r="E14" s="187" t="s">
+      <c r="E14" s="178" t="s">
         <v>213</v>
       </c>
-      <c r="F14" s="187" t="s">
+      <c r="F14" s="178" t="s">
         <v>214</v>
       </c>
-      <c r="G14" s="187" t="s">
+      <c r="G14" s="178" t="s">
         <v>215</v>
       </c>
-      <c r="H14" s="187" t="s">
+      <c r="H14" s="178" t="s">
         <v>216</v>
       </c>
-      <c r="I14" s="187" t="s">
+      <c r="I14" s="178" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="187" t="s">
+      <c r="A15" s="178" t="s">
         <v>218</v>
       </c>
-      <c r="B15" s="187" t="s">
+      <c r="B15" s="178" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="187"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="187"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="187"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="193" t="s">
-        <v>706</v>
-      </c>
-      <c r="B16" s="193"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
+      <c r="A16" s="186" t="s">
+        <v>673</v>
+      </c>
+      <c r="B16" s="186"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="186"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="186"/>
     </row>
     <row r="17" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="246" t="s">
+      <c r="A17" s="183" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="246" t="s">
+      <c r="B17" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="246" t="s">
+      <c r="C17" s="183" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="246" t="s">
+      <c r="D17" s="183" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="246" t="s">
+      <c r="E17" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="246" t="s">
+      <c r="F17" s="183" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="246" t="s">
+      <c r="G17" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="246" t="s">
+      <c r="H17" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="I17" s="246" t="s">
+      <c r="I17" s="183" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="246" t="s">
+      <c r="A18" s="183" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="246" t="s">
+      <c r="B18" s="183" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="246" t="s">
+      <c r="C18" s="183" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="246" t="s">
+      <c r="D18" s="183" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="246" t="s">
+      <c r="E18" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="246" t="s">
+      <c r="F18" s="183" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="246" t="s">
+      <c r="G18" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="246" t="s">
+      <c r="H18" s="183" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="246" t="s">
+      <c r="I18" s="183" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="246" t="s">
+      <c r="A19" s="183" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="246" t="s">
+      <c r="B19" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="248" t="s">
+      <c r="C19" s="185" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="247"/>
-      <c r="F19" s="247"/>
-      <c r="G19" s="247"/>
-      <c r="H19" s="247"/>
-      <c r="I19" s="247"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
     </row>
     <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="193" t="s">
-        <v>706</v>
-      </c>
-      <c r="B20" s="193"/>
-      <c r="C20" s="193"/>
-      <c r="D20" s="193"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="193"/>
+      <c r="A20" s="186" t="s">
+        <v>673</v>
+      </c>
+      <c r="B20" s="186"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="186"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="186"/>
     </row>
     <row r="21" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="246" t="s">
+      <c r="A21" s="183" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="246" t="s">
+      <c r="B21" s="183" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="246" t="s">
+      <c r="C21" s="183" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="246" t="s">
+      <c r="D21" s="183" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="246" t="s">
+      <c r="E21" s="183" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="246" t="s">
+      <c r="F21" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="247"/>
-      <c r="H21" s="247"/>
-      <c r="I21" s="247"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="184"/>
     </row>
     <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="193" t="s">
-        <v>706</v>
-      </c>
-      <c r="B22" s="193"/>
-      <c r="C22" s="193"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="193"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="193"/>
-      <c r="I22" s="193"/>
+      <c r="A22" s="186" t="s">
+        <v>673</v>
+      </c>
+      <c r="B22" s="186"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="186"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="186"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="186"/>
     </row>
     <row r="23" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="246" t="s">
+      <c r="A23" s="183" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="246" t="s">
+      <c r="B23" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="246" t="s">
+      <c r="C23" s="183" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="246" t="s">
+      <c r="D23" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="246" t="s">
+      <c r="E23" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="246" t="s">
+      <c r="F23" s="183" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="246" t="s">
+      <c r="G23" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="246" t="s">
+      <c r="H23" s="183" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="246" t="s">
+      <c r="I23" s="183" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="246" t="s">
+      <c r="A24" s="183" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="246" t="s">
+      <c r="B24" s="183" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="246" t="s">
+      <c r="C24" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="246" t="s">
+      <c r="D24" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="246" t="s">
+      <c r="E24" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="246" t="s">
+      <c r="F24" s="183" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="246"/>
-      <c r="H24" s="246"/>
-      <c r="I24" s="246"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5494,11 +5331,11 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="Problem Solving Sarcasm" xr:uid="{33C27C30-7AAF-49FB-8B81-811C0DDFF241}"/>
-    <hyperlink ref="I5" location="Repair!A1" display="[صيانة]" xr:uid="{CB7C93AC-CAE0-4257-8918-2B9D24101A69}"/>
+    <hyperlink ref="I4" location="Repair!A1" display="[صيانة]" xr:uid="{CB7C93AC-CAE0-4257-8918-2B9D24101A69}"/>
     <hyperlink ref="F1" location="En!A1" display="English" xr:uid="{8136A837-048F-466C-B9D8-1423BE88CE20}"/>
     <hyperlink ref="C5" r:id="rId2" display="https://www.google.com/alerts" xr:uid="{63141A91-7BC2-4C56-955D-3DCDD321B717}"/>
     <hyperlink ref="G1" r:id="rId3" display="../Jobs.htm" xr:uid="{76A456D3-FA32-4765-AED9-E883E86A1CED}"/>
-    <hyperlink ref="I4" location="EG!A1" display="[Egy Official]" xr:uid="{6C97A8A7-80E1-4075-BE65-238E19B621B1}"/>
+    <hyperlink ref="I1" location="EG!A1" display="[Egy Official]" xr:uid="{6C97A8A7-80E1-4075-BE65-238E19B621B1}"/>
     <hyperlink ref="A5" r:id="rId4" display="https://tipyan.com/" xr:uid="{91F68607-36F1-4C78-8045-1EDAE8118191}"/>
     <hyperlink ref="G2" r:id="rId5" display="https://www.youtube.com/c/WalidIssaPlus/videos" xr:uid="{ABFC01D4-61BD-4D4D-B13A-5FD4BDFFC1BA}"/>
     <hyperlink ref="D2" r:id="rId6" display="https://www.stjegypt.com/" xr:uid="{2E0073C7-3A84-484C-ADB4-1875E46919CF}"/>
@@ -5514,7 +5351,6 @@
     <hyperlink ref="A1" r:id="rId15" display="..\1.html" xr:uid="{10F17F0F-B58E-460E-A563-CB5410414046}"/>
     <hyperlink ref="D1" location="Home!A1" display="Real State" xr:uid="{8DC433BC-CEA1-42E3-BB48-DDDCCCF53C86}"/>
     <hyperlink ref="I3" location="Lib!A1" display="Library" xr:uid="{1B3F76CA-2136-45B1-8723-4D2B619E52BF}"/>
-    <hyperlink ref="H1" location="FL!A1" display="[Freelance]" xr:uid="{799980D9-B524-48BA-A56B-E3B4855132DE}"/>
     <hyperlink ref="E1" location="Food!A1" display="Body" xr:uid="{93D3B2A3-E9BA-49D3-B3E5-952B4074149D}"/>
     <hyperlink ref="A7" r:id="rId16" display="https://www.facebook.com/marketplace" xr:uid="{1F1B89DB-72E8-4B08-956B-481A326E8718}"/>
     <hyperlink ref="B7" r:id="rId17" display="https://my.opensooq.com/" xr:uid="{FEB2963B-9392-436E-A10D-EDEE996C0D4E}"/>
@@ -5571,7 +5407,7 @@
     <hyperlink ref="I14" r:id="rId68" display="https://www.youtube.com/@goudaawaad/videos" xr:uid="{CEA748F8-F3B3-41EE-B40F-68CB56527B07}"/>
     <hyperlink ref="A15" r:id="rId69" display="https://www.youtube.com/@Eldoctoor/videos" xr:uid="{03267A29-272E-4CA5-A4B8-799FA1F435E2}"/>
     <hyperlink ref="B15" r:id="rId70" display="https://www.youtube.com/@SamehGhazy/videos" xr:uid="{CBBC26CB-2178-485D-9EA7-51003DE69F7C}"/>
-    <hyperlink ref="I1" location="Marketing!A1" display="Marketing" xr:uid="{6BF12EBD-4D0A-4E55-A0D3-CC02663B48AC}"/>
+    <hyperlink ref="H1" location="Marketing!A1" display="Marketing" xr:uid="{6BF12EBD-4D0A-4E55-A0D3-CC02663B48AC}"/>
     <hyperlink ref="A17" r:id="rId71" display="https://www.youtube.com/c/eyadqunaibi/videos" xr:uid="{43B8E2DC-F96C-4340-8F6C-746048EB98D5}"/>
     <hyperlink ref="A21" r:id="rId72" display="https://www.youtube.com/channel/UCLj8UFOcdFrvlh24Lw7jrgA/videos" xr:uid="{4724DCEE-47D5-4835-98FB-C1E7FC67F74B}"/>
     <hyperlink ref="B21" r:id="rId73" display="https://www.youtube.com/channel/UCnc4DP-ohpBFg51ogObyMeQ/videos" xr:uid="{1B054AE7-7906-434B-B29D-A8B2DE30A3E9}"/>
@@ -5655,14 +5491,14 @@
       <c r="D1" s="78" t="s">
         <v>409</v>
       </c>
-      <c r="F1" s="209" t="s">
+      <c r="F1" s="203" t="s">
         <v>80</v>
       </c>
       <c r="I1" s="27"/>
       <c r="L1" s="27"/>
     </row>
     <row r="2" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="210"/>
+      <c r="F2" s="204"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
@@ -5772,11 +5608,11 @@
       <c r="C1" s="82" t="s">
         <v>437</v>
       </c>
-      <c r="D1" s="211" t="s">
+      <c r="D1" s="205" t="s">
         <v>436</v>
       </c>
-      <c r="E1" s="211"/>
-      <c r="G1" s="209" t="s">
+      <c r="E1" s="205"/>
+      <c r="G1" s="203" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5796,7 +5632,7 @@
       <c r="E2" s="80" t="s">
         <v>431</v>
       </c>
-      <c r="G2" s="210"/>
+      <c r="G2" s="204"/>
     </row>
     <row r="3" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="80" t="s">
@@ -5911,10 +5747,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="206" t="s">
         <v>449</v>
       </c>
-      <c r="B1" s="214"/>
+      <c r="B1" s="207"/>
       <c r="D1" s="92" t="s">
         <v>448</v>
       </c>
@@ -5924,10 +5760,10 @@
       <c r="G1" s="92" t="s">
         <v>446</v>
       </c>
-      <c r="J1" s="215" t="s">
+      <c r="J1" s="208" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="216"/>
+      <c r="K1" s="209"/>
     </row>
     <row r="2" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="91">
@@ -5945,8 +5781,8 @@
       <c r="G2" s="89">
         <v>74.8</v>
       </c>
-      <c r="J2" s="217"/>
-      <c r="K2" s="218"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="211"/>
     </row>
     <row r="3" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="86">
@@ -5984,10 +5820,10 @@
       <c r="G5" s="43">
         <v>29</v>
       </c>
-      <c r="J5" s="223" t="s">
+      <c r="J5" s="216" t="s">
         <v>441</v>
       </c>
-      <c r="K5" s="223"/>
+      <c r="K5" s="216"/>
     </row>
     <row r="6" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="86">
@@ -5999,10 +5835,10 @@
       <c r="D6" s="72"/>
       <c r="F6" s="27"/>
       <c r="G6" s="72"/>
-      <c r="J6" s="212">
+      <c r="J6" s="217">
         <v>45234</v>
       </c>
-      <c r="K6" s="212"/>
+      <c r="K6" s="217"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="86">
@@ -6012,15 +5848,15 @@
         <v>45211</v>
       </c>
       <c r="D7" s="72"/>
-      <c r="F7" s="219" t="s">
+      <c r="F7" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G7" s="220"/>
+      <c r="G7" s="213"/>
       <c r="H7" s="72"/>
-      <c r="J7" s="224">
+      <c r="J7" s="218">
         <v>45264</v>
       </c>
-      <c r="K7" s="224"/>
+      <c r="K7" s="218"/>
     </row>
     <row r="8" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="86">
@@ -6030,13 +5866,13 @@
         <v>45232</v>
       </c>
       <c r="D8" s="72"/>
-      <c r="F8" s="221" t="s">
+      <c r="F8" s="214" t="s">
         <v>439</v>
       </c>
-      <c r="G8" s="222"/>
+      <c r="G8" s="215"/>
       <c r="H8" s="72"/>
-      <c r="J8" s="212"/>
-      <c r="K8" s="212"/>
+      <c r="J8" s="217"/>
+      <c r="K8" s="217"/>
     </row>
     <row r="9" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="86">
@@ -6046,86 +5882,86 @@
         <v>45234</v>
       </c>
       <c r="D9" s="72"/>
-      <c r="J9" s="212"/>
-      <c r="K9" s="212"/>
+      <c r="J9" s="217"/>
+      <c r="K9" s="217"/>
     </row>
     <row r="10" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="86"/>
       <c r="B10" s="85"/>
       <c r="D10" s="72"/>
-      <c r="J10" s="212"/>
-      <c r="K10" s="212"/>
+      <c r="J10" s="217"/>
+      <c r="K10" s="217"/>
     </row>
     <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="D11" s="72"/>
-      <c r="J11" s="212"/>
-      <c r="K11" s="212"/>
+      <c r="J11" s="217"/>
+      <c r="K11" s="217"/>
     </row>
     <row r="12" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="D12" s="72"/>
-      <c r="J12" s="212"/>
-      <c r="K12" s="212"/>
+      <c r="J12" s="217"/>
+      <c r="K12" s="217"/>
     </row>
     <row r="13" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="D13" s="72"/>
-      <c r="J13" s="212"/>
-      <c r="K13" s="212"/>
+      <c r="J13" s="217"/>
+      <c r="K13" s="217"/>
     </row>
     <row r="14" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="D14" s="72"/>
-      <c r="J14" s="212"/>
-      <c r="K14" s="212"/>
+      <c r="J14" s="217"/>
+      <c r="K14" s="217"/>
     </row>
     <row r="15" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="D15" s="72"/>
-      <c r="J15" s="212"/>
-      <c r="K15" s="212"/>
+      <c r="J15" s="217"/>
+      <c r="K15" s="217"/>
     </row>
     <row r="16" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
-      <c r="J16" s="212"/>
-      <c r="K16" s="212"/>
+      <c r="J16" s="217"/>
+      <c r="K16" s="217"/>
     </row>
     <row r="17" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
-      <c r="J17" s="212"/>
-      <c r="K17" s="212"/>
+      <c r="J17" s="217"/>
+      <c r="K17" s="217"/>
     </row>
     <row r="18" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
-      <c r="J18" s="212"/>
-      <c r="K18" s="212"/>
+      <c r="J18" s="217"/>
+      <c r="K18" s="217"/>
     </row>
     <row r="19" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="86"/>
       <c r="B19" s="85"/>
-      <c r="J19" s="212"/>
-      <c r="K19" s="212"/>
+      <c r="J19" s="217"/>
+      <c r="K19" s="217"/>
     </row>
     <row r="20" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="86"/>
       <c r="B20" s="85"/>
-      <c r="J20" s="212"/>
-      <c r="K20" s="212"/>
+      <c r="J20" s="217"/>
+      <c r="K20" s="217"/>
     </row>
     <row r="21" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="86"/>
       <c r="B21" s="85"/>
-      <c r="J21" s="212"/>
-      <c r="K21" s="212"/>
+      <c r="J21" s="217"/>
+      <c r="K21" s="217"/>
     </row>
     <row r="22" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="84"/>
@@ -6133,6 +5969,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="J1:K2"/>
     <mergeCell ref="F7:G7"/>
@@ -6141,19 +5990,6 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J1" location="Food!A1" display="Back" xr:uid="{C1D1D7E3-01F8-4CEB-B64B-273BBE247837}"/>
@@ -6211,12 +6047,12 @@
       <c r="I1" s="136" t="s">
         <v>493</v>
       </c>
-      <c r="K1" s="209" t="s">
+      <c r="K1" s="203" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="222" t="s">
         <v>492</v>
       </c>
       <c r="B2" s="135" t="s">
@@ -6225,7 +6061,7 @@
       <c r="C2" s="102" t="s">
         <v>490</v>
       </c>
-      <c r="E2" s="242" t="s">
+      <c r="E2" s="236" t="s">
         <v>489</v>
       </c>
       <c r="F2" s="134" t="s">
@@ -6238,15 +6074,15 @@
         <v>486</v>
       </c>
       <c r="I2" s="132"/>
-      <c r="K2" s="210"/>
+      <c r="K2" s="204"/>
     </row>
     <row r="3" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="228"/>
+      <c r="A3" s="222"/>
       <c r="B3" s="122"/>
       <c r="C3" s="102" t="s">
         <v>485</v>
       </c>
-      <c r="E3" s="243"/>
+      <c r="E3" s="237"/>
       <c r="F3" s="131" t="s">
         <v>484</v>
       </c>
@@ -6257,10 +6093,10 @@
       <c r="I3" s="129"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="228"/>
+      <c r="A4" s="222"/>
       <c r="B4" s="122"/>
       <c r="C4" s="102"/>
-      <c r="E4" s="244"/>
+      <c r="E4" s="238"/>
       <c r="F4" s="128" t="s">
         <v>482</v>
       </c>
@@ -6273,15 +6109,15 @@
       <c r="I4" s="126" t="s">
         <v>450</v>
       </c>
-      <c r="K4" s="230" t="s">
+      <c r="K4" s="224" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="228"/>
+      <c r="A5" s="222"/>
       <c r="B5" s="122"/>
       <c r="C5" s="102"/>
-      <c r="E5" s="233" t="s">
+      <c r="E5" s="227" t="s">
         <v>479</v>
       </c>
       <c r="F5" s="125" t="s">
@@ -6294,13 +6130,13 @@
       <c r="I5" s="123" t="s">
         <v>477</v>
       </c>
-      <c r="K5" s="231"/>
+      <c r="K5" s="225"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="228"/>
+      <c r="A6" s="222"/>
       <c r="B6" s="122"/>
       <c r="C6" s="102"/>
-      <c r="E6" s="234"/>
+      <c r="E6" s="228"/>
       <c r="F6" s="121" t="s">
         <v>476</v>
       </c>
@@ -6309,7 +6145,7 @@
       <c r="I6" s="119"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="228" t="s">
+      <c r="A7" s="222" t="s">
         <v>475</v>
       </c>
       <c r="B7" s="103" t="s">
@@ -6318,7 +6154,7 @@
       <c r="C7" s="102" t="s">
         <v>473</v>
       </c>
-      <c r="E7" s="235"/>
+      <c r="E7" s="229"/>
       <c r="F7" s="118" t="s">
         <v>472</v>
       </c>
@@ -6327,109 +6163,109 @@
       <c r="I7" s="116"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="228"/>
-      <c r="B8" s="239" t="s">
+      <c r="A8" s="222"/>
+      <c r="B8" s="233" t="s">
         <v>471</v>
       </c>
       <c r="C8" s="102" t="s">
         <v>470</v>
       </c>
-      <c r="E8" s="236" t="s">
+      <c r="E8" s="230" t="s">
         <v>469</v>
       </c>
       <c r="F8" s="115" t="s">
         <v>468</v>
       </c>
-      <c r="G8" s="240">
+      <c r="G8" s="234">
         <v>1.8229166666666667</v>
       </c>
       <c r="H8" s="114"/>
       <c r="I8" s="113"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="228"/>
-      <c r="B9" s="239"/>
+      <c r="A9" s="222"/>
+      <c r="B9" s="233"/>
       <c r="C9" s="102" t="s">
         <v>467</v>
       </c>
-      <c r="E9" s="237"/>
+      <c r="E9" s="231"/>
       <c r="F9" s="112" t="s">
         <v>466</v>
       </c>
-      <c r="G9" s="241"/>
+      <c r="G9" s="235"/>
       <c r="H9" s="111"/>
       <c r="I9" s="110"/>
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="228"/>
+      <c r="A10" s="222"/>
       <c r="B10" s="88" t="s">
         <v>465</v>
       </c>
       <c r="C10" s="102"/>
     </row>
     <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="228" t="s">
+      <c r="A11" s="222" t="s">
         <v>464</v>
       </c>
       <c r="B11" s="109" t="s">
         <v>463</v>
       </c>
       <c r="C11" s="102"/>
-      <c r="E11" s="238" t="s">
+      <c r="E11" s="232" t="s">
         <v>462</v>
       </c>
       <c r="F11" s="108" t="s">
         <v>461</v>
       </c>
-      <c r="I11" s="229" t="s">
+      <c r="I11" s="223" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="228"/>
+      <c r="A12" s="222"/>
       <c r="B12" s="88"/>
       <c r="C12" s="102"/>
-      <c r="E12" s="228"/>
+      <c r="E12" s="222"/>
       <c r="F12" s="107" t="s">
         <v>459</v>
       </c>
-      <c r="I12" s="229"/>
+      <c r="I12" s="223"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="228"/>
+      <c r="A13" s="222"/>
       <c r="B13" s="88"/>
       <c r="C13" s="102"/>
-      <c r="E13" s="228"/>
+      <c r="E13" s="222"/>
       <c r="F13" s="106"/>
-      <c r="I13" s="229"/>
+      <c r="I13" s="223"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="228"/>
+      <c r="A14" s="222"/>
       <c r="B14" s="88"/>
       <c r="C14" s="102"/>
-      <c r="E14" s="228"/>
+      <c r="E14" s="222"/>
       <c r="F14" s="106"/>
       <c r="I14" s="104" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="228"/>
+      <c r="A15" s="222"/>
       <c r="B15" s="88"/>
       <c r="C15" s="102"/>
-      <c r="E15" s="232"/>
+      <c r="E15" s="226"/>
       <c r="F15" s="105"/>
       <c r="I15" s="104" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="228"/>
+      <c r="A16" s="222"/>
       <c r="B16" s="88"/>
       <c r="C16" s="102"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="228" t="s">
+      <c r="A17" s="222" t="s">
         <v>456</v>
       </c>
       <c r="B17" s="103" t="s">
@@ -6438,28 +6274,28 @@
       <c r="C17" s="102"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="228"/>
+      <c r="A18" s="222"/>
       <c r="B18" s="88"/>
       <c r="C18" s="102"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="228"/>
+      <c r="A19" s="222"/>
       <c r="B19" s="88"/>
       <c r="C19" s="102"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="232"/>
+      <c r="A20" s="226"/>
       <c r="B20" s="101"/>
       <c r="C20" s="100"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="225" t="s">
+      <c r="A22" s="219" t="s">
         <v>454</v>
       </c>
-      <c r="B22" s="226"/>
-      <c r="C22" s="227"/>
+      <c r="B22" s="220"/>
+      <c r="C22" s="221"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="99" t="s">
@@ -6527,12 +6363,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V1" s="209" t="s">
+      <c r="V1" s="203" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="22:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V2" s="210"/>
+      <c r="V2" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6581,7 +6417,7 @@
       <c r="F1" s="147" t="s">
         <v>517</v>
       </c>
-      <c r="H1" s="209" t="s">
+      <c r="H1" s="203" t="s">
         <v>80</v>
       </c>
     </row>
@@ -6604,7 +6440,7 @@
       <c r="F2" s="88" t="s">
         <v>506</v>
       </c>
-      <c r="H2" s="210"/>
+      <c r="H2" s="204"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="145" t="s">
@@ -7709,144 +7545,144 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="20" style="189"/>
+    <col min="1" max="16384" width="20" style="180"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="s">
-        <v>684</v>
-      </c>
-      <c r="B1" s="187" t="s">
-        <v>685</v>
-      </c>
-      <c r="C1" s="187" t="s">
-        <v>686</v>
-      </c>
-      <c r="D1" s="187" t="s">
-        <v>687</v>
-      </c>
-      <c r="E1" s="187" t="s">
-        <v>688</v>
-      </c>
-      <c r="F1" s="187" t="s">
-        <v>689</v>
-      </c>
-      <c r="G1" s="187" t="s">
-        <v>690</v>
-      </c>
-      <c r="H1" s="187" t="s">
-        <v>691</v>
-      </c>
-      <c r="I1" s="187"/>
-      <c r="J1" s="190" t="s">
+      <c r="A1" s="178" t="s">
+        <v>652</v>
+      </c>
+      <c r="B1" s="178" t="s">
+        <v>653</v>
+      </c>
+      <c r="C1" s="178" t="s">
+        <v>654</v>
+      </c>
+      <c r="D1" s="178" t="s">
+        <v>655</v>
+      </c>
+      <c r="E1" s="178" t="s">
+        <v>656</v>
+      </c>
+      <c r="F1" s="178" t="s">
+        <v>657</v>
+      </c>
+      <c r="G1" s="178" t="s">
+        <v>658</v>
+      </c>
+      <c r="H1" s="178" t="s">
+        <v>659</v>
+      </c>
+      <c r="I1" s="178"/>
+      <c r="J1" s="181" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="187" t="s">
-        <v>692</v>
-      </c>
-      <c r="B2" s="187" t="s">
-        <v>693</v>
-      </c>
-      <c r="C2" s="187" t="s">
-        <v>694</v>
-      </c>
-      <c r="D2" s="187" t="s">
-        <v>695</v>
-      </c>
-      <c r="E2" s="187" t="s">
-        <v>696</v>
-      </c>
-      <c r="F2" s="187" t="s">
-        <v>697</v>
-      </c>
-      <c r="G2" s="187" t="s">
-        <v>698</v>
-      </c>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
+      <c r="A2" s="178" t="s">
+        <v>660</v>
+      </c>
+      <c r="B2" s="178" t="s">
+        <v>661</v>
+      </c>
+      <c r="C2" s="178" t="s">
+        <v>662</v>
+      </c>
+      <c r="D2" s="178" t="s">
+        <v>663</v>
+      </c>
+      <c r="E2" s="178" t="s">
+        <v>664</v>
+      </c>
+      <c r="F2" s="178" t="s">
+        <v>665</v>
+      </c>
+      <c r="G2" s="178" t="s">
+        <v>666</v>
+      </c>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
     </row>
     <row r="3" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="187" t="s">
-        <v>699</v>
-      </c>
-      <c r="B3" s="187" t="s">
-        <v>700</v>
-      </c>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
+      <c r="A3" s="178" t="s">
+        <v>667</v>
+      </c>
+      <c r="B3" s="178" t="s">
+        <v>668</v>
+      </c>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
     </row>
     <row r="4" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="187"/>
-      <c r="B4" s="187"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
+      <c r="A4" s="178"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
     </row>
     <row r="5" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="187"/>
-      <c r="B5" s="187"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="187"/>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="187"/>
-      <c r="B7" s="187"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
+      <c r="A7" s="178"/>
+      <c r="B7" s="178"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="178"/>
+      <c r="I7" s="178"/>
     </row>
     <row r="8" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="187"/>
-      <c r="B8" s="187"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
+      <c r="A8" s="178"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
     </row>
     <row r="9" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="187"/>
-      <c r="B9" s="187"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="187"/>
+      <c r="A9" s="178"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8709,306 +8545,6 @@
     <hyperlink ref="A3" r:id="rId13" display="https://www.youtube.com/@Egyptian-Bar-Association/videos" xr:uid="{B3C103AD-D49D-44A3-AC36-8B50802678AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D93FA79-DCB8-4005-875C-FBB5977A1ED7}">
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="28" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="28" style="176"/>
-    <col min="6" max="6" width="17.140625" style="176" customWidth="1"/>
-    <col min="7" max="16384" width="28" style="176"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="179" t="s">
-        <v>681</v>
-      </c>
-      <c r="B1" s="179" t="s">
-        <v>650</v>
-      </c>
-      <c r="C1" s="179" t="s">
-        <v>680</v>
-      </c>
-      <c r="D1" s="179" t="s">
-        <v>679</v>
-      </c>
-      <c r="E1" s="178"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="184" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="179" t="s">
-        <v>678</v>
-      </c>
-      <c r="B2" s="179" t="s">
-        <v>677</v>
-      </c>
-      <c r="C2" s="179" t="s">
-        <v>676</v>
-      </c>
-      <c r="D2" s="179" t="s">
-        <v>675</v>
-      </c>
-      <c r="E2" s="178"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-    </row>
-    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="179" t="s">
-        <v>674</v>
-      </c>
-      <c r="B3" s="179" t="s">
-        <v>673</v>
-      </c>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="179" t="s">
-        <v>672</v>
-      </c>
-      <c r="F3" s="177"/>
-      <c r="G3" s="183" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="245" t="s">
-        <v>670</v>
-      </c>
-      <c r="B4" s="245"/>
-      <c r="C4" s="245"/>
-      <c r="D4" s="245"/>
-      <c r="E4" s="245"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-    </row>
-    <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="179" t="s">
-        <v>669</v>
-      </c>
-      <c r="B5" s="179" t="s">
-        <v>668</v>
-      </c>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="177"/>
-    </row>
-    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-    </row>
-    <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="245" t="s">
-        <v>667</v>
-      </c>
-      <c r="B7" s="245"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="245" t="s">
-        <v>667</v>
-      </c>
-      <c r="E7" s="245"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-    </row>
-    <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="179" t="s">
-        <v>666</v>
-      </c>
-      <c r="B8" s="179" t="s">
-        <v>665</v>
-      </c>
-      <c r="C8" s="179" t="s">
-        <v>664</v>
-      </c>
-      <c r="D8" s="179" t="s">
-        <v>663</v>
-      </c>
-      <c r="E8" s="178"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="177"/>
-    </row>
-    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="179"/>
-      <c r="B9" s="179"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-    </row>
-    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="245" t="s">
-        <v>662</v>
-      </c>
-      <c r="B10" s="245"/>
-      <c r="C10" s="245"/>
-      <c r="D10" s="245"/>
-      <c r="E10" s="245"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-    </row>
-    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="179" t="s">
-        <v>661</v>
-      </c>
-      <c r="B11" s="178"/>
-      <c r="C11" s="178"/>
-      <c r="D11" s="178"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
-    </row>
-    <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="178"/>
-      <c r="B12" s="178"/>
-      <c r="C12" s="178"/>
-      <c r="D12" s="178"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="177"/>
-    </row>
-    <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="245" t="s">
-        <v>660</v>
-      </c>
-      <c r="B13" s="245"/>
-      <c r="C13" s="245"/>
-      <c r="D13" s="245"/>
-      <c r="E13" s="245"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="177"/>
-    </row>
-    <row r="14" spans="1:7" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="182" t="s">
-        <v>659</v>
-      </c>
-      <c r="B14" s="182" t="s">
-        <v>658</v>
-      </c>
-      <c r="C14" s="182" t="s">
-        <v>657</v>
-      </c>
-      <c r="D14" s="180" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" s="181"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="177"/>
-    </row>
-    <row r="15" spans="1:7" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="182" t="s">
-        <v>656</v>
-      </c>
-      <c r="B15" s="181" t="s">
-        <v>655</v>
-      </c>
-      <c r="C15" s="181"/>
-      <c r="D15" s="181"/>
-      <c r="E15" s="180" t="s">
-        <v>654</v>
-      </c>
-      <c r="F15" s="177"/>
-      <c r="G15" s="177"/>
-    </row>
-    <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="245" t="s">
-        <v>653</v>
-      </c>
-      <c r="B16" s="245"/>
-      <c r="C16" s="245"/>
-      <c r="D16" s="245"/>
-      <c r="E16" s="245"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
-    </row>
-    <row r="17" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="179" t="s">
-        <v>652</v>
-      </c>
-      <c r="B17" s="178"/>
-      <c r="C17" s="178"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="179" t="s">
-        <v>651</v>
-      </c>
-      <c r="F17" s="177"/>
-      <c r="G17" s="177"/>
-    </row>
-    <row r="18" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="178"/>
-      <c r="B18" s="178"/>
-      <c r="C18" s="178"/>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="177"/>
-    </row>
-    <row r="19" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="178"/>
-      <c r="B19" s="178"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A16:E16"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://www.upwork.com/" xr:uid="{A4E18105-A3C6-49FD-9511-BEE8B5EAB356}"/>
-    <hyperlink ref="B1" r:id="rId2" display="https://www.freelancer.com/" xr:uid="{A522C05A-5C51-4CBB-8737-94D2D707B35B}"/>
-    <hyperlink ref="C1" r:id="rId3" display="https://www.fiverr.com/" xr:uid="{57329CC4-9E9E-44FA-913B-AA3E51DABCE0}"/>
-    <hyperlink ref="D1" r:id="rId4" display="https://www.guru.com/" xr:uid="{82DAD4E8-5ABE-4638-9845-BC7C5AFD3EEA}"/>
-    <hyperlink ref="E3" r:id="rId5" display="https://bestcompany.com/" xr:uid="{AF28303E-C4E9-4CA0-8A10-7D7CF9E63096}"/>
-    <hyperlink ref="A11" r:id="rId6" display="http://www.freelanceme.net/" xr:uid="{82DDE908-F29D-4DA8-BD5D-3527C2A74018}"/>
-    <hyperlink ref="A5" r:id="rId7" display="https://khamsat.com/" xr:uid="{BDE03C40-CA10-4DAE-AEE3-56DC7DAD0C4B}"/>
-    <hyperlink ref="E17" r:id="rId8" display="https://99designs.com/" xr:uid="{11838D05-8C55-4B2A-8F45-90DCD0323288}"/>
-    <hyperlink ref="A2" r:id="rId9" display="https://www.toptal.com/" xr:uid="{EB98D574-01C8-484D-831C-8245E6AA0426}"/>
-    <hyperlink ref="B2" r:id="rId10" display="https://www.crowded.com/" xr:uid="{5E43BA03-3650-4462-8483-22345A1F0A3E}"/>
-    <hyperlink ref="G1" location="'0'!A1" display="Back" xr:uid="{7C93E468-1FFE-40A3-A428-6F8080517A7E}"/>
-    <hyperlink ref="B5" r:id="rId11" xr:uid="{F38ED486-D5B6-4FB1-8F5A-93A2B1BCF73A}"/>
-    <hyperlink ref="C2" r:id="rId12" xr:uid="{140654D4-D87A-431D-8327-26EF10EE59FF}"/>
-    <hyperlink ref="D2" r:id="rId13" xr:uid="{644834A0-B512-4F9E-9E3B-9644919CD210}"/>
-    <hyperlink ref="A3" r:id="rId14" xr:uid="{D7D4365C-1670-4B10-B27C-33F96D70C474}"/>
-    <hyperlink ref="A17" r:id="rId15" xr:uid="{3F92F1A4-E671-4413-906D-A933E4DFF297}"/>
-    <hyperlink ref="B3" r:id="rId16" xr:uid="{08F7DB3D-A8B5-4711-9D3C-96E133C87426}"/>
-    <hyperlink ref="A14" r:id="rId17" display="Learn With Marie" xr:uid="{A1EF4910-7004-4843-9715-CC56A9B106B7}"/>
-    <hyperlink ref="D14" r:id="rId18" xr:uid="{C5932111-3220-4E62-918C-EA82E34778EC}"/>
-    <hyperlink ref="C14" r:id="rId19" display="فكرة - صهيب الدسوقي" xr:uid="{7C70ADB7-3820-4ED7-8B2F-416A62D29481}"/>
-    <hyperlink ref="B15" r:id="rId20" xr:uid="{B6583816-DA26-4DD8-805C-DA4ECFD39131}"/>
-    <hyperlink ref="A15" r:id="rId21" display="https://www.tiktok.com/@learnwithmarie" xr:uid="{26FFFD5A-21D2-45D8-B3DB-F7B824C75210}"/>
-    <hyperlink ref="B8" r:id="rId22" xr:uid="{BC5A3069-DB6E-4E32-BFF5-BF93401F8B09}"/>
-    <hyperlink ref="A8" r:id="rId23" xr:uid="{F28F470B-4CFC-40A4-A4BC-35EC33F8A890}"/>
-    <hyperlink ref="D8" r:id="rId24" xr:uid="{F8091AD5-58BB-4103-BA99-DF7772D898A3}"/>
-    <hyperlink ref="C8" r:id="rId25" xr:uid="{1882561C-0CDA-45A6-8515-0E468926D35C}"/>
-    <hyperlink ref="E15" r:id="rId26" xr:uid="{03CF2A07-5A96-405F-9743-77E0EEFA981D}"/>
-    <hyperlink ref="B14" r:id="rId27" xr:uid="{700C123D-EE36-4A7E-A063-C6E319A9DC14}"/>
-    <hyperlink ref="G3" r:id="rId28" xr:uid="{9D15A780-F8AF-4B3B-BF4A-87F19453D537}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 
@@ -9837,91 +9373,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="178" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="178" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="178" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="187"/>
-      <c r="E1" s="190" t="s">
+      <c r="D1" s="178"/>
+      <c r="E1" s="181" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="178" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="178" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="187" t="s">
+      <c r="C2" s="178" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
     </row>
     <row r="3" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="178" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="178" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="187" t="s">
+      <c r="C3" s="178" t="s">
         <v>207</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
     </row>
     <row r="4" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="187" t="s">
+      <c r="A4" s="178" t="s">
         <v>199</v>
       </c>
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="178" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="187" t="s">
+      <c r="C4" s="178" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
     </row>
     <row r="5" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="187"/>
-      <c r="B5" s="187" t="s">
+      <c r="A5" s="178"/>
+      <c r="B5" s="178" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="187" t="s">
+      <c r="C5" s="178" t="s">
         <v>203</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
     </row>
     <row r="6" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="178" t="s">
         <v>205</v>
       </c>
-      <c r="B6" s="187" t="s">
+      <c r="B6" s="178" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="180"/>
     </row>
     <row r="7" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="187" t="s">
+      <c r="A7" s="178" t="s">
         <v>208</v>
       </c>
-      <c r="B7" s="187" t="s">
+      <c r="B7" s="178" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="180"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10060,15 +9596,15 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="194"/>
-      <c r="B5" s="195"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="195"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="195"/>
-      <c r="H5" s="195"/>
-      <c r="I5" s="196"/>
+      <c r="A5" s="188"/>
+      <c r="B5" s="189"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="189"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="190"/>
     </row>
     <row r="6" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
@@ -10085,15 +9621,15 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="194"/>
-      <c r="B7" s="195"/>
-      <c r="C7" s="195"/>
-      <c r="D7" s="195"/>
-      <c r="E7" s="195"/>
-      <c r="F7" s="195"/>
-      <c r="G7" s="195"/>
-      <c r="H7" s="195"/>
-      <c r="I7" s="196"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="190"/>
     </row>
     <row r="8" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
@@ -10142,15 +9678,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="194"/>
-      <c r="B10" s="195"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="195"/>
-      <c r="E10" s="195"/>
-      <c r="F10" s="195"/>
-      <c r="G10" s="195"/>
-      <c r="H10" s="195"/>
-      <c r="I10" s="196"/>
+      <c r="A10" s="188"/>
+      <c r="B10" s="189"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="190"/>
     </row>
     <row r="11" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -10199,15 +9735,15 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="194"/>
-      <c r="B13" s="197"/>
-      <c r="C13" s="197"/>
-      <c r="D13" s="197"/>
-      <c r="E13" s="197"/>
-      <c r="F13" s="197"/>
-      <c r="G13" s="197"/>
-      <c r="H13" s="195"/>
-      <c r="I13" s="196"/>
+      <c r="A13" s="188"/>
+      <c r="B13" s="191"/>
+      <c r="C13" s="191"/>
+      <c r="D13" s="191"/>
+      <c r="E13" s="191"/>
+      <c r="F13" s="191"/>
+      <c r="G13" s="191"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="190"/>
     </row>
     <row r="14" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
@@ -10593,16 +10129,16 @@
       <c r="D1" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="E1" s="204"/>
-      <c r="F1" s="205" t="s">
+      <c r="E1" s="198"/>
+      <c r="F1" s="199" t="s">
         <v>315</v>
       </c>
-      <c r="G1" s="206"/>
-      <c r="I1" s="207" t="s">
+      <c r="G1" s="200"/>
+      <c r="I1" s="201" t="s">
         <v>358</v>
       </c>
-      <c r="J1" s="208"/>
-      <c r="L1" s="198" t="s">
+      <c r="J1" s="202"/>
+      <c r="L1" s="192" t="s">
         <v>80</v>
       </c>
     </row>
@@ -10619,7 +10155,7 @@
       <c r="D2" s="30">
         <v>18</v>
       </c>
-      <c r="E2" s="204"/>
+      <c r="E2" s="198"/>
       <c r="F2" s="25" t="s">
         <v>320</v>
       </c>
@@ -10632,7 +10168,7 @@
       <c r="J2" s="53">
         <v>1.5</v>
       </c>
-      <c r="L2" s="199"/>
+      <c r="L2" s="193"/>
     </row>
     <row r="3" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
@@ -10647,7 +10183,7 @@
       <c r="D3" s="35">
         <v>22</v>
       </c>
-      <c r="E3" s="204"/>
+      <c r="E3" s="198"/>
       <c r="F3" s="37" t="s">
         <v>324</v>
       </c>
@@ -10674,7 +10210,7 @@
       <c r="D4" s="35">
         <v>22</v>
       </c>
-      <c r="E4" s="204"/>
+      <c r="E4" s="198"/>
       <c r="F4" s="38" t="s">
         <v>329</v>
       </c>
@@ -10684,7 +10220,7 @@
       <c r="I4" s="52" t="s">
         <v>367</v>
       </c>
-      <c r="J4" s="185" t="s">
+      <c r="J4" s="176" t="s">
         <v>368</v>
       </c>
     </row>
@@ -10701,7 +10237,7 @@
       <c r="D5" s="40">
         <v>22</v>
       </c>
-      <c r="E5" s="204"/>
+      <c r="E5" s="198"/>
       <c r="F5" s="38" t="s">
         <v>334</v>
       </c>
@@ -10724,7 +10260,7 @@
       <c r="D6" s="35">
         <v>40</v>
       </c>
-      <c r="E6" s="204"/>
+      <c r="E6" s="198"/>
       <c r="F6" s="38" t="s">
         <v>338</v>
       </c>
@@ -10747,7 +10283,7 @@
       <c r="D7" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="E7" s="204"/>
+      <c r="E7" s="198"/>
       <c r="F7" s="43" t="s">
         <v>343</v>
       </c>
@@ -10766,7 +10302,7 @@
         <v>346</v>
       </c>
       <c r="D8" s="35"/>
-      <c r="E8" s="204"/>
+      <c r="E8" s="198"/>
       <c r="F8" s="25" t="s">
         <v>347</v>
       </c>
@@ -10783,7 +10319,7 @@
       <c r="B9" s="41"/>
       <c r="C9" s="36"/>
       <c r="D9" s="41"/>
-      <c r="E9" s="204"/>
+      <c r="E9" s="198"/>
       <c r="F9" s="45" t="s">
         <v>350</v>
       </c>
@@ -10804,13 +10340,13 @@
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="35"/>
-      <c r="E10" s="204"/>
+      <c r="E10" s="198"/>
       <c r="F10" s="38"/>
       <c r="G10" s="35"/>
-      <c r="I10" s="205" t="s">
+      <c r="I10" s="199" t="s">
         <v>386</v>
       </c>
-      <c r="J10" s="206"/>
+      <c r="J10" s="200"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
@@ -10825,7 +10361,7 @@
       <c r="D11" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="E11" s="204"/>
+      <c r="E11" s="198"/>
       <c r="F11" s="38"/>
       <c r="G11" s="35"/>
     </row>
@@ -10842,13 +10378,13 @@
       <c r="D12" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="E12" s="204"/>
+      <c r="E12" s="198"/>
       <c r="F12" s="38"/>
       <c r="G12" s="35"/>
-      <c r="I12" s="200" t="s">
+      <c r="I12" s="194" t="s">
         <v>317</v>
       </c>
-      <c r="J12" s="201"/>
+      <c r="J12" s="195"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
@@ -10863,11 +10399,11 @@
       <c r="D13" s="30">
         <v>41</v>
       </c>
-      <c r="E13" s="204"/>
+      <c r="E13" s="198"/>
       <c r="F13" s="43"/>
       <c r="G13" s="44"/>
       <c r="I13" s="33" t="s">
-        <v>683</v>
+        <v>651</v>
       </c>
       <c r="J13" s="33" t="s">
         <v>326</v>
@@ -10886,7 +10422,7 @@
       <c r="D14" s="30">
         <v>84</v>
       </c>
-      <c r="E14" s="204"/>
+      <c r="E14" s="198"/>
       <c r="F14" s="25" t="s">
         <v>366</v>
       </c>
@@ -10913,7 +10449,7 @@
       <c r="D15" s="35">
         <v>169</v>
       </c>
-      <c r="E15" s="204"/>
+      <c r="E15" s="198"/>
       <c r="F15" s="45" t="s">
         <v>370</v>
       </c>
@@ -10940,14 +10476,14 @@
       <c r="D16" s="35">
         <v>142</v>
       </c>
-      <c r="E16" s="204"/>
+      <c r="E16" s="198"/>
       <c r="F16" s="38"/>
       <c r="G16" s="35"/>
       <c r="I16" s="33" t="s">
         <v>345</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>682</v>
+        <v>650</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10963,7 +10499,7 @@
       <c r="D17" s="35">
         <v>35</v>
       </c>
-      <c r="E17" s="204"/>
+      <c r="E17" s="198"/>
       <c r="F17" s="38"/>
       <c r="G17" s="35"/>
       <c r="I17" s="47" t="s">
@@ -11002,10 +10538,10 @@
       </c>
       <c r="F19" s="43"/>
       <c r="G19" s="44"/>
-      <c r="I19" s="202" t="s">
+      <c r="I19" s="196" t="s">
         <v>316</v>
       </c>
-      <c r="J19" s="203"/>
+      <c r="J19" s="197"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="52" t="s">

--- a/HTML/0 Excel SRC Files/3 Excel.xlsx
+++ b/HTML/0 Excel SRC Files/3 Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55836E5-92F8-4E06-9EFC-2B6E22B05229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46B5284-8F57-45A7-8BD6-913ED2FE1ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" tabRatio="899" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" tabRatio="899" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,7 @@
     <sheet name="Companies" sheetId="26" r:id="rId17"/>
     <sheet name="Numbers" sheetId="27" r:id="rId18"/>
     <sheet name="Advise1" sheetId="28" r:id="rId19"/>
-    <sheet name="AVG" sheetId="29" r:id="rId20"/>
-    <sheet name="Law" sheetId="30" r:id="rId21"/>
+    <sheet name="Law" sheetId="30" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="624">
   <si>
     <t>البيت الكبير</t>
   </si>
@@ -76,9 +75,6 @@
     <t>صلح معنا اجهزتك المنزليه (الجروب الاصلي Official group) بيت العائله</t>
   </si>
   <si>
-    <t>مستشارك التأمينى / مصر</t>
-  </si>
-  <si>
     <t>اسأل عن الأجهزة الكهربائية</t>
   </si>
   <si>
@@ -217,24 +213,6 @@
     <t>اسلاميات</t>
   </si>
   <si>
-    <t>معجم الدوحة</t>
-  </si>
-  <si>
-    <t>المعجم</t>
-  </si>
-  <si>
-    <t>المقرئ</t>
-  </si>
-  <si>
-    <t>المنقب</t>
-  </si>
-  <si>
-    <t>الازهر</t>
-  </si>
-  <si>
-    <t>الافتاء</t>
-  </si>
-  <si>
     <t>الاسلام س و ج</t>
   </si>
   <si>
@@ -433,9 +411,6 @@
     <t>7ESL Learning English</t>
   </si>
   <si>
-    <t>Google Alerts</t>
-  </si>
-  <si>
     <t>وليد عيسي</t>
   </si>
   <si>
@@ -448,9 +423,6 @@
     <t>DW وثائقية</t>
   </si>
   <si>
-    <t>cleanup.pictures</t>
-  </si>
-  <si>
     <t>DR. Same7 8zaly</t>
   </si>
   <si>
@@ -493,27 +465,12 @@
     <t>IT Ministry</t>
   </si>
   <si>
-    <t>Write Sonic</t>
-  </si>
-  <si>
-    <t>Bing AI IMG</t>
-  </si>
-  <si>
-    <t>Query AI</t>
-  </si>
-  <si>
-    <t>Text2SQL AI</t>
-  </si>
-  <si>
     <t>فاتورة الكهرباء</t>
   </si>
   <si>
     <t>فاتورة المياه</t>
   </si>
   <si>
-    <t>د/ سمسم</t>
-  </si>
-  <si>
     <t>احمد مختار</t>
   </si>
   <si>
@@ -532,9 +489,6 @@
     <t>شريف ياسر</t>
   </si>
   <si>
-    <t>المواطن سعيد</t>
-  </si>
-  <si>
     <t>م/ محمد سيد</t>
   </si>
   <si>
@@ -544,9 +498,6 @@
     <t>عبدالله الوهيبي</t>
   </si>
   <si>
-    <t>amira farouk</t>
-  </si>
-  <si>
     <t>أميمه عبدالله</t>
   </si>
   <si>
@@ -574,13 +525,7 @@
     <t>حسان عابد</t>
   </si>
   <si>
-    <t>Fatmhisoka</t>
-  </si>
-  <si>
     <t>bassem elgarhi</t>
-  </si>
-  <si>
-    <t>الحاوي عوض</t>
   </si>
   <si>
     <t>Walid Taha</t>
@@ -1876,105 +1821,6 @@
     <t>Advises</t>
   </si>
   <si>
-    <t>https://www.semsarmasr.com/3akarat/2243634/%D8%B4%D9%82%D8%A9-70%D9%85-%D9%86%D8%B2%D9%84%D8%A9-%D8%B1%D8%B4%D8%A7%D8%AD-%D8%A7%D9%84%D8%AE%D8%B5%D9%88%D8%B5-%D8%A5%D9%8A%D8%AC%D8%A7%D8%B1-%D9%82%D8%A7%D9%86%D9%88%D9%86-%D9%82%D8%AF%D9%8A%D9%85-%D8%AC%D9%86%D8%A8-%D9%85%D8%AD%D8%B7%D8%A9-%D8%A7%D9%84%D8%A7%D8%AA%D9%88%D8%A8%D9%8A%D8%B3-%D8%A7%D9%84%D9%82%D9%84%D9%8A%D9%88%D8%A8%D9%8A%D8%A9-%D9%85%D8%B5%D8%B1</t>
-  </si>
-  <si>
-    <t>رامي جودا</t>
-  </si>
-  <si>
-    <t>سوبر لوكس</t>
-  </si>
-  <si>
-    <t>نزلة الرشاح</t>
-  </si>
-  <si>
-    <t>https://www.semsarmasr.com/3akarat/2244426/%D8%B4%D9%82%D8%A9-%D8%A5%D9%8A%D8%AC%D8%A7%D8%B1-%D9%82%D8%AF%D9%8A%D9%85-%D8%A7%D9%84%D8%AE%D8%B5%D9%88%D8%B5-%D9%82%D8%A7%D9%86%D9%88%D9%86-%D8%B4%D8%A7%D8%B1%D8%B9-%D8%A7%D9%84%D9%88%D8%B1%D8%B4%D8%A9.-%D8%A7%D9%85%D8%A7%D9%85-%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9-%D8%AD%D9%85%D8%A7%D8%AF-%D8%A7%D9%84%D9%82%D9%84%D9%8A%D9%88%D8%A8%D9%8A%D8%A9-%D9%85%D8%B5%D8%B1</t>
-  </si>
-  <si>
-    <t>بيشوي</t>
-  </si>
-  <si>
-    <t>100 0177227</t>
-  </si>
-  <si>
-    <t>شارع الورشة - الخصوص</t>
-  </si>
-  <si>
-    <t>https://www.semsarmasr.com/3akarat/2251248/%D8%B4%D9%82%D8%A9-90%D9%85-%D9%82%D8%A7%D9%86%D9%88%D9%86-%D9%82%D8%AF%D9%8A%D9%85-%D8%A8%D8%AC%D9%88%D8%A7%D8%B1-%D9%85%D8%B3%D8%AC%D8%AF-%D8%A8%D9%84%D8%A7%D9%84-%D8%AA%D8%B1%D8%B9%D8%A9-%D8%B9%D8%A8%D8%AF-%D8%A7%D9%84%D8%B9%D8%A7%D9%84-1-%D8%B5%D9%81%D8%B7-%D8%A7%D9%84%D9%84%D8%A8%D9%86-%D8%A5%D9%8A%D8%AC%D8%A7%D8%B1-%D8%A7%D9%84%D8%B9%D8%A7%D9%841-%D8%A7%D9%84%D8%AC%D9%8A%D8%B2%D8%A9-%D9%85%D8%B5%D8%B1</t>
-  </si>
-  <si>
-    <t>اسامة عشماوى</t>
-  </si>
-  <si>
-    <t>صفط اللبن بجوار مسجد بلال</t>
-  </si>
-  <si>
-    <t>https://www.semsarmasr.com/3akarat/2070097/%D8%B4%D8%A7%D8%B1%D8%B9-%D9%85%D9%84%D9%83%D8%A9-%D9%81%D9%8A%D8%B5%D9%84-%D8%B4%D9%81%D8%A9-%D8%A5%D9%8A%D8%AC%D8%A7%D8%B1-%D9%82%D8%AF%D9%8A%D9%85-%D9%84%D9%84%D8%A5%D9%8A%D8%AC%D8%A7%D8%B1110%D9%85%D8%AA%D8%B1%D9%85%D8%B4%D8%B7%D8%A8%D8%A9-%D8%B3%D9%88%D8%A8%D8%B1%D9%84%D9%88%D9%83%D8%B3-%D9%82%D8%A7%D9%86%D9%88%D9%86-%D8%A7%D9%84%D8%AC%D9%8A%D8%B2%D8%A9-%D9%85%D8%B5%D8%B1</t>
-  </si>
-  <si>
-    <t>مهاب احمد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ملكة فيصل </t>
-  </si>
-  <si>
-    <t>بالمطبعه فيصل خلف الشبراوى</t>
-  </si>
-  <si>
-    <t>https://www.semsarmasr.com/3akarat/2283380/%D8%B4%D9%82%D8%A9-%D8%A5%D9%8A%D8%AC%D8%A7%D8%B1-%D9%82%D8%AF%D9%8A%D9%85-%D8%A8%D8%B4%D8%A7%D8%B1%D8%B9-%D9%85%D8%AA%D9%81%D8%B1%D8%B9-%D9%85%D9%86-%D8%A7%D9%84%D8%B4%D9%87%D9%8A%D8%AF-%D8%A7%D8%AD%D9%85%D8%AF-%D8%AD%D9%85%D8%AF%D9%89-%D8%A7%D9%84%D8%B7%D9%88%D8%A7%D8%A8%D9%82-%D9%81%D9%8A%D8%B5%D9%84-%D8%A8%D8%A7%D9%84%D9%82%D8%B1%D8%A8-%D8%A7%D9%84%D8%AF%D8%A7%D8%A6%D8%B1%D9%89-%D9%82%D8%A7%D9%86%D9%88%D9%86-%D8%A7%D9%84%D9%87%D8%B1%D9%85-%D8%A7%D9%84%D8%AC%D9%8A%D8%B2%D8%A9-%D9%85%D8%B5%D8%B1</t>
-  </si>
-  <si>
-    <t>نور الاسلام للعقارات</t>
-  </si>
-  <si>
-    <t>لوكس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  بشارع متفرع من الشهيد احمد حمدى الطوابق فيصل بالقرب الدائرى</t>
-  </si>
-  <si>
-    <t>https://www.semsarmasr.com/3akarat/2285384/%D8%B4%D9%82%D8%A9-%D9%84%D9%84%D8%A5%D9%8A%D8%AC%D8%A7%D8%B1-%D8%A7%D9%84%D9%82%D8%AF%D9%8A%D9%85-%D8%A8%D8%A7%D9%84%D8%AC%D9%8A%D8%B2%D8%A9-%D9%82%D8%A7%D9%86%D9%88%D9%86-%D9%82%D8%A8%D9%84-%D8%A7%D9%84%D9%85%D9%86%D9%8A%D8%A8-%D8%AC%D8%B2%D9%8A%D8%B1%D8%A9-%D8%A7%D9%84%D8%AF%D9%87%D8%A8-%D9%88%D9%83%D9%88%D9%84%D8%AF%D9%8A%D8%B1-%D9%85%D8%B5%D8%B1</t>
-  </si>
-  <si>
-    <t>غادة مصطفي</t>
-  </si>
-  <si>
-    <t>نصف</t>
-  </si>
-  <si>
-    <t>قبل المنيب جزيرة الدهب - جزيرة الدهب وكولدير</t>
-  </si>
-  <si>
-    <t>رابط الاعلان</t>
-  </si>
-  <si>
-    <t>اسم البائع</t>
-  </si>
-  <si>
-    <t>رقم الهاتف</t>
-  </si>
-  <si>
-    <t>نوع التشطيب</t>
-  </si>
-  <si>
-    <t>العنوان</t>
-  </si>
-  <si>
-    <t>عددا الغرف</t>
-  </si>
-  <si>
-    <t>الدور</t>
-  </si>
-  <si>
-    <t>المساحة</t>
-  </si>
-  <si>
-    <t>ايجار</t>
-  </si>
-  <si>
-    <t>السعر</t>
-  </si>
-  <si>
     <t>Real State</t>
   </si>
   <si>
@@ -2138,13 +1984,16 @@
   </si>
   <si>
     <t>Soul Health</t>
+  </si>
+  <si>
+    <t>احمد متولي</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2471,14 +2320,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2488,14 +2329,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2517,7 +2350,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2626,12 +2459,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="51">
     <border>
@@ -3302,7 +3129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3805,25 +3632,10 @@
     <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3832,23 +3644,14 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3911,6 +3714,9 @@
     <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3942,9 +3748,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4779,10 +4582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4799,663 +4602,547 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="177">
+      <c r="A1" s="172">
         <v>1</v>
       </c>
-      <c r="B1" s="177">
+      <c r="B1" s="172">
         <v>2</v>
       </c>
-      <c r="C1" s="177" t="s">
+      <c r="C1" s="172" t="s">
+        <v>569</v>
+      </c>
+      <c r="D1" s="172" t="s">
+        <v>568</v>
+      </c>
+      <c r="E1" s="172" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" s="172" t="s">
+        <v>571</v>
+      </c>
+      <c r="G1" s="172" t="s">
+        <v>598</v>
+      </c>
+      <c r="H1" s="172" t="s">
+        <v>621</v>
+      </c>
+      <c r="I1" s="172" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="173" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="173" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="173" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="173" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="173" t="s">
+        <v>573</v>
+      </c>
+      <c r="F2" s="173" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="173" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="173" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="172" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="173" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="173" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="173" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="173" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="172" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="179" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+    </row>
+    <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="173" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="173" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="173" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="173" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="173" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="173" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="173" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="173"/>
+      <c r="I5" s="172" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="179" t="s">
+        <v>570</v>
+      </c>
+      <c r="B6" s="179"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="179"/>
+      <c r="G6" s="179"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="179"/>
+    </row>
+    <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="173" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="173" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="173" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="173" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="173" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="173" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="173" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="173" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7" s="173" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="173" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="173" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="173" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="173" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="173" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="173" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="173" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" s="173" t="s">
+        <v>623</v>
+      </c>
+      <c r="I8" s="173" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="173" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="173" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="173" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="173" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="173" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="173" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="173" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="173" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" s="173" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="178" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="177" t="s">
-        <v>619</v>
-      </c>
-      <c r="E1" s="177" t="s">
-        <v>219</v>
-      </c>
-      <c r="F1" s="177" t="s">
+      <c r="B10" s="178"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
+    </row>
+    <row r="11" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="173" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="173" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="173" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="173" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="173" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="173" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="173" t="s">
+        <v>197</v>
+      </c>
+      <c r="H11" s="173" t="s">
+        <v>198</v>
+      </c>
+      <c r="I11" s="173" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="173" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="173" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="173"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="173"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="178" t="s">
         <v>622</v>
       </c>
-      <c r="G1" s="177" t="s">
-        <v>649</v>
-      </c>
-      <c r="H1" s="177" t="s">
-        <v>672</v>
-      </c>
-      <c r="I1" s="177" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="178" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="178" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="178" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="178" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="178" t="s">
-        <v>624</v>
-      </c>
-      <c r="F2" s="178" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="178" t="s">
-        <v>126</v>
-      </c>
-      <c r="H2" s="178"/>
-      <c r="I2" s="177" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="178"/>
-      <c r="B3" s="178"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="177" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="182" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="182" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="182" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="182" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="177" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="178" t="s">
+      <c r="B13" s="178"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="178"/>
+    </row>
+    <row r="14" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="176" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="176" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="176" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="176" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="176" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="176" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="176" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="176" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="176" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="176" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="176" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="176" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="178" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="178" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="178" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="178" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" s="178" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" s="178" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="187" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-    </row>
-    <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="178" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" s="178" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="178" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="178" t="s">
-        <v>187</v>
-      </c>
-      <c r="E7" s="178" t="s">
-        <v>188</v>
-      </c>
-      <c r="F7" s="178" t="s">
-        <v>189</v>
-      </c>
-      <c r="G7" s="178" t="s">
-        <v>190</v>
-      </c>
-      <c r="H7" s="178"/>
-      <c r="I7" s="178"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="187" t="s">
-        <v>621</v>
-      </c>
-      <c r="B8" s="187"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
-    </row>
-    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="178" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" s="178" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="178" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="178" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="178" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" s="178" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" s="178" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" s="178" t="s">
-        <v>158</v>
-      </c>
-      <c r="I9" s="178" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" s="178" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="178" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="178" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" s="178" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" s="178" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" s="178" t="s">
-        <v>164</v>
-      </c>
-      <c r="H10" s="178" t="s">
-        <v>166</v>
-      </c>
-      <c r="I10" s="178" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="178" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" s="178" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="178" t="s">
-        <v>180</v>
-      </c>
-      <c r="D11" s="178" t="s">
-        <v>169</v>
-      </c>
-      <c r="E11" s="178" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="178" t="s">
-        <v>170</v>
-      </c>
-      <c r="G11" s="178" t="s">
-        <v>171</v>
-      </c>
-      <c r="H11" s="178"/>
-      <c r="I11" s="178"/>
-    </row>
-    <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="178" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="178" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="178" t="s">
-        <v>175</v>
-      </c>
-      <c r="D12" s="178" t="s">
-        <v>177</v>
-      </c>
-      <c r="E12" s="178" t="s">
-        <v>178</v>
-      </c>
-      <c r="F12" s="178" t="s">
-        <v>179</v>
-      </c>
-      <c r="G12" s="178"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="178" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="186" t="s">
-        <v>671</v>
-      </c>
-      <c r="B13" s="186"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="186"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="186"/>
-    </row>
-    <row r="14" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="178" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14" s="178" t="s">
-        <v>210</v>
-      </c>
-      <c r="C14" s="178" t="s">
-        <v>211</v>
-      </c>
-      <c r="D14" s="178" t="s">
-        <v>212</v>
-      </c>
-      <c r="E14" s="178" t="s">
-        <v>213</v>
-      </c>
-      <c r="F14" s="178" t="s">
-        <v>214</v>
-      </c>
-      <c r="G14" s="178" t="s">
-        <v>215</v>
-      </c>
-      <c r="H14" s="178" t="s">
-        <v>216</v>
-      </c>
-      <c r="I14" s="178" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="178" t="s">
-        <v>218</v>
-      </c>
-      <c r="B15" s="178" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="178"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="186" t="s">
-        <v>673</v>
-      </c>
-      <c r="B16" s="186"/>
-      <c r="C16" s="186"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="186"/>
-    </row>
-    <row r="17" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="183" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="183" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="183" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="183" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="183" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="183" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="183" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="183" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="183" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="183" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="183" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="183" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="183" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="183" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="183" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="183" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="183" t="s">
+      <c r="F15" s="176" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="183" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="183" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="183" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="185" t="s">
+      <c r="G15" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="176" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="176" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="176" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="176" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="176" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="176" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="176" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="G16" s="176" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="184"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="184"/>
-      <c r="I19" s="184"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="186" t="s">
-        <v>673</v>
-      </c>
-      <c r="B20" s="186"/>
-      <c r="C20" s="186"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="186"/>
-    </row>
-    <row r="21" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="183" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="183" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="183" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="183" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="183" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="183" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="184"/>
-      <c r="H21" s="184"/>
-      <c r="I21" s="184"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="186" t="s">
-        <v>673</v>
-      </c>
-      <c r="B22" s="186"/>
-      <c r="C22" s="186"/>
-      <c r="D22" s="186"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="186"/>
-    </row>
-    <row r="23" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="183" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="183" t="s">
+      <c r="I16" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="178" t="s">
+        <v>622</v>
+      </c>
+      <c r="B17" s="178"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="178"/>
+    </row>
+    <row r="18" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="183" t="s">
+      <c r="B18" s="176" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="183" t="s">
+      <c r="C18" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="183" t="s">
+      <c r="D18" s="176" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="183" t="s">
+      <c r="E18" s="176" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="183" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="183" t="s">
+      <c r="F18" s="176" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="176" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="176" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="176" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="183" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="183" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="183" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="183" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="183" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="183" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="183"/>
-    </row>
+    </row>
+    <row r="20" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A22:I22"/>
+  <mergeCells count="5">
     <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A4:I4"/>
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A8:I8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="Problem Solving Sarcasm" xr:uid="{33C27C30-7AAF-49FB-8B81-811C0DDFF241}"/>
-    <hyperlink ref="I4" location="Repair!A1" display="[صيانة]" xr:uid="{CB7C93AC-CAE0-4257-8918-2B9D24101A69}"/>
+    <hyperlink ref="I5" location="Repair!A1" display="[صيانة]" xr:uid="{CB7C93AC-CAE0-4257-8918-2B9D24101A69}"/>
     <hyperlink ref="F1" location="En!A1" display="English" xr:uid="{8136A837-048F-466C-B9D8-1423BE88CE20}"/>
-    <hyperlink ref="C5" r:id="rId2" display="https://www.google.com/alerts" xr:uid="{63141A91-7BC2-4C56-955D-3DCDD321B717}"/>
-    <hyperlink ref="G1" r:id="rId3" display="../Jobs.htm" xr:uid="{76A456D3-FA32-4765-AED9-E883E86A1CED}"/>
+    <hyperlink ref="G1" r:id="rId2" display="../Jobs.htm" xr:uid="{76A456D3-FA32-4765-AED9-E883E86A1CED}"/>
     <hyperlink ref="I1" location="EG!A1" display="[Egy Official]" xr:uid="{6C97A8A7-80E1-4075-BE65-238E19B621B1}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://tipyan.com/" xr:uid="{91F68607-36F1-4C78-8045-1EDAE8118191}"/>
-    <hyperlink ref="G2" r:id="rId5" display="https://www.youtube.com/c/WalidIssaPlus/videos" xr:uid="{ABFC01D4-61BD-4D4D-B13A-5FD4BDFFC1BA}"/>
-    <hyperlink ref="D2" r:id="rId6" display="https://www.stjegypt.com/" xr:uid="{2E0073C7-3A84-484C-ADB4-1875E46919CF}"/>
-    <hyperlink ref="C2" r:id="rId7" display="https://www.youtube.com/@aljazeeradocumentary/videos" xr:uid="{F7411A56-DD7F-43EC-9CD1-E8B209BA0477}"/>
-    <hyperlink ref="B2" r:id="rId8" display="https://www.youtube.com/@dwarabic/videos" xr:uid="{F56A765C-F084-41CE-8B17-BA93D65EBB73}"/>
-    <hyperlink ref="A2" r:id="rId9" display="https://www.youtube.com/@dwdocarabia/videos" xr:uid="{3D08B856-FE3C-4DB0-8693-4D8AA801EC5D}"/>
-    <hyperlink ref="B5" r:id="rId10" display="https://cleanup.pictures/" xr:uid="{3F6CD886-2776-4BFC-9B45-1B265A0CF030}"/>
-    <hyperlink ref="F2" r:id="rId11" display="https://mcit.gov.eg/" xr:uid="{13083B6B-62C6-4508-977C-252D35DE35D8}"/>
-    <hyperlink ref="D5" r:id="rId12" display="https://ncedc.gov.eg/Home/Invoice" xr:uid="{9C581524-E056-40AE-89CD-431E9667EA73}"/>
-    <hyperlink ref="E5" r:id="rId13" display="http://www.gcwc.com.eg/" xr:uid="{FDD6EAF8-462A-4E72-8659-0FF0A92E26F5}"/>
+    <hyperlink ref="D3" r:id="rId3" display="https://tipyan.com/" xr:uid="{91F68607-36F1-4C78-8045-1EDAE8118191}"/>
+    <hyperlink ref="G2" r:id="rId4" display="https://www.youtube.com/c/WalidIssaPlus/videos" xr:uid="{ABFC01D4-61BD-4D4D-B13A-5FD4BDFFC1BA}"/>
+    <hyperlink ref="D2" r:id="rId5" display="https://www.stjegypt.com/" xr:uid="{2E0073C7-3A84-484C-ADB4-1875E46919CF}"/>
+    <hyperlink ref="C2" r:id="rId6" display="https://www.youtube.com/@aljazeeradocumentary/videos" xr:uid="{F7411A56-DD7F-43EC-9CD1-E8B209BA0477}"/>
+    <hyperlink ref="B2" r:id="rId7" display="https://www.youtube.com/@dwarabic/videos" xr:uid="{F56A765C-F084-41CE-8B17-BA93D65EBB73}"/>
+    <hyperlink ref="A2" r:id="rId8" display="https://www.youtube.com/@dwdocarabia/videos" xr:uid="{3D08B856-FE3C-4DB0-8693-4D8AA801EC5D}"/>
+    <hyperlink ref="F2" r:id="rId9" display="https://mcit.gov.eg/" xr:uid="{13083B6B-62C6-4508-977C-252D35DE35D8}"/>
+    <hyperlink ref="H2" r:id="rId10" display="https://ncedc.gov.eg/Home/Invoice" xr:uid="{9C581524-E056-40AE-89CD-431E9667EA73}"/>
+    <hyperlink ref="A3" r:id="rId11" display="http://www.gcwc.com.eg/" xr:uid="{FDD6EAF8-462A-4E72-8659-0FF0A92E26F5}"/>
     <hyperlink ref="B1:D1" location="'$$'!A1" display="'$$'!A1" xr:uid="{36CA0706-DD86-4B1D-A60E-4D98853504F5}"/>
-    <hyperlink ref="C1" r:id="rId14" xr:uid="{F7BC58C6-4D7F-46A5-B0B6-E4E00776BBAC}"/>
-    <hyperlink ref="A1" r:id="rId15" display="..\1.html" xr:uid="{10F17F0F-B58E-460E-A563-CB5410414046}"/>
+    <hyperlink ref="C1" r:id="rId12" xr:uid="{F7BC58C6-4D7F-46A5-B0B6-E4E00776BBAC}"/>
+    <hyperlink ref="A1" r:id="rId13" display="..\1.html" xr:uid="{10F17F0F-B58E-460E-A563-CB5410414046}"/>
     <hyperlink ref="D1" location="Home!A1" display="Real State" xr:uid="{8DC433BC-CEA1-42E3-BB48-DDDCCCF53C86}"/>
     <hyperlink ref="I3" location="Lib!A1" display="Library" xr:uid="{1B3F76CA-2136-45B1-8723-4D2B619E52BF}"/>
     <hyperlink ref="E1" location="Food!A1" display="Body" xr:uid="{93D3B2A3-E9BA-49D3-B3E5-952B4074149D}"/>
-    <hyperlink ref="A7" r:id="rId16" display="https://www.facebook.com/marketplace" xr:uid="{1F1B89DB-72E8-4B08-956B-481A326E8718}"/>
-    <hyperlink ref="B7" r:id="rId17" display="https://my.opensooq.com/" xr:uid="{FEB2963B-9392-436E-A10D-EDEE996C0D4E}"/>
-    <hyperlink ref="C7" r:id="rId18" display="https://www.dubizzle.com.eg/" xr:uid="{4BECE79C-4CB5-46F1-8B23-016BB1369371}"/>
-    <hyperlink ref="D7" r:id="rId19" display="https://eg.waseet.net/ar" xr:uid="{8D32B0A1-D400-417B-B7CE-6BD3137D7569}"/>
-    <hyperlink ref="E7" r:id="rId20" display="https://www.bezaat.com/egypt/cairo" xr:uid="{FE15EB89-7C4E-4477-82F3-09A3341DD129}"/>
-    <hyperlink ref="F7" r:id="rId21" display="https://www.amazon.eg/" xr:uid="{8C57597A-C388-4AD3-8703-79DD842D535F}"/>
-    <hyperlink ref="G7" r:id="rId22" display="https://www.jumia.com.eg/ar" xr:uid="{496432C7-DA45-4A8E-A84C-8885C7FB005C}"/>
-    <hyperlink ref="A9" r:id="rId23" display="https://www.facebook.com/profile.php?id=100068861236184" xr:uid="{EDC601CB-10BB-478E-AEE5-C35D90AA74CF}"/>
-    <hyperlink ref="B9" r:id="rId24" display="https://www.facebook.com/A.Mo5tar" xr:uid="{56713FF6-78DF-4AF9-A3DE-20F38F456439}"/>
-    <hyperlink ref="C9" r:id="rId25" display="https://www.facebook.com/bashmohandesx" xr:uid="{D7762E36-E8AA-428C-9F32-1E7EDED3C576}"/>
-    <hyperlink ref="D9" r:id="rId26" display="https://www.facebook.com/tarek.elkholy.73" xr:uid="{2E039EBF-4F1E-49BD-AEEC-80190C798922}"/>
-    <hyperlink ref="E9" r:id="rId27" display="https://www.facebook.com/EducationClinicRA" xr:uid="{9C199B90-A06F-47E3-9FB7-0EA2EA121145}"/>
-    <hyperlink ref="F9" r:id="rId28" display="https://www.facebook.com/mohamedkhaled.nigm" xr:uid="{7B0509D8-C7DE-4120-9DC1-0722BB0C34EC}"/>
-    <hyperlink ref="G9" r:id="rId29" display="https://www.facebook.com/sherifyasserofficial" xr:uid="{FD0F9C51-E129-4EEF-A055-E8E97161C34A}"/>
-    <hyperlink ref="H9" r:id="rId30" display="https://www.youtube.com/@Ahmed_Said/videos" xr:uid="{8227DE4D-B0CC-419F-A961-003479E2E540}"/>
-    <hyperlink ref="B10" r:id="rId31" display="https://www.facebook.com/mohamedsayedalyhassan" xr:uid="{A0590324-D380-402F-BB13-F20E61254BDA}"/>
-    <hyperlink ref="C10" r:id="rId32" display="https://www.youtube.com/user/engmahmoudkhaled/videos" xr:uid="{6F77BAF1-4E99-4FEB-BF61-CE31271FB83F}"/>
-    <hyperlink ref="D10" r:id="rId33" display="https://aalwhebey.com/" xr:uid="{3FF4FC65-344D-43A7-A19F-8BE2B814A577}"/>
-    <hyperlink ref="E10" r:id="rId34" display="https://www.facebook.com/amira.farouk.71" xr:uid="{935469F1-97C0-41C3-97C0-176E337A5B6D}"/>
-    <hyperlink ref="F10" r:id="rId35" display="https://www.facebook.com/profile.php?id=100014234160493" xr:uid="{59554BDC-2CF2-4555-9C81-2163955C30BF}"/>
-    <hyperlink ref="G10" r:id="rId36" display="https://www.facebook.com/KarimMesallamProfile" xr:uid="{6ED8BD85-AC10-4845-BBA3-4BAA07B00703}"/>
-    <hyperlink ref="A10" r:id="rId37" display="https://www.facebook.com/mahmoud.dafirenze" xr:uid="{C02E9CBB-06B1-4007-A3BD-0D0EE10F58F3}"/>
-    <hyperlink ref="H10" r:id="rId38" display="https://www.youtube.com/@AmrAbdolaziz/videos" xr:uid="{9EC6914D-820F-4DAD-8CC7-BB92DD23D833}"/>
-    <hyperlink ref="A11" r:id="rId39" display="https://www.facebook.com/Prof.Dr.MadyElbahri" xr:uid="{4B4DCAD2-0386-4560-BC72-2932D5A7A3A6}"/>
-    <hyperlink ref="B11" r:id="rId40" display="https://www.facebook.com/emad.e.sherif" xr:uid="{7ED31B22-5EF7-4CFA-B499-F059643295C0}"/>
-    <hyperlink ref="D11" r:id="rId41" display="https://www.facebook.com/maysam.magdy.56?mibextid=ZbWKwL" xr:uid="{82BEC16A-B970-4C2A-BE3C-8A9786AD8C2C}"/>
-    <hyperlink ref="F11" r:id="rId42" display="https://www.facebook.com/ashyahia" xr:uid="{9501F0C8-6925-4AE1-A7DB-8D8E449E24AC}"/>
-    <hyperlink ref="G11" r:id="rId43" display="https://www.facebook.com/hassanbenabbed1325" xr:uid="{B896A092-B9D7-4D3C-A366-D9E4FEEDEA5A}"/>
-    <hyperlink ref="A12" r:id="rId44" display="https://www.facebook.com/Fatmhisoka1" xr:uid="{FEE80C0C-8187-4AB7-A40B-5E7E406A443B}"/>
-    <hyperlink ref="B12" r:id="rId45" display="https://www.youtube.com/@bassemelgarhi/videos" xr:uid="{9FB181FE-62BB-4CCB-A930-0CE3CF1568B8}"/>
-    <hyperlink ref="I10" r:id="rId46" display="https://www.facebook.com/amgad1964" xr:uid="{6308914C-D269-47F2-9768-1CABEB9F864E}"/>
-    <hyperlink ref="C12" r:id="rId47" display="https://www.youtube.com/@WalidTaha/videos" xr:uid="{EB6FE786-E465-40A7-B27A-C305EEB716C7}"/>
-    <hyperlink ref="E11" r:id="rId48" display="https://www.facebook.com/ameer.sherif" xr:uid="{A571CC42-51C0-4046-9DFF-8B57CF063C05}"/>
-    <hyperlink ref="D12" r:id="rId49" display="https://www.facebook.com/muhammed.faheim" xr:uid="{A6CBBD5C-DE05-4738-BC8D-F1886CF3E6F2}"/>
-    <hyperlink ref="E12" r:id="rId50" display="https://www.facebook.com/Mohamednadine" xr:uid="{7FC29B47-9849-4874-B721-DDE6C511FDBE}"/>
-    <hyperlink ref="F12" r:id="rId51" display="https://www.facebook.com/hesham.haroon.94" xr:uid="{7304525C-EC99-4908-993A-E80FA47338B7}"/>
-    <hyperlink ref="C11" r:id="rId52" display="https://www.facebook.com/Dr.Sabry.M" xr:uid="{26FDD1C5-D1AB-4BE8-9507-63E814295A0F}"/>
-    <hyperlink ref="F5" r:id="rId53" display="https://www.pinterest.com/" xr:uid="{0709D5F9-F9BD-4AA6-872A-907B922C04C6}"/>
-    <hyperlink ref="I9" r:id="rId54" display="https://www.facebook.com/tamer.ahmed.1426" xr:uid="{F3CBB8E0-8660-466E-9025-815C32DEEFD4}"/>
-    <hyperlink ref="C4" r:id="rId55" display="https://www.bing.com/images/create" xr:uid="{193DE313-4D82-4506-87C2-4D65AFE30B2F}"/>
-    <hyperlink ref="B4" r:id="rId56" display="https://www.query.ai/" xr:uid="{7C4C4DF4-E036-45AC-B9F4-5271D17F6848}"/>
-    <hyperlink ref="A4" r:id="rId57" display="https://www.text2sql.ai/" xr:uid="{C912F849-FD3C-44A6-8533-A9758748E06A}"/>
-    <hyperlink ref="D4" r:id="rId58" display="https://writesonic.com/" xr:uid="{CF1F672D-8AA0-40E9-AB0C-982E56782196}"/>
-    <hyperlink ref="I12" r:id="rId59" xr:uid="{8A40AA89-C5B1-4F06-90F8-893C30F4D6AE}"/>
-    <hyperlink ref="A14" r:id="rId60" display="https://www.youtube.com/c/abdelslammohamed777/videos" xr:uid="{1E517DBB-9F4A-44ED-BEB9-6218D6E1CA47}"/>
-    <hyperlink ref="B14" r:id="rId61" display="https://www.youtube.com/channel/UCNNJ9XBAqm9_ZXTazI3dWGg/videos" xr:uid="{CDD17A34-BFC7-4FE9-9B3C-4D65CBE3103B}"/>
-    <hyperlink ref="C14" r:id="rId62" display="https://www.youtube.com/channel/UCGS6N6QZnW8bZIWf23wdPKQ/videos" xr:uid="{21433F7B-3803-4CFD-BA81-60D0323C6237}"/>
-    <hyperlink ref="D14" r:id="rId63" display="https://www.youtube.com/channel/UCry-8xhMsrlesB7lq3qiL2w/videos" xr:uid="{D62728C0-F889-434E-ABC1-1C151AC8E748}"/>
-    <hyperlink ref="E14" r:id="rId64" display="https://www.youtube.com/c/Pharmastan" xr:uid="{3A7A93FA-AAAA-497B-9D9C-1527BE396053}"/>
-    <hyperlink ref="F14" r:id="rId65" display="https://www.youtube.com/c/DrAhmedkamelIsamail/videos" xr:uid="{E50A2C6B-F74A-41BF-8E83-2C2108958EE7}"/>
-    <hyperlink ref="G14" r:id="rId66" display="https://www.youtube.com/@MedicalStreaming/videos" xr:uid="{BF756794-FC63-4430-A930-CE54D2ABFE32}"/>
-    <hyperlink ref="H14" r:id="rId67" display="https://www.youtube.com/@goodaclinic/videos" xr:uid="{1105C289-542D-456F-981D-9087EA6EADAA}"/>
-    <hyperlink ref="I14" r:id="rId68" display="https://www.youtube.com/@goudaawaad/videos" xr:uid="{CEA748F8-F3B3-41EE-B40F-68CB56527B07}"/>
-    <hyperlink ref="A15" r:id="rId69" display="https://www.youtube.com/@Eldoctoor/videos" xr:uid="{03267A29-272E-4CA5-A4B8-799FA1F435E2}"/>
-    <hyperlink ref="B15" r:id="rId70" display="https://www.youtube.com/@SamehGhazy/videos" xr:uid="{CBBC26CB-2178-485D-9EA7-51003DE69F7C}"/>
+    <hyperlink ref="A5" r:id="rId14" display="https://www.facebook.com/marketplace" xr:uid="{1F1B89DB-72E8-4B08-956B-481A326E8718}"/>
+    <hyperlink ref="B5" r:id="rId15" display="https://my.opensooq.com/" xr:uid="{FEB2963B-9392-436E-A10D-EDEE996C0D4E}"/>
+    <hyperlink ref="C5" r:id="rId16" display="https://www.dubizzle.com.eg/" xr:uid="{4BECE79C-4CB5-46F1-8B23-016BB1369371}"/>
+    <hyperlink ref="D5" r:id="rId17" display="https://eg.waseet.net/ar" xr:uid="{8D32B0A1-D400-417B-B7CE-6BD3137D7569}"/>
+    <hyperlink ref="E5" r:id="rId18" display="https://www.bezaat.com/egypt/cairo" xr:uid="{FE15EB89-7C4E-4477-82F3-09A3341DD129}"/>
+    <hyperlink ref="F5" r:id="rId19" display="https://www.amazon.eg/" xr:uid="{8C57597A-C388-4AD3-8703-79DD842D535F}"/>
+    <hyperlink ref="G5" r:id="rId20" display="https://www.jumia.com.eg/ar" xr:uid="{496432C7-DA45-4A8E-A84C-8885C7FB005C}"/>
+    <hyperlink ref="B7" r:id="rId21" display="https://www.facebook.com/A.Mo5tar" xr:uid="{56713FF6-78DF-4AF9-A3DE-20F38F456439}"/>
+    <hyperlink ref="C7" r:id="rId22" display="https://www.facebook.com/bashmohandesx" xr:uid="{D7762E36-E8AA-428C-9F32-1E7EDED3C576}"/>
+    <hyperlink ref="D7" r:id="rId23" display="https://www.facebook.com/tarek.elkholy.73" xr:uid="{2E039EBF-4F1E-49BD-AEEC-80190C798922}"/>
+    <hyperlink ref="E7" r:id="rId24" display="https://www.facebook.com/EducationClinicRA" xr:uid="{9C199B90-A06F-47E3-9FB7-0EA2EA121145}"/>
+    <hyperlink ref="F7" r:id="rId25" display="https://www.facebook.com/mohamedkhaled.nigm" xr:uid="{7B0509D8-C7DE-4120-9DC1-0722BB0C34EC}"/>
+    <hyperlink ref="G7" r:id="rId26" display="https://www.facebook.com/sherifyasserofficial" xr:uid="{FD0F9C51-E129-4EEF-A055-E8E97161C34A}"/>
+    <hyperlink ref="B8" r:id="rId27" display="https://www.facebook.com/mohamedsayedalyhassan" xr:uid="{A0590324-D380-402F-BB13-F20E61254BDA}"/>
+    <hyperlink ref="C8" r:id="rId28" display="https://www.youtube.com/user/engmahmoudkhaled/videos" xr:uid="{6F77BAF1-4E99-4FEB-BF61-CE31271FB83F}"/>
+    <hyperlink ref="D8" r:id="rId29" display="https://aalwhebey.com/" xr:uid="{3FF4FC65-344D-43A7-A19F-8BE2B814A577}"/>
+    <hyperlink ref="F8" r:id="rId30" display="https://www.facebook.com/profile.php?id=100014234160493" xr:uid="{59554BDC-2CF2-4555-9C81-2163955C30BF}"/>
+    <hyperlink ref="G8" r:id="rId31" display="https://www.facebook.com/KarimMesallamProfile" xr:uid="{6ED8BD85-AC10-4845-BBA3-4BAA07B00703}"/>
+    <hyperlink ref="A8" r:id="rId32" display="https://www.facebook.com/mahmoud.dafirenze" xr:uid="{C02E9CBB-06B1-4007-A3BD-0D0EE10F58F3}"/>
+    <hyperlink ref="H7" r:id="rId33" display="https://www.youtube.com/@AmrAbdolaziz/videos" xr:uid="{9EC6914D-820F-4DAD-8CC7-BB92DD23D833}"/>
+    <hyperlink ref="A7" r:id="rId34" display="https://www.facebook.com/Prof.Dr.MadyElbahri" xr:uid="{4B4DCAD2-0386-4560-BC72-2932D5A7A3A6}"/>
+    <hyperlink ref="B9" r:id="rId35" display="https://www.facebook.com/emad.e.sherif" xr:uid="{7ED31B22-5EF7-4CFA-B499-F059643295C0}"/>
+    <hyperlink ref="D9" r:id="rId36" display="https://www.facebook.com/maysam.magdy.56?mibextid=ZbWKwL" xr:uid="{82BEC16A-B970-4C2A-BE3C-8A9786AD8C2C}"/>
+    <hyperlink ref="A9" r:id="rId37" display="https://www.facebook.com/ashyahia" xr:uid="{9501F0C8-6925-4AE1-A7DB-8D8E449E24AC}"/>
+    <hyperlink ref="I8" r:id="rId38" display="https://www.facebook.com/hassanbenabbed1325" xr:uid="{B896A092-B9D7-4D3C-A366-D9E4FEEDEA5A}"/>
+    <hyperlink ref="F9" r:id="rId39" display="https://www.youtube.com/@bassemelgarhi/videos" xr:uid="{9FB181FE-62BB-4CCB-A930-0CE3CF1568B8}"/>
+    <hyperlink ref="I9" r:id="rId40" display="https://www.youtube.com/@WalidTaha/videos" xr:uid="{EB6FE786-E465-40A7-B27A-C305EEB716C7}"/>
+    <hyperlink ref="E9" r:id="rId41" display="https://www.facebook.com/ameer.sherif" xr:uid="{A571CC42-51C0-4046-9DFF-8B57CF063C05}"/>
+    <hyperlink ref="G9" r:id="rId42" display="https://www.facebook.com/muhammed.faheim" xr:uid="{A6CBBD5C-DE05-4738-BC8D-F1886CF3E6F2}"/>
+    <hyperlink ref="H9" r:id="rId43" display="https://www.facebook.com/Mohamednadine" xr:uid="{7FC29B47-9849-4874-B721-DDE6C511FDBE}"/>
+    <hyperlink ref="C9" r:id="rId44" display="https://www.facebook.com/Dr.Sabry.M" xr:uid="{26FDD1C5-D1AB-4BE8-9507-63E814295A0F}"/>
+    <hyperlink ref="B3" r:id="rId45" display="https://www.pinterest.com/" xr:uid="{0709D5F9-F9BD-4AA6-872A-907B922C04C6}"/>
+    <hyperlink ref="I7" r:id="rId46" display="https://www.facebook.com/tamer.ahmed.1426" xr:uid="{F3CBB8E0-8660-466E-9025-815C32DEEFD4}"/>
+    <hyperlink ref="A11" r:id="rId47" display="https://www.youtube.com/c/abdelslammohamed777/videos" xr:uid="{1E517DBB-9F4A-44ED-BEB9-6218D6E1CA47}"/>
+    <hyperlink ref="B11" r:id="rId48" display="https://www.youtube.com/channel/UCNNJ9XBAqm9_ZXTazI3dWGg/videos" xr:uid="{CDD17A34-BFC7-4FE9-9B3C-4D65CBE3103B}"/>
+    <hyperlink ref="C11" r:id="rId49" display="https://www.youtube.com/channel/UCGS6N6QZnW8bZIWf23wdPKQ/videos" xr:uid="{21433F7B-3803-4CFD-BA81-60D0323C6237}"/>
+    <hyperlink ref="D11" r:id="rId50" display="https://www.youtube.com/channel/UCry-8xhMsrlesB7lq3qiL2w/videos" xr:uid="{D62728C0-F889-434E-ABC1-1C151AC8E748}"/>
+    <hyperlink ref="E11" r:id="rId51" display="https://www.youtube.com/c/Pharmastan" xr:uid="{3A7A93FA-AAAA-497B-9D9C-1527BE396053}"/>
+    <hyperlink ref="F11" r:id="rId52" display="https://www.youtube.com/c/DrAhmedkamelIsamail/videos" xr:uid="{E50A2C6B-F74A-41BF-8E83-2C2108958EE7}"/>
+    <hyperlink ref="G11" r:id="rId53" display="https://www.youtube.com/@MedicalStreaming/videos" xr:uid="{BF756794-FC63-4430-A930-CE54D2ABFE32}"/>
+    <hyperlink ref="H11" r:id="rId54" display="https://www.youtube.com/@goodaclinic/videos" xr:uid="{1105C289-542D-456F-981D-9087EA6EADAA}"/>
+    <hyperlink ref="I11" r:id="rId55" display="https://www.youtube.com/@goudaawaad/videos" xr:uid="{CEA748F8-F3B3-41EE-B40F-68CB56527B07}"/>
+    <hyperlink ref="A12" r:id="rId56" display="https://www.youtube.com/@Eldoctoor/videos" xr:uid="{03267A29-272E-4CA5-A4B8-799FA1F435E2}"/>
+    <hyperlink ref="B12" r:id="rId57" display="https://www.youtube.com/@SamehGhazy/videos" xr:uid="{CBBC26CB-2178-485D-9EA7-51003DE69F7C}"/>
     <hyperlink ref="H1" location="Marketing!A1" display="Marketing" xr:uid="{6BF12EBD-4D0A-4E55-A0D3-CC02663B48AC}"/>
-    <hyperlink ref="A17" r:id="rId71" display="https://www.youtube.com/c/eyadqunaibi/videos" xr:uid="{43B8E2DC-F96C-4340-8F6C-746048EB98D5}"/>
-    <hyperlink ref="A21" r:id="rId72" display="https://www.youtube.com/channel/UCLj8UFOcdFrvlh24Lw7jrgA/videos" xr:uid="{4724DCEE-47D5-4835-98FB-C1E7FC67F74B}"/>
-    <hyperlink ref="B21" r:id="rId73" display="https://www.youtube.com/channel/UCnc4DP-ohpBFg51ogObyMeQ/videos" xr:uid="{1B054AE7-7906-434B-B29D-A8B2DE30A3E9}"/>
-    <hyperlink ref="F17" r:id="rId74" display="https://www.youtube.com/c/Belaqltube/videos" xr:uid="{C07F1275-C635-416E-AB7E-4E1EB1F702E5}"/>
-    <hyperlink ref="D17" r:id="rId75" display="https://www.youtube.com/channel/UCWt3O9HfHs8-LqBFnRj1wZw/videos" xr:uid="{C4545AEB-FFD3-4827-A511-EB25ECC59D0F}"/>
-    <hyperlink ref="D21" r:id="rId76" display="https://www.youtube.com/user/Albyyinah/videos" xr:uid="{BB97F436-79C2-4B1D-96AB-FA91EAB37F50}"/>
-    <hyperlink ref="E21" r:id="rId77" display="https://www.youtube.com/channel/UCMr8VnDU1gojDgzlgkDisxA/videos" xr:uid="{7765CC63-34B1-4A80-97AD-5E82997C8FA1}"/>
-    <hyperlink ref="H17" r:id="rId78" display="https://www.youtube.com/channel/UCASAOTD6fMPEg8jmO4nPblQ/videos" xr:uid="{B50BFE26-BAA2-46C4-BB2F-D1894EB7B1BA}"/>
-    <hyperlink ref="B17" r:id="rId79" display="https://www.youtube.com/c/MakanyWorld/videos" xr:uid="{A826D7B2-004B-4B5D-BCDC-ECABF41494AB}"/>
-    <hyperlink ref="H18" r:id="rId80" display="https://www.youtube.com/channel/UC-GsjCkUB5ndNryHMDdYfTA/videos" xr:uid="{031EB79A-6FDA-49BB-A13A-AB0CC7801A4E}"/>
-    <hyperlink ref="F21" r:id="rId81" display="https://www.youtube.com/c/BridgesfoundationOrgun/videos" xr:uid="{BD93C02D-6219-45AE-A7E8-E54AD79E6B2F}"/>
-    <hyperlink ref="C21" r:id="rId82" display="https://www.youtube.com/c/Shuounislamiya/videos" xr:uid="{EBE73D93-A083-48DF-A076-C41368BFD3C2}"/>
-    <hyperlink ref="I17" r:id="rId83" display="https://www.facebook.com/3laaHamed" xr:uid="{81B23A21-B187-41D0-A0AE-A59E52F15006}"/>
-    <hyperlink ref="E17" r:id="rId84" display="https://www.youtube.com/user/alsayedtvch1/videos" xr:uid="{2A6AADBD-9487-4FBA-87BD-09D7BAA42AC8}"/>
-    <hyperlink ref="B18" r:id="rId85" display="https://www.youtube.com/channel/UCScQCjryYxfCeLFdmmMm1EA" xr:uid="{40863D37-1106-4AFA-BADE-261CEED63668}"/>
-    <hyperlink ref="A18" r:id="rId86" display="https://www.youtube.com/user/YasserHozaimy/videos" xr:uid="{0499C3A8-A23B-4BE8-9712-482E670336ED}"/>
-    <hyperlink ref="C18" r:id="rId87" display="https://www.youtube.com/c/AbdulRazapAlbadr2345/videos" xr:uid="{CE8ED2CC-4E69-40A1-965E-9F5541346BA3}"/>
-    <hyperlink ref="G18" r:id="rId88" display="https://www.youtube.com/@Alkulify1/videos" xr:uid="{793D43BE-7408-439E-995B-2F4BE34C6CD1}"/>
-    <hyperlink ref="D18" r:id="rId89" display="https://www.youtube.com/user/FiqhShaf3i/videos" xr:uid="{252E0DCC-C302-4866-9B8A-F0A58CC25BBD}"/>
-    <hyperlink ref="E18" r:id="rId90" display="https://www.youtube.com/@DrAlSuwaidan/videos" xr:uid="{29BAC375-1C3A-43C4-BEA8-15E99109F1EB}"/>
-    <hyperlink ref="F18" r:id="rId91" display="https://www.youtube.com/@samirmoustafa/videos" xr:uid="{6822F3B1-BEC2-490B-B408-2DA83A89C2F8}"/>
-    <hyperlink ref="B19" r:id="rId92" display="https://www.youtube.com/@osamaoa24/videos" xr:uid="{5AE429ED-AD32-43CB-9F85-15DF00582C06}"/>
-    <hyperlink ref="A19" r:id="rId93" display="https://www.youtube.com/@SamehElgendawey/videos" xr:uid="{E8F9123C-B974-49BF-8EF1-3301D25DCAE2}"/>
-    <hyperlink ref="G17" r:id="rId94" display="https://www.youtube.com/@Sha5bata/videos" xr:uid="{C17148A2-EB32-45B5-B06B-B0A8F4239BBB}"/>
-    <hyperlink ref="A23" r:id="rId95" display="https://www.islamweb.net/ar" xr:uid="{C60F5FED-8955-4431-8E67-C83830E8F334}"/>
-    <hyperlink ref="B23" r:id="rId96" display="https://islamqa.info/ar" xr:uid="{9CC82866-8189-48AB-8574-1F9947976B53}"/>
-    <hyperlink ref="I18" r:id="rId97" display="https://www.youtube.com/channel/UCAN2kEVfIk0EC4w4hqhiQUw/videos" xr:uid="{759DCF15-70B5-47D4-A149-173802F53626}"/>
-    <hyperlink ref="C23" r:id="rId98" display="https://www.dar-alifta.org/home/index" xr:uid="{4A1D6199-D631-42B7-8E46-30E52E59562D}"/>
-    <hyperlink ref="D23" r:id="rId99" display="https://www.azhar.eg/splash.html" xr:uid="{4B4499E2-FCF3-468A-B4DA-DD97695AC61F}"/>
-    <hyperlink ref="E23" r:id="rId100" display="http://holyquran.net/search/sindex.php" xr:uid="{2EEA01FF-4BA5-4204-AE4B-FC03CBCAB485}"/>
-    <hyperlink ref="F23" r:id="rId101" display="https://en.muqri.com/" xr:uid="{B8BCFBCE-509D-41F4-B10E-717BEE2F3198}"/>
-    <hyperlink ref="G23" r:id="rId102" display="https://www.maajim.com/" xr:uid="{8FB0EB5D-92F0-4964-8980-35895D600134}"/>
-    <hyperlink ref="H23" r:id="rId103" display="https://www.dohadictionary.org/" xr:uid="{7C2FAFB0-0969-4244-9948-F1299C52E4E3}"/>
-    <hyperlink ref="A24" r:id="rId104" display="https://www.youtube.com/c/Uslameyat1/videos" xr:uid="{D68F1E5D-7FC2-4245-A668-B22AB0BA4D1D}"/>
-    <hyperlink ref="B24" r:id="rId105" display="https://www.youtube.com/@DRMohamedHedayah/videos" xr:uid="{BC00AC04-4BFC-446F-88A6-AAE4039BCE1A}"/>
-    <hyperlink ref="C24" r:id="rId106" display="https://www.facebook.com/Islam.anti.atheism" xr:uid="{7CA107BB-12D0-40F1-B227-EECA5EDA3C9D}"/>
-    <hyperlink ref="D24" r:id="rId107" display="https://islamhouse.com/ar/favorites/ar/1" xr:uid="{139EC5EC-86E4-4ED8-A5DE-77D728A63F67}"/>
-    <hyperlink ref="E24" r:id="rId108" display="https://www.facebook.com/AcademyZAD" xr:uid="{18076CB2-D37A-4E6C-B0FF-63A45481BA72}"/>
-    <hyperlink ref="F24" r:id="rId109" display="https://www.youtube.com/@mekameleen/playlists" xr:uid="{51261E04-35A9-4E94-90C4-1855B85E3A3E}"/>
-    <hyperlink ref="I23" r:id="rId110" display="https://dorar.net/" xr:uid="{5C263283-4D18-46F9-BA83-A31D6A5E56D1}"/>
-    <hyperlink ref="C19" r:id="rId111" display="https://www.youtube.com/@AhmedZayedChannel/videos" xr:uid="{42F1FFDD-6608-4B3B-A815-018A4494CAC7}"/>
-    <hyperlink ref="D19" r:id="rId112" display="https://www.facebook.com/MINDREL" xr:uid="{AB42180A-5C61-4501-B694-F11C557EE2C3}"/>
-    <hyperlink ref="C17" r:id="rId113" display="https://www.youtube.com/@Archive_Makany_World/videos" xr:uid="{EF71FB90-0CA3-4064-919B-CC073FE46870}"/>
+    <hyperlink ref="A14" r:id="rId58" display="https://www.youtube.com/c/eyadqunaibi/videos" xr:uid="{43B8E2DC-F96C-4340-8F6C-746048EB98D5}"/>
+    <hyperlink ref="A18" r:id="rId59" display="https://www.youtube.com/channel/UCLj8UFOcdFrvlh24Lw7jrgA/videos" xr:uid="{4724DCEE-47D5-4835-98FB-C1E7FC67F74B}"/>
+    <hyperlink ref="B18" r:id="rId60" display="https://www.youtube.com/channel/UCnc4DP-ohpBFg51ogObyMeQ/videos" xr:uid="{1B054AE7-7906-434B-B29D-A8B2DE30A3E9}"/>
+    <hyperlink ref="F14" r:id="rId61" display="https://www.youtube.com/c/Belaqltube/videos" xr:uid="{C07F1275-C635-416E-AB7E-4E1EB1F702E5}"/>
+    <hyperlink ref="D14" r:id="rId62" display="https://www.youtube.com/channel/UCWt3O9HfHs8-LqBFnRj1wZw/videos" xr:uid="{C4545AEB-FFD3-4827-A511-EB25ECC59D0F}"/>
+    <hyperlink ref="D18" r:id="rId63" display="https://www.youtube.com/user/Albyyinah/videos" xr:uid="{BB97F436-79C2-4B1D-96AB-FA91EAB37F50}"/>
+    <hyperlink ref="E18" r:id="rId64" display="https://www.youtube.com/channel/UCMr8VnDU1gojDgzlgkDisxA/videos" xr:uid="{7765CC63-34B1-4A80-97AD-5E82997C8FA1}"/>
+    <hyperlink ref="H14" r:id="rId65" display="https://www.youtube.com/channel/UCASAOTD6fMPEg8jmO4nPblQ/videos" xr:uid="{B50BFE26-BAA2-46C4-BB2F-D1894EB7B1BA}"/>
+    <hyperlink ref="B14" r:id="rId66" display="https://www.youtube.com/c/MakanyWorld/videos" xr:uid="{A826D7B2-004B-4B5D-BCDC-ECABF41494AB}"/>
+    <hyperlink ref="H15" r:id="rId67" display="https://www.youtube.com/channel/UC-GsjCkUB5ndNryHMDdYfTA/videos" xr:uid="{031EB79A-6FDA-49BB-A13A-AB0CC7801A4E}"/>
+    <hyperlink ref="C16" r:id="rId68" display="https://www.youtube.com/c/BridgesfoundationOrgun/videos" xr:uid="{BD93C02D-6219-45AE-A7E8-E54AD79E6B2F}"/>
+    <hyperlink ref="C18" r:id="rId69" display="https://www.youtube.com/c/Shuounislamiya/videos" xr:uid="{EBE73D93-A083-48DF-A076-C41368BFD3C2}"/>
+    <hyperlink ref="I14" r:id="rId70" display="https://www.facebook.com/3laaHamed" xr:uid="{81B23A21-B187-41D0-A0AE-A59E52F15006}"/>
+    <hyperlink ref="E14" r:id="rId71" display="https://www.youtube.com/user/alsayedtvch1/videos" xr:uid="{2A6AADBD-9487-4FBA-87BD-09D7BAA42AC8}"/>
+    <hyperlink ref="B15" r:id="rId72" display="https://www.youtube.com/channel/UCScQCjryYxfCeLFdmmMm1EA" xr:uid="{40863D37-1106-4AFA-BADE-261CEED63668}"/>
+    <hyperlink ref="A15" r:id="rId73" display="https://www.youtube.com/user/YasserHozaimy/videos" xr:uid="{0499C3A8-A23B-4BE8-9712-482E670336ED}"/>
+    <hyperlink ref="C15" r:id="rId74" display="https://www.youtube.com/c/AbdulRazapAlbadr2345/videos" xr:uid="{CE8ED2CC-4E69-40A1-965E-9F5541346BA3}"/>
+    <hyperlink ref="G15" r:id="rId75" display="https://www.youtube.com/@Alkulify1/videos" xr:uid="{793D43BE-7408-439E-995B-2F4BE34C6CD1}"/>
+    <hyperlink ref="D15" r:id="rId76" display="https://www.youtube.com/user/FiqhShaf3i/videos" xr:uid="{252E0DCC-C302-4866-9B8A-F0A58CC25BBD}"/>
+    <hyperlink ref="E15" r:id="rId77" display="https://www.youtube.com/@DrAlSuwaidan/videos" xr:uid="{29BAC375-1C3A-43C4-BEA8-15E99109F1EB}"/>
+    <hyperlink ref="F15" r:id="rId78" display="https://www.youtube.com/@samirmoustafa/videos" xr:uid="{6822F3B1-BEC2-490B-B408-2DA83A89C2F8}"/>
+    <hyperlink ref="B16" r:id="rId79" display="https://www.youtube.com/@osamaoa24/videos" xr:uid="{5AE429ED-AD32-43CB-9F85-15DF00582C06}"/>
+    <hyperlink ref="A16" r:id="rId80" display="https://www.youtube.com/@SamehElgendawey/videos" xr:uid="{E8F9123C-B974-49BF-8EF1-3301D25DCAE2}"/>
+    <hyperlink ref="G14" r:id="rId81" display="https://www.youtube.com/@Sha5bata/videos" xr:uid="{C17148A2-EB32-45B5-B06B-B0A8F4239BBB}"/>
+    <hyperlink ref="A19" r:id="rId82" display="https://www.islamweb.net/ar" xr:uid="{C60F5FED-8955-4431-8E67-C83830E8F334}"/>
+    <hyperlink ref="F18" r:id="rId83" display="https://islamqa.info/ar" xr:uid="{9CC82866-8189-48AB-8574-1F9947976B53}"/>
+    <hyperlink ref="I15" r:id="rId84" display="https://www.youtube.com/channel/UCAN2kEVfIk0EC4w4hqhiQUw/videos" xr:uid="{759DCF15-70B5-47D4-A149-173802F53626}"/>
+    <hyperlink ref="I18" r:id="rId85" display="https://www.youtube.com/c/Uslameyat1/videos" xr:uid="{D68F1E5D-7FC2-4245-A668-B22AB0BA4D1D}"/>
+    <hyperlink ref="G16" r:id="rId86" display="https://www.youtube.com/@DRMohamedHedayah/videos" xr:uid="{BC00AC04-4BFC-446F-88A6-AAE4039BCE1A}"/>
+    <hyperlink ref="G18" r:id="rId87" display="https://www.facebook.com/Islam.anti.atheism" xr:uid="{7CA107BB-12D0-40F1-B227-EECA5EDA3C9D}"/>
+    <hyperlink ref="H18" r:id="rId88" display="https://islamhouse.com/ar/favorites/ar/1" xr:uid="{139EC5EC-86E4-4ED8-A5DE-77D728A63F67}"/>
+    <hyperlink ref="E16" r:id="rId89" display="https://www.facebook.com/AcademyZAD" xr:uid="{18076CB2-D37A-4E6C-B0FF-63A45481BA72}"/>
+    <hyperlink ref="D16" r:id="rId90" display="https://www.youtube.com/@mekameleen/playlists" xr:uid="{51261E04-35A9-4E94-90C4-1855B85E3A3E}"/>
+    <hyperlink ref="F16" r:id="rId91" display="https://dorar.net/" xr:uid="{5C263283-4D18-46F9-BA83-A31D6A5E56D1}"/>
+    <hyperlink ref="H16" r:id="rId92" display="https://www.youtube.com/@AhmedZayedChannel/videos" xr:uid="{42F1FFDD-6608-4B3B-A815-018A4494CAC7}"/>
+    <hyperlink ref="I16" r:id="rId93" display="https://www.facebook.com/MINDREL" xr:uid="{AB42180A-5C61-4501-B694-F11C557EE2C3}"/>
+    <hyperlink ref="C14" r:id="rId94" display="https://www.youtube.com/@Archive_Makany_World/videos" xr:uid="{EF71FB90-0CA3-4064-919B-CC073FE46870}"/>
     <hyperlink ref="I2" location="Law!A1" display="[Law]" xr:uid="{0C0AE0C9-22E6-439D-8683-807AF6C40C13}"/>
-    <hyperlink ref="G5" r:id="rId114" xr:uid="{1DC125BE-9FE3-4212-A782-455F54E255BB}"/>
+    <hyperlink ref="C3" r:id="rId95" xr:uid="{1DC125BE-9FE3-4212-A782-455F54E255BB}"/>
+    <hyperlink ref="H8" r:id="rId96" xr:uid="{48D753AC-2BA0-4863-B820-055DD46FB9E8}"/>
+    <hyperlink ref="E8" r:id="rId97" display="https://www.facebook.com/hesham.haroon.94" xr:uid="{7304525C-EC99-4908-993A-E80FA47338B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId115"/>
+  <pageSetup orientation="portrait" r:id="rId98"/>
 </worksheet>
 </file>
 
@@ -5486,19 +5173,19 @@
   <sheetData>
     <row r="1" spans="2:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="78" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="D1" s="78" t="s">
-        <v>409</v>
-      </c>
-      <c r="F1" s="203" t="s">
-        <v>80</v>
+        <v>391</v>
+      </c>
+      <c r="F1" s="195" t="s">
+        <v>73</v>
       </c>
       <c r="I1" s="27"/>
       <c r="L1" s="27"/>
     </row>
     <row r="2" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="204"/>
+      <c r="F2" s="196"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
@@ -5510,10 +5197,10 @@
     </row>
     <row r="3" spans="2:14" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="73" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="I3" s="27"/>
       <c r="L3" s="27"/>
@@ -5521,37 +5208,37 @@
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:14" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="73" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="H5" s="76" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:14" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="75" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D7" s="74" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="73" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="D9" s="74" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="73" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="E11" s="27"/>
     </row>
@@ -5561,7 +5248,7 @@
     </row>
     <row r="13" spans="2:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="73" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5600,101 +5287,101 @@
   <sheetData>
     <row r="1" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="82" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="C1" s="82" t="s">
-        <v>437</v>
-      </c>
-      <c r="D1" s="205" t="s">
-        <v>436</v>
-      </c>
-      <c r="E1" s="205"/>
-      <c r="G1" s="203" t="s">
-        <v>80</v>
+        <v>419</v>
+      </c>
+      <c r="D1" s="197" t="s">
+        <v>418</v>
+      </c>
+      <c r="E1" s="197"/>
+      <c r="G1" s="195" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="80" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="E2" s="80" t="s">
-        <v>431</v>
-      </c>
-      <c r="G2" s="204"/>
+        <v>413</v>
+      </c>
+      <c r="G2" s="196"/>
     </row>
     <row r="3" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="80" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="C3" s="80" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="E3" s="80" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="80" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="80" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="80" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="B6" s="80"/>
       <c r="C6" s="81" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="E6" s="80"/>
     </row>
@@ -5703,7 +5390,7 @@
       <c r="B7" s="80"/>
       <c r="C7" s="80"/>
       <c r="D7" s="80" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="E7" s="80"/>
     </row>
@@ -5712,7 +5399,7 @@
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
       <c r="D8" s="80" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="E8" s="80"/>
     </row>
@@ -5747,23 +5434,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="206" t="s">
-        <v>449</v>
-      </c>
-      <c r="B1" s="207"/>
+      <c r="A1" s="199" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" s="200"/>
       <c r="D1" s="92" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="F1" s="92" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="G1" s="92" t="s">
-        <v>446</v>
-      </c>
-      <c r="J1" s="208" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="209"/>
+        <v>428</v>
+      </c>
+      <c r="J1" s="201" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="202"/>
     </row>
     <row r="2" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="91">
@@ -5773,7 +5460,7 @@
         <v>45115</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F2" s="89">
         <v>55.4</v>
@@ -5781,8 +5468,8 @@
       <c r="G2" s="89">
         <v>74.8</v>
       </c>
-      <c r="J2" s="210"/>
-      <c r="K2" s="211"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="204"/>
     </row>
     <row r="3" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="86">
@@ -5801,10 +5488,10 @@
         <v>45146</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -5815,15 +5502,15 @@
         <v>45192</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="G5" s="43">
         <v>29</v>
       </c>
-      <c r="J5" s="216" t="s">
-        <v>441</v>
-      </c>
-      <c r="K5" s="216"/>
+      <c r="J5" s="209" t="s">
+        <v>423</v>
+      </c>
+      <c r="K5" s="209"/>
     </row>
     <row r="6" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="86">
@@ -5835,10 +5522,10 @@
       <c r="D6" s="72"/>
       <c r="F6" s="27"/>
       <c r="G6" s="72"/>
-      <c r="J6" s="217">
+      <c r="J6" s="198">
         <v>45234</v>
       </c>
-      <c r="K6" s="217"/>
+      <c r="K6" s="198"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="86">
@@ -5848,15 +5535,15 @@
         <v>45211</v>
       </c>
       <c r="D7" s="72"/>
-      <c r="F7" s="212" t="s">
-        <v>440</v>
-      </c>
-      <c r="G7" s="213"/>
+      <c r="F7" s="205" t="s">
+        <v>422</v>
+      </c>
+      <c r="G7" s="206"/>
       <c r="H7" s="72"/>
-      <c r="J7" s="218">
+      <c r="J7" s="210">
         <v>45264</v>
       </c>
-      <c r="K7" s="218"/>
+      <c r="K7" s="210"/>
     </row>
     <row r="8" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="86">
@@ -5866,13 +5553,13 @@
         <v>45232</v>
       </c>
       <c r="D8" s="72"/>
-      <c r="F8" s="214" t="s">
-        <v>439</v>
-      </c>
-      <c r="G8" s="215"/>
+      <c r="F8" s="207" t="s">
+        <v>421</v>
+      </c>
+      <c r="G8" s="208"/>
       <c r="H8" s="72"/>
-      <c r="J8" s="217"/>
-      <c r="K8" s="217"/>
+      <c r="J8" s="198"/>
+      <c r="K8" s="198"/>
     </row>
     <row r="9" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="86">
@@ -5882,86 +5569,86 @@
         <v>45234</v>
       </c>
       <c r="D9" s="72"/>
-      <c r="J9" s="217"/>
-      <c r="K9" s="217"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="198"/>
     </row>
     <row r="10" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="86"/>
       <c r="B10" s="85"/>
       <c r="D10" s="72"/>
-      <c r="J10" s="217"/>
-      <c r="K10" s="217"/>
+      <c r="J10" s="198"/>
+      <c r="K10" s="198"/>
     </row>
     <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="D11" s="72"/>
-      <c r="J11" s="217"/>
-      <c r="K11" s="217"/>
+      <c r="J11" s="198"/>
+      <c r="K11" s="198"/>
     </row>
     <row r="12" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="D12" s="72"/>
-      <c r="J12" s="217"/>
-      <c r="K12" s="217"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="198"/>
     </row>
     <row r="13" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="D13" s="72"/>
-      <c r="J13" s="217"/>
-      <c r="K13" s="217"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="198"/>
     </row>
     <row r="14" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="D14" s="72"/>
-      <c r="J14" s="217"/>
-      <c r="K14" s="217"/>
+      <c r="J14" s="198"/>
+      <c r="K14" s="198"/>
     </row>
     <row r="15" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="D15" s="72"/>
-      <c r="J15" s="217"/>
-      <c r="K15" s="217"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="198"/>
     </row>
     <row r="16" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
-      <c r="J16" s="217"/>
-      <c r="K16" s="217"/>
+      <c r="J16" s="198"/>
+      <c r="K16" s="198"/>
     </row>
     <row r="17" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
-      <c r="J17" s="217"/>
-      <c r="K17" s="217"/>
+      <c r="J17" s="198"/>
+      <c r="K17" s="198"/>
     </row>
     <row r="18" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
-      <c r="J18" s="217"/>
-      <c r="K18" s="217"/>
+      <c r="J18" s="198"/>
+      <c r="K18" s="198"/>
     </row>
     <row r="19" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="86"/>
       <c r="B19" s="85"/>
-      <c r="J19" s="217"/>
-      <c r="K19" s="217"/>
+      <c r="J19" s="198"/>
+      <c r="K19" s="198"/>
     </row>
     <row r="20" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="86"/>
       <c r="B20" s="85"/>
-      <c r="J20" s="217"/>
-      <c r="K20" s="217"/>
+      <c r="J20" s="198"/>
+      <c r="K20" s="198"/>
     </row>
     <row r="21" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="86"/>
       <c r="B21" s="85"/>
-      <c r="J21" s="217"/>
-      <c r="K21" s="217"/>
+      <c r="J21" s="198"/>
+      <c r="K21" s="198"/>
     </row>
     <row r="22" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="84"/>
@@ -5969,6 +5656,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="J14:K14"/>
@@ -5977,19 +5677,6 @@
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J1" location="Food!A1" display="Back" xr:uid="{C1D1D7E3-01F8-4CEB-B64B-273BBE247837}"/>
@@ -6024,299 +5711,299 @@
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="142" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="B1" s="141" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="C1" s="140" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="E1" s="139" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="F1" s="138" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="G1" s="137" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="H1" s="137" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="I1" s="136" t="s">
-        <v>493</v>
-      </c>
-      <c r="K1" s="203" t="s">
-        <v>80</v>
+        <v>475</v>
+      </c>
+      <c r="K1" s="195" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="222" t="s">
-        <v>492</v>
+      <c r="A2" s="214" t="s">
+        <v>474</v>
       </c>
       <c r="B2" s="135" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="C2" s="102" t="s">
-        <v>490</v>
-      </c>
-      <c r="E2" s="236" t="s">
-        <v>489</v>
+        <v>472</v>
+      </c>
+      <c r="E2" s="228" t="s">
+        <v>471</v>
       </c>
       <c r="F2" s="134" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="G2" s="133" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="H2" s="133" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="I2" s="132"/>
-      <c r="K2" s="204"/>
+      <c r="K2" s="196"/>
     </row>
     <row r="3" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="222"/>
+      <c r="A3" s="214"/>
       <c r="B3" s="122"/>
       <c r="C3" s="102" t="s">
-        <v>485</v>
-      </c>
-      <c r="E3" s="237"/>
+        <v>467</v>
+      </c>
+      <c r="E3" s="229"/>
       <c r="F3" s="131" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="G3" s="130" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="H3" s="130"/>
       <c r="I3" s="129"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="222"/>
+      <c r="A4" s="214"/>
       <c r="B4" s="122"/>
       <c r="C4" s="102"/>
-      <c r="E4" s="238"/>
+      <c r="E4" s="230"/>
       <c r="F4" s="128" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="G4" s="127">
         <v>44</v>
       </c>
       <c r="H4" s="127" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="I4" s="126" t="s">
-        <v>450</v>
-      </c>
-      <c r="K4" s="224" t="s">
-        <v>480</v>
+        <v>432</v>
+      </c>
+      <c r="K4" s="216" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="222"/>
+      <c r="A5" s="214"/>
       <c r="B5" s="122"/>
       <c r="C5" s="102"/>
-      <c r="E5" s="227" t="s">
-        <v>479</v>
+      <c r="E5" s="219" t="s">
+        <v>461</v>
       </c>
       <c r="F5" s="125" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="G5" s="124" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="H5" s="124"/>
       <c r="I5" s="123" t="s">
-        <v>477</v>
-      </c>
-      <c r="K5" s="225"/>
+        <v>459</v>
+      </c>
+      <c r="K5" s="217"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="222"/>
+      <c r="A6" s="214"/>
       <c r="B6" s="122"/>
       <c r="C6" s="102"/>
-      <c r="E6" s="228"/>
+      <c r="E6" s="220"/>
       <c r="F6" s="121" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="G6" s="120"/>
       <c r="H6" s="120"/>
       <c r="I6" s="119"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="222" t="s">
-        <v>475</v>
+      <c r="A7" s="214" t="s">
+        <v>457</v>
       </c>
       <c r="B7" s="103" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C7" s="102" t="s">
-        <v>473</v>
-      </c>
-      <c r="E7" s="229"/>
+        <v>455</v>
+      </c>
+      <c r="E7" s="221"/>
       <c r="F7" s="118" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="G7" s="117"/>
       <c r="H7" s="117"/>
       <c r="I7" s="116"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="222"/>
-      <c r="B8" s="233" t="s">
-        <v>471</v>
+      <c r="A8" s="214"/>
+      <c r="B8" s="225" t="s">
+        <v>453</v>
       </c>
       <c r="C8" s="102" t="s">
-        <v>470</v>
-      </c>
-      <c r="E8" s="230" t="s">
-        <v>469</v>
+        <v>452</v>
+      </c>
+      <c r="E8" s="222" t="s">
+        <v>451</v>
       </c>
       <c r="F8" s="115" t="s">
-        <v>468</v>
-      </c>
-      <c r="G8" s="234">
+        <v>450</v>
+      </c>
+      <c r="G8" s="226">
         <v>1.8229166666666667</v>
       </c>
       <c r="H8" s="114"/>
       <c r="I8" s="113"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="222"/>
-      <c r="B9" s="233"/>
+      <c r="A9" s="214"/>
+      <c r="B9" s="225"/>
       <c r="C9" s="102" t="s">
-        <v>467</v>
-      </c>
-      <c r="E9" s="231"/>
+        <v>449</v>
+      </c>
+      <c r="E9" s="223"/>
       <c r="F9" s="112" t="s">
-        <v>466</v>
-      </c>
-      <c r="G9" s="235"/>
+        <v>448</v>
+      </c>
+      <c r="G9" s="227"/>
       <c r="H9" s="111"/>
       <c r="I9" s="110"/>
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="222"/>
+      <c r="A10" s="214"/>
       <c r="B10" s="88" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="C10" s="102"/>
     </row>
     <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="222" t="s">
-        <v>464</v>
+      <c r="A11" s="214" t="s">
+        <v>446</v>
       </c>
       <c r="B11" s="109" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="C11" s="102"/>
-      <c r="E11" s="232" t="s">
-        <v>462</v>
+      <c r="E11" s="224" t="s">
+        <v>444</v>
       </c>
       <c r="F11" s="108" t="s">
-        <v>461</v>
-      </c>
-      <c r="I11" s="223" t="s">
-        <v>460</v>
+        <v>443</v>
+      </c>
+      <c r="I11" s="215" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="222"/>
+      <c r="A12" s="214"/>
       <c r="B12" s="88"/>
       <c r="C12" s="102"/>
-      <c r="E12" s="222"/>
+      <c r="E12" s="214"/>
       <c r="F12" s="107" t="s">
-        <v>459</v>
-      </c>
-      <c r="I12" s="223"/>
+        <v>441</v>
+      </c>
+      <c r="I12" s="215"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="222"/>
+      <c r="A13" s="214"/>
       <c r="B13" s="88"/>
       <c r="C13" s="102"/>
-      <c r="E13" s="222"/>
+      <c r="E13" s="214"/>
       <c r="F13" s="106"/>
-      <c r="I13" s="223"/>
+      <c r="I13" s="215"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="222"/>
+      <c r="A14" s="214"/>
       <c r="B14" s="88"/>
       <c r="C14" s="102"/>
-      <c r="E14" s="222"/>
+      <c r="E14" s="214"/>
       <c r="F14" s="106"/>
       <c r="I14" s="104" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="222"/>
+      <c r="A15" s="214"/>
       <c r="B15" s="88"/>
       <c r="C15" s="102"/>
-      <c r="E15" s="226"/>
+      <c r="E15" s="218"/>
       <c r="F15" s="105"/>
       <c r="I15" s="104" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="222"/>
+      <c r="A16" s="214"/>
       <c r="B16" s="88"/>
       <c r="C16" s="102"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="222" t="s">
-        <v>456</v>
+      <c r="A17" s="214" t="s">
+        <v>438</v>
       </c>
       <c r="B17" s="103" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="C17" s="102"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="222"/>
+      <c r="A18" s="214"/>
       <c r="B18" s="88"/>
       <c r="C18" s="102"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="222"/>
+      <c r="A19" s="214"/>
       <c r="B19" s="88"/>
       <c r="C19" s="102"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="226"/>
+      <c r="A20" s="218"/>
       <c r="B20" s="101"/>
       <c r="C20" s="100"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="219" t="s">
-        <v>454</v>
-      </c>
-      <c r="B22" s="220"/>
-      <c r="C22" s="221"/>
+      <c r="A22" s="211" t="s">
+        <v>436</v>
+      </c>
+      <c r="B22" s="212"/>
+      <c r="C22" s="213"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="99" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="B23" s="98" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="96" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="B24" s="95" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="C24" s="94" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -6363,12 +6050,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V1" s="203" t="s">
-        <v>80</v>
+      <c r="V1" s="195" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="22:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V2" s="204"/>
+      <c r="V2" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6400,57 +6087,57 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="147" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="B1" s="147" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="C1" s="147" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="D1" s="147" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="E1" s="147" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="F1" s="147" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="203" t="s">
-        <v>80</v>
+        <v>499</v>
+      </c>
+      <c r="H1" s="195" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="145" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="B2" s="88" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="C2" s="88" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="D2" s="88" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="E2" s="88">
         <v>2</v>
       </c>
       <c r="F2" s="88" t="s">
-        <v>506</v>
-      </c>
-      <c r="H2" s="204"/>
+        <v>488</v>
+      </c>
+      <c r="H2" s="196"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="145" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="B3" s="88" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="D3" s="88">
         <v>15</v>
@@ -6459,18 +6146,18 @@
         <v>3</v>
       </c>
       <c r="F3" s="146" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="145" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="B4" s="88" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="D4" s="88">
         <v>15</v>
@@ -6479,38 +6166,38 @@
         <v>3</v>
       </c>
       <c r="F4" s="146" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="145" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="B5" s="88" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="D5" s="88" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="F5" s="88" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="145" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B6" s="88" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="D6" s="88">
         <v>15</v>
@@ -6519,18 +6206,18 @@
         <v>3</v>
       </c>
       <c r="F6" s="88" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="145" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="B7" s="88" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="D7" s="88">
         <v>15</v>
@@ -6539,18 +6226,18 @@
         <v>3</v>
       </c>
       <c r="F7" s="88" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="145" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="B8" s="88" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="D8" s="88">
         <v>50</v>
@@ -6559,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="88" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -6644,27 +6331,27 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="144" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="144" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="144" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="144" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="143" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -6705,81 +6392,81 @@
   <sheetData>
     <row r="1" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="151" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="B1" s="149" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="C1" s="151" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="D1" s="150"/>
     </row>
     <row r="2" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="151" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="B2" s="151" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="C2" s="151" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="D2" s="150"/>
     </row>
     <row r="3" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="151" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="B3" s="151" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="C3" s="151" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="D3" s="153" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="151" t="s">
-        <v>646</v>
+        <v>595</v>
       </c>
       <c r="B4" s="150"/>
       <c r="C4" s="150"/>
       <c r="D4" s="153" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="150"/>
       <c r="B5" s="149" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="C5" s="151" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="D5" s="152" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="151" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="B6" s="151" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="C6" s="151" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="D6" s="152" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="151" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="B7" s="150"/>
       <c r="C7" s="150"/>
@@ -6788,38 +6475,38 @@
     <row r="8" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="150"/>
       <c r="B8" s="149" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="C8" s="149" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="D8" s="149" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="149" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="B9" s="149" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="C9" s="149" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="D9" s="149" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="149" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="B10" s="149" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="C10" s="149" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="D10" s="148"/>
     </row>
@@ -6894,24 +6581,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="156" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="B1" s="156" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="C1" s="156" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="D1" s="156" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="E1" s="156" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="155" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="B2" s="155"/>
       <c r="C2" s="155"/>
@@ -6920,7 +6607,7 @@
     </row>
     <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="155" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="B3" s="155"/>
       <c r="C3" s="155"/>
@@ -6929,7 +6616,7 @@
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="155" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="B4" s="155"/>
       <c r="C4" s="155"/>
@@ -6938,7 +6625,7 @@
     </row>
     <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="155" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="B5" s="155"/>
       <c r="C5" s="155"/>
@@ -6947,7 +6634,7 @@
     </row>
     <row r="6" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="155" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="B6" s="155"/>
       <c r="C6" s="155"/>
@@ -6956,7 +6643,7 @@
     </row>
     <row r="7" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="155" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="B7" s="155"/>
       <c r="C7" s="155"/>
@@ -6965,7 +6652,7 @@
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="155" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="B8" s="155"/>
       <c r="C8" s="155"/>
@@ -7016,28 +6703,28 @@
   <sheetData>
     <row r="1" spans="1:7" s="163" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="164" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="B1" s="164" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="C1" s="164" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="D1" s="164" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="E1" s="164" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="F1" s="160"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="160" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="B2" s="162" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="C2" s="162">
         <v>1227504373</v>
@@ -7053,10 +6740,10 @@
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="160" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="B3" s="162" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="C3" s="162">
         <v>1028358685</v>
@@ -7070,10 +6757,10 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="161" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="B4" s="160" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="C4" s="160">
         <v>1125519116</v>
@@ -7425,75 +7112,75 @@
   <sheetData>
     <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="169" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="B1" s="169" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="168" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="B2" s="167"/>
     </row>
     <row r="3" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="168" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="B3" s="167"/>
     </row>
     <row r="4" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="168" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="B4" s="167"/>
     </row>
     <row r="5" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="168" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="B5" s="167"/>
     </row>
     <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="168" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="B6" s="167"/>
     </row>
     <row r="7" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="168" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="B7" s="167"/>
     </row>
     <row r="8" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="168" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="B8" s="167"/>
     </row>
     <row r="9" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="168" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="B9" s="167"/>
     </row>
     <row r="10" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="168" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="B10" s="167"/>
     </row>
     <row r="11" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="168" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="B11" s="167"/>
     </row>
     <row r="12" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="168" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="B12" s="167"/>
     </row>
@@ -7519,10 +7206,10 @@
     </row>
     <row r="18" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="166" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="B18" s="165" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -7540,149 +7227,149 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="20" style="180"/>
+    <col min="1" max="16384" width="20" style="174"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="178" t="s">
-        <v>652</v>
-      </c>
-      <c r="B1" s="178" t="s">
-        <v>653</v>
-      </c>
-      <c r="C1" s="178" t="s">
-        <v>654</v>
-      </c>
-      <c r="D1" s="178" t="s">
-        <v>655</v>
-      </c>
-      <c r="E1" s="178" t="s">
-        <v>656</v>
-      </c>
-      <c r="F1" s="178" t="s">
-        <v>657</v>
-      </c>
-      <c r="G1" s="178" t="s">
-        <v>658</v>
-      </c>
-      <c r="H1" s="178" t="s">
-        <v>659</v>
-      </c>
-      <c r="I1" s="178"/>
-      <c r="J1" s="181" t="s">
-        <v>80</v>
+      <c r="A1" s="173" t="s">
+        <v>601</v>
+      </c>
+      <c r="B1" s="173" t="s">
+        <v>602</v>
+      </c>
+      <c r="C1" s="173" t="s">
+        <v>603</v>
+      </c>
+      <c r="D1" s="173" t="s">
+        <v>604</v>
+      </c>
+      <c r="E1" s="173" t="s">
+        <v>605</v>
+      </c>
+      <c r="F1" s="173" t="s">
+        <v>606</v>
+      </c>
+      <c r="G1" s="173" t="s">
+        <v>607</v>
+      </c>
+      <c r="H1" s="173" t="s">
+        <v>608</v>
+      </c>
+      <c r="I1" s="173"/>
+      <c r="J1" s="175" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="178" t="s">
-        <v>660</v>
-      </c>
-      <c r="B2" s="178" t="s">
-        <v>661</v>
-      </c>
-      <c r="C2" s="178" t="s">
-        <v>662</v>
-      </c>
-      <c r="D2" s="178" t="s">
-        <v>663</v>
-      </c>
-      <c r="E2" s="178" t="s">
-        <v>664</v>
-      </c>
-      <c r="F2" s="178" t="s">
-        <v>665</v>
-      </c>
-      <c r="G2" s="178" t="s">
-        <v>666</v>
-      </c>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
+      <c r="A2" s="173" t="s">
+        <v>609</v>
+      </c>
+      <c r="B2" s="173" t="s">
+        <v>610</v>
+      </c>
+      <c r="C2" s="173" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2" s="173" t="s">
+        <v>612</v>
+      </c>
+      <c r="E2" s="173" t="s">
+        <v>613</v>
+      </c>
+      <c r="F2" s="173" t="s">
+        <v>614</v>
+      </c>
+      <c r="G2" s="173" t="s">
+        <v>615</v>
+      </c>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
     </row>
     <row r="3" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="178" t="s">
-        <v>667</v>
-      </c>
-      <c r="B3" s="178" t="s">
-        <v>668</v>
-      </c>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
+      <c r="A3" s="173" t="s">
+        <v>616</v>
+      </c>
+      <c r="B3" s="173" t="s">
+        <v>617</v>
+      </c>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
     </row>
     <row r="4" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="178"/>
-      <c r="B4" s="178"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="178"/>
+      <c r="A4" s="173"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
     </row>
     <row r="5" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="173"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="173"/>
     </row>
     <row r="6" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="173"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="173"/>
     </row>
     <row r="7" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="178"/>
-      <c r="B7" s="178"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="178"/>
+      <c r="A7" s="173"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
     </row>
     <row r="8" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="178"/>
-      <c r="B8" s="178"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
+      <c r="A8" s="173"/>
+      <c r="B8" s="173"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="173"/>
     </row>
     <row r="9" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="178"/>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
+      <c r="A9" s="173"/>
+      <c r="B9" s="173"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="173"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7710,749 +7397,54 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAE48D0-5089-402A-AB20-4DCC2517D951}">
-  <dimension ref="A1:J44"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="170" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="170"/>
-    <col min="3" max="3" width="10.140625" style="170" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="170" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="170" customWidth="1"/>
-    <col min="6" max="6" width="76.140625" style="170" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="170" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" style="170" customWidth="1"/>
-    <col min="9" max="9" width="23" style="170" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="170" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="170"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
-        <v>618</v>
-      </c>
-      <c r="B1" s="174" t="s">
-        <v>617</v>
-      </c>
-      <c r="C1" s="174" t="s">
-        <v>616</v>
-      </c>
-      <c r="D1" s="174" t="s">
-        <v>615</v>
-      </c>
-      <c r="E1" s="174" t="s">
-        <v>614</v>
-      </c>
-      <c r="F1" s="174" t="s">
-        <v>613</v>
-      </c>
-      <c r="G1" s="174" t="s">
-        <v>612</v>
-      </c>
-      <c r="H1" s="174" t="s">
-        <v>611</v>
-      </c>
-      <c r="I1" s="174" t="s">
-        <v>610</v>
-      </c>
-      <c r="J1" s="174" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="171">
-        <v>80</v>
-      </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171">
-        <v>70</v>
-      </c>
-      <c r="D2" s="171">
-        <v>5</v>
-      </c>
-      <c r="E2" s="171">
-        <v>2</v>
-      </c>
-      <c r="F2" s="171" t="s">
-        <v>608</v>
-      </c>
-      <c r="G2" s="171" t="s">
-        <v>607</v>
-      </c>
-      <c r="H2" s="171">
-        <v>1095305744</v>
-      </c>
-      <c r="I2" s="171" t="s">
-        <v>606</v>
-      </c>
-      <c r="J2" s="171" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="171">
-        <v>65</v>
-      </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171">
-        <v>70</v>
-      </c>
-      <c r="D3" s="171">
-        <v>2</v>
-      </c>
-      <c r="E3" s="171">
-        <v>2</v>
-      </c>
-      <c r="F3" s="173" t="s">
-        <v>604</v>
-      </c>
-      <c r="G3" s="171" t="s">
-        <v>603</v>
-      </c>
-      <c r="H3" s="171">
-        <v>1003511128</v>
-      </c>
-      <c r="I3" s="171" t="s">
-        <v>602</v>
-      </c>
-      <c r="J3" s="171" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="171">
-        <v>60</v>
-      </c>
-      <c r="B4" s="171">
-        <v>650</v>
-      </c>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171">
-        <v>2</v>
-      </c>
-      <c r="F4" s="171" t="s">
-        <v>600</v>
-      </c>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="171">
-        <v>65</v>
-      </c>
-      <c r="B5" s="171">
-        <v>700</v>
-      </c>
-      <c r="C5" s="171">
-        <v>110</v>
-      </c>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171">
-        <v>2</v>
-      </c>
-      <c r="F5" s="171" t="s">
-        <v>599</v>
-      </c>
-      <c r="G5" s="171" t="s">
-        <v>588</v>
-      </c>
-      <c r="H5" s="171">
-        <v>1098092622</v>
-      </c>
-      <c r="I5" s="171" t="s">
-        <v>598</v>
-      </c>
-      <c r="J5" s="171" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="171">
-        <v>90</v>
-      </c>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171">
-        <v>90</v>
-      </c>
-      <c r="D6" s="171">
-        <v>2</v>
-      </c>
-      <c r="E6" s="171">
-        <v>2</v>
-      </c>
-      <c r="F6" s="171" t="s">
-        <v>596</v>
-      </c>
-      <c r="G6" s="171" t="s">
-        <v>588</v>
-      </c>
-      <c r="H6" s="171">
-        <v>1002714644</v>
-      </c>
-      <c r="I6" s="171" t="s">
-        <v>595</v>
-      </c>
-      <c r="J6" s="171" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="171">
-        <v>55</v>
-      </c>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171">
-        <v>75</v>
-      </c>
-      <c r="D7" s="171">
-        <v>5</v>
-      </c>
-      <c r="E7" s="171">
-        <v>3</v>
-      </c>
-      <c r="F7" s="172" t="s">
-        <v>593</v>
-      </c>
-      <c r="G7" s="171" t="s">
-        <v>588</v>
-      </c>
-      <c r="H7" s="171" t="s">
-        <v>592</v>
-      </c>
-      <c r="I7" s="171" t="s">
-        <v>591</v>
-      </c>
-      <c r="J7" s="171" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="171">
-        <v>80</v>
-      </c>
-      <c r="B8" s="171">
-        <v>800</v>
-      </c>
-      <c r="C8" s="171">
-        <v>70</v>
-      </c>
-      <c r="D8" s="171">
-        <v>4</v>
-      </c>
-      <c r="E8" s="171">
-        <v>3</v>
-      </c>
-      <c r="F8" s="172" t="s">
-        <v>589</v>
-      </c>
-      <c r="G8" s="171" t="s">
-        <v>588</v>
-      </c>
-      <c r="H8" s="171">
-        <v>1555012961</v>
-      </c>
-      <c r="I8" s="171" t="s">
-        <v>587</v>
-      </c>
-      <c r="J8" s="171" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="171"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="171"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="171"/>
-      <c r="B10" s="171"/>
-      <c r="C10" s="171"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="171"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="171"/>
-      <c r="B11" s="171"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="171"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="171"/>
-      <c r="B12" s="171"/>
-      <c r="C12" s="171"/>
-      <c r="D12" s="171"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="171"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="171"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="171"/>
-      <c r="B13" s="171"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="171"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="171"/>
-      <c r="B14" s="171"/>
-      <c r="C14" s="171"/>
-      <c r="D14" s="171"/>
-      <c r="E14" s="171"/>
-      <c r="F14" s="171"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="171"/>
-      <c r="I14" s="171"/>
-      <c r="J14" s="171"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="171"/>
-      <c r="B15" s="171"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="171"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="171"/>
-      <c r="B16" s="171"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="171"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="171"/>
-      <c r="B17" s="171"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="171"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="171"/>
-      <c r="B18" s="171"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="171"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="171"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="171"/>
-      <c r="B19" s="171"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="171"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="171"/>
-      <c r="B20" s="171"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="171"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="171"/>
-      <c r="B21" s="171"/>
-      <c r="C21" s="171"/>
-      <c r="D21" s="171"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="171"/>
-      <c r="B22" s="171"/>
-      <c r="C22" s="171"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="171"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="171"/>
-      <c r="B23" s="171"/>
-      <c r="C23" s="171"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="171"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="171"/>
-      <c r="B24" s="171"/>
-      <c r="C24" s="171"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="171"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="171"/>
-      <c r="B25" s="171"/>
-      <c r="C25" s="171"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="171"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="171"/>
-      <c r="B26" s="171"/>
-      <c r="C26" s="171"/>
-      <c r="D26" s="171"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="171"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="171"/>
-      <c r="B27" s="171"/>
-      <c r="C27" s="171"/>
-      <c r="D27" s="171"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="171"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="171"/>
-      <c r="B28" s="171"/>
-      <c r="C28" s="171"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="171"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="171"/>
-      <c r="B29" s="171"/>
-      <c r="C29" s="171"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="171"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="171"/>
-      <c r="B30" s="171"/>
-      <c r="C30" s="171"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="171"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="171"/>
-      <c r="B31" s="171"/>
-      <c r="C31" s="171"/>
-      <c r="D31" s="171"/>
-      <c r="E31" s="171"/>
-      <c r="F31" s="171"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="171"/>
-      <c r="J31" s="171"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="171"/>
-      <c r="B32" s="171"/>
-      <c r="C32" s="171"/>
-      <c r="D32" s="171"/>
-      <c r="E32" s="171"/>
-      <c r="F32" s="171"/>
-      <c r="G32" s="171"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="171"/>
-      <c r="J32" s="171"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="171"/>
-      <c r="B33" s="171"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="171"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="171"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="171"/>
-      <c r="B34" s="171"/>
-      <c r="C34" s="171"/>
-      <c r="D34" s="171"/>
-      <c r="E34" s="171"/>
-      <c r="F34" s="171"/>
-      <c r="G34" s="171"/>
-      <c r="H34" s="171"/>
-      <c r="I34" s="171"/>
-      <c r="J34" s="171"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="171"/>
-      <c r="B35" s="171"/>
-      <c r="C35" s="171"/>
-      <c r="D35" s="171"/>
-      <c r="E35" s="171"/>
-      <c r="F35" s="171"/>
-      <c r="G35" s="171"/>
-      <c r="H35" s="171"/>
-      <c r="I35" s="171"/>
-      <c r="J35" s="171"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="171"/>
-      <c r="B36" s="171"/>
-      <c r="C36" s="171"/>
-      <c r="D36" s="171"/>
-      <c r="E36" s="171"/>
-      <c r="F36" s="171"/>
-      <c r="G36" s="171"/>
-      <c r="H36" s="171"/>
-      <c r="I36" s="171"/>
-      <c r="J36" s="171"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="171"/>
-      <c r="B37" s="171"/>
-      <c r="C37" s="171"/>
-      <c r="D37" s="171"/>
-      <c r="E37" s="171"/>
-      <c r="F37" s="171"/>
-      <c r="G37" s="171"/>
-      <c r="H37" s="171"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="171"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="171"/>
-      <c r="B38" s="171"/>
-      <c r="C38" s="171"/>
-      <c r="D38" s="171"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
-      <c r="G38" s="171"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="171"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="171"/>
-      <c r="B39" s="171"/>
-      <c r="C39" s="171"/>
-      <c r="D39" s="171"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="171"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="171"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="171"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="171"/>
-      <c r="B40" s="171"/>
-      <c r="C40" s="171"/>
-      <c r="D40" s="171"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171"/>
-      <c r="G40" s="171"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="171"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="171"/>
-      <c r="B41" s="171"/>
-      <c r="C41" s="171"/>
-      <c r="D41" s="171"/>
-      <c r="E41" s="171"/>
-      <c r="F41" s="171"/>
-      <c r="G41" s="171"/>
-      <c r="H41" s="171"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="171"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="171"/>
-      <c r="B42" s="171"/>
-      <c r="C42" s="171"/>
-      <c r="D42" s="171"/>
-      <c r="E42" s="171"/>
-      <c r="F42" s="171"/>
-      <c r="G42" s="171"/>
-      <c r="H42" s="171"/>
-      <c r="I42" s="171"/>
-      <c r="J42" s="171"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="171"/>
-      <c r="B43" s="171"/>
-      <c r="C43" s="171"/>
-      <c r="D43" s="171"/>
-      <c r="E43" s="171"/>
-      <c r="F43" s="171"/>
-      <c r="G43" s="171"/>
-      <c r="H43" s="171"/>
-      <c r="I43" s="171"/>
-      <c r="J43" s="171"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="171"/>
-      <c r="B44" s="171"/>
-      <c r="C44" s="171"/>
-      <c r="D44" s="171"/>
-      <c r="E44" s="171"/>
-      <c r="F44" s="171"/>
-      <c r="G44" s="171"/>
-      <c r="H44" s="171"/>
-      <c r="I44" s="171"/>
-      <c r="J44" s="171"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC843F6-2887-4BE1-A36B-BE9F1EA31AD0}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="63" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>626</v>
+        <v>575</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>627</v>
+        <v>576</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>628</v>
+        <v>577</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>629</v>
+        <v>578</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>630</v>
+        <v>579</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>631</v>
+        <v>580</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>632</v>
+        <v>581</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>633</v>
+        <v>582</v>
       </c>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>634</v>
+        <v>583</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>635</v>
+        <v>584</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>635</v>
+        <v>584</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>635</v>
+        <v>584</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -8462,7 +7454,7 @@
     </row>
     <row r="3" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>636</v>
+        <v>585</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -8560,87 +7552,87 @@
   <sheetData>
     <row r="1" spans="1:5" ht="93" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="116.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="93" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="93" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="116.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
@@ -8652,7 +7644,7 @@
     </row>
     <row r="7" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -8665,7 +7657,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -8723,25 +7715,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -8750,25 +7742,25 @@
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -8777,7 +7769,7 @@
     </row>
     <row r="3" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -8792,7 +7784,7 @@
     </row>
     <row r="4" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -8800,7 +7792,7 @@
     </row>
     <row r="5" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -8814,7 +7806,7 @@
     </row>
     <row r="7" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -8842,7 +7834,7 @@
     </row>
     <row r="11" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -8868,7 +7860,7 @@
     </row>
     <row r="15" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -8882,10 +7874,10 @@
     </row>
     <row r="17" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>638</v>
+        <v>587</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>644</v>
+        <v>593</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -8894,24 +7886,24 @@
     </row>
     <row r="18" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="175" t="s">
-        <v>639</v>
+        <v>6</v>
+      </c>
+      <c r="B18" s="170" t="s">
+        <v>588</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="175" t="s">
-        <v>643</v>
+        <v>7</v>
+      </c>
+      <c r="B19" s="170" t="s">
+        <v>592</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -8920,10 +7912,10 @@
     </row>
     <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="B20" s="175" t="s">
-        <v>640</v>
+        <v>586</v>
+      </c>
+      <c r="B20" s="170" t="s">
+        <v>589</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -8932,10 +7924,10 @@
     </row>
     <row r="21" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="B21" s="175" t="s">
-        <v>641</v>
+        <v>591</v>
+      </c>
+      <c r="B21" s="170" t="s">
+        <v>590</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -8944,10 +7936,10 @@
     </row>
     <row r="22" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="B22" s="175" t="s">
-        <v>648</v>
+        <v>596</v>
+      </c>
+      <c r="B22" s="170" t="s">
+        <v>597</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -8955,16 +7947,16 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="175"/>
-      <c r="B23" s="175"/>
+      <c r="A23" s="170"/>
+      <c r="B23" s="170"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="175"/>
-      <c r="B24" s="175"/>
+      <c r="A24" s="170"/>
+      <c r="B24" s="170"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -8972,7 +7964,7 @@
     </row>
     <row r="25" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="175"/>
+      <c r="B25" s="170"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -8980,7 +7972,7 @@
     </row>
     <row r="26" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="175"/>
+      <c r="B26" s="170"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -8988,7 +7980,7 @@
     </row>
     <row r="27" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="175"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -8996,7 +7988,7 @@
     </row>
     <row r="28" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="175"/>
+      <c r="B28" s="170"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -9004,10 +7996,10 @@
     </row>
     <row r="29" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B29" s="175" t="s">
-        <v>645</v>
+        <v>156</v>
+      </c>
+      <c r="B29" s="170" t="s">
+        <v>594</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -9016,7 +8008,7 @@
     </row>
     <row r="30" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="175"/>
+      <c r="B30" s="170"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -9167,71 +8159,71 @@
   <sheetData>
     <row r="1" spans="1:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F1" s="9"/>
       <c r="G1" s="13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -9240,67 +8232,67 @@
     </row>
     <row r="5" spans="1:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -9373,91 +8365,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="178" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="178" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" s="178" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" s="178"/>
-      <c r="E1" s="181" t="s">
-        <v>80</v>
+      <c r="A1" s="173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="173" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="173" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="173"/>
+      <c r="E1" s="175" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="178" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="178" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" s="178" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
+      <c r="A2" s="173" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="173" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="173" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
     </row>
     <row r="3" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="178" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="178" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="178" t="s">
-        <v>207</v>
-      </c>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
+      <c r="A3" s="173" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="173" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="173" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
     </row>
     <row r="4" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="178" t="s">
-        <v>199</v>
-      </c>
-      <c r="B4" s="178" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="178" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
+      <c r="A4" s="173" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="173" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="173" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
     </row>
     <row r="5" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="178" t="s">
-        <v>203</v>
-      </c>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
+      <c r="A5" s="173"/>
+      <c r="B5" s="173" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="173" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
     </row>
     <row r="6" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="178" t="s">
-        <v>205</v>
-      </c>
-      <c r="B6" s="178" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="180"/>
+      <c r="A6" s="173" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="173" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
     </row>
     <row r="7" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="178" t="s">
-        <v>208</v>
-      </c>
-      <c r="B7" s="178" t="s">
-        <v>204</v>
-      </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
+      <c r="A7" s="173" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="173" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9490,7 +8482,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9508,277 +8500,277 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="188"/>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189"/>
-      <c r="G5" s="189"/>
-      <c r="H5" s="189"/>
-      <c r="I5" s="190"/>
+      <c r="A5" s="180"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="188"/>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="190"/>
+      <c r="A7" s="180"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="182"/>
     </row>
     <row r="8" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="188"/>
-      <c r="B10" s="189"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="190"/>
+      <c r="A10" s="180"/>
+      <c r="B10" s="181"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="182"/>
     </row>
     <row r="11" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="188"/>
-      <c r="B13" s="191"/>
-      <c r="C13" s="191"/>
-      <c r="D13" s="191"/>
-      <c r="E13" s="191"/>
-      <c r="F13" s="191"/>
-      <c r="G13" s="191"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="190"/>
+      <c r="A13" s="180"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="182"/>
     </row>
     <row r="14" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="8" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
@@ -9798,19 +8790,19 @@
     </row>
     <row r="17" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
@@ -9824,16 +8816,16 @@
     </row>
     <row r="19" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="E19" s="23"/>
     </row>
@@ -9846,13 +8838,13 @@
     </row>
     <row r="21" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -9955,9 +8947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9E160F-CFAE-4805-A95E-347ED9096EB7}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9966,19 +8956,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9989,16 +8979,16 @@
     </row>
     <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -10035,10 +9025,10 @@
       <c r="A9" s="24"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
@@ -10061,13 +9051,13 @@
     </row>
     <row r="17" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -10118,80 +9108,80 @@
   <sheetData>
     <row r="1" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="E1" s="198"/>
-      <c r="F1" s="199" t="s">
-        <v>315</v>
-      </c>
-      <c r="G1" s="200"/>
-      <c r="I1" s="201" t="s">
-        <v>358</v>
-      </c>
-      <c r="J1" s="202"/>
-      <c r="L1" s="192" t="s">
-        <v>80</v>
+        <v>295</v>
+      </c>
+      <c r="E1" s="190"/>
+      <c r="F1" s="191" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1" s="192"/>
+      <c r="I1" s="193" t="s">
+        <v>340</v>
+      </c>
+      <c r="J1" s="194"/>
+      <c r="L1" s="184" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="B2" s="30">
         <v>77.5</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="D2" s="30">
         <v>18</v>
       </c>
-      <c r="E2" s="198"/>
+      <c r="E2" s="190"/>
       <c r="F2" s="25" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="J2" s="53">
         <v>1.5</v>
       </c>
-      <c r="L2" s="193"/>
+      <c r="L2" s="185"/>
     </row>
     <row r="3" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="B3" s="35">
         <v>98</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="D3" s="35">
         <v>22</v>
       </c>
-      <c r="E3" s="198"/>
+      <c r="E3" s="190"/>
       <c r="F3" s="37" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="G3" s="30">
         <v>132</v>
       </c>
       <c r="I3" s="52" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="J3" s="53">
         <v>1.5</v>
@@ -10199,53 +9189,53 @@
     </row>
     <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="B4" s="35">
         <v>76</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="D4" s="35">
         <v>22</v>
       </c>
-      <c r="E4" s="198"/>
+      <c r="E4" s="190"/>
       <c r="F4" s="38" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="G4" s="30">
         <v>120</v>
       </c>
       <c r="I4" s="52" t="s">
-        <v>367</v>
-      </c>
-      <c r="J4" s="176" t="s">
-        <v>368</v>
+        <v>349</v>
+      </c>
+      <c r="J4" s="171" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="B5" s="35">
         <v>61</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="D5" s="40">
         <v>22</v>
       </c>
-      <c r="E5" s="198"/>
+      <c r="E5" s="190"/>
       <c r="F5" s="38" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="G5" s="35">
         <v>128</v>
       </c>
       <c r="I5" s="52" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="J5" s="53">
         <v>4.7</v>
@@ -10255,20 +9245,20 @@
       <c r="A6" s="34"/>
       <c r="B6" s="41"/>
       <c r="C6" s="36" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="D6" s="35">
         <v>40</v>
       </c>
-      <c r="E6" s="198"/>
+      <c r="E6" s="190"/>
       <c r="F6" s="38" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="G6" s="35">
         <v>100</v>
       </c>
       <c r="I6" s="52" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="J6" s="53">
         <v>2</v>
@@ -10278,18 +9268,18 @@
       <c r="A7" s="34"/>
       <c r="B7" s="35"/>
       <c r="C7" s="36" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>342</v>
-      </c>
-      <c r="E7" s="198"/>
+        <v>324</v>
+      </c>
+      <c r="E7" s="190"/>
       <c r="F7" s="43" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="G7" s="44"/>
       <c r="I7" s="52" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="J7" s="53">
         <v>0.4</v>
@@ -10299,18 +9289,18 @@
       <c r="A8" s="34"/>
       <c r="B8" s="35"/>
       <c r="C8" s="36" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="D8" s="35"/>
-      <c r="E8" s="198"/>
+      <c r="E8" s="190"/>
       <c r="F8" s="25" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="I8" s="52" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="J8" s="53"/>
     </row>
@@ -10319,203 +9309,203 @@
       <c r="B9" s="41"/>
       <c r="C9" s="36"/>
       <c r="D9" s="41"/>
-      <c r="E9" s="198"/>
+      <c r="E9" s="190"/>
       <c r="F9" s="45" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="G9" s="30">
         <v>143</v>
       </c>
       <c r="I9" s="61" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="J9" s="62"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="35"/>
-      <c r="E10" s="198"/>
+      <c r="E10" s="190"/>
       <c r="F10" s="38"/>
       <c r="G10" s="35"/>
-      <c r="I10" s="199" t="s">
-        <v>386</v>
-      </c>
-      <c r="J10" s="200"/>
+      <c r="I10" s="191" t="s">
+        <v>368</v>
+      </c>
+      <c r="J10" s="192"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>357</v>
-      </c>
-      <c r="E11" s="198"/>
+        <v>339</v>
+      </c>
+      <c r="E11" s="190"/>
       <c r="F11" s="38"/>
       <c r="G11" s="35"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="51" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="E12" s="198"/>
+        <v>295</v>
+      </c>
+      <c r="E12" s="190"/>
       <c r="F12" s="38"/>
       <c r="G12" s="35"/>
-      <c r="I12" s="194" t="s">
-        <v>317</v>
-      </c>
-      <c r="J12" s="195"/>
+      <c r="I12" s="186" t="s">
+        <v>299</v>
+      </c>
+      <c r="J12" s="187"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="B13" s="30">
         <v>69</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="D13" s="30">
         <v>41</v>
       </c>
-      <c r="E13" s="198"/>
+      <c r="E13" s="190"/>
       <c r="F13" s="43"/>
       <c r="G13" s="44"/>
       <c r="I13" s="33" t="s">
-        <v>651</v>
+        <v>600</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="54" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="B14" s="35">
         <v>23</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="D14" s="30">
         <v>84</v>
       </c>
-      <c r="E14" s="198"/>
+      <c r="E14" s="190"/>
       <c r="F14" s="25" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="G14" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="I14" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="I14" s="33" t="s">
-        <v>331</v>
-      </c>
       <c r="J14" s="33" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="D15" s="35">
         <v>169</v>
       </c>
-      <c r="E15" s="198"/>
+      <c r="E15" s="190"/>
       <c r="F15" s="45" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="G15" s="30">
         <v>120</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="B16" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="C16" s="38" t="s">
         <v>354</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>372</v>
       </c>
       <c r="D16" s="35">
         <v>142</v>
       </c>
-      <c r="E16" s="198"/>
+      <c r="E16" s="190"/>
       <c r="F16" s="38"/>
       <c r="G16" s="35"/>
       <c r="I16" s="33" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>650</v>
+        <v>599</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="55" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="D17" s="35">
         <v>35</v>
       </c>
-      <c r="E17" s="198"/>
+      <c r="E17" s="190"/>
       <c r="F17" s="38"/>
       <c r="G17" s="35"/>
       <c r="I17" s="47" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="D18" s="35">
         <v>120</v>
@@ -10525,115 +9515,115 @@
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="58" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D19" s="35">
         <v>100</v>
       </c>
       <c r="F19" s="43"/>
       <c r="G19" s="44"/>
-      <c r="I19" s="196" t="s">
-        <v>316</v>
-      </c>
-      <c r="J19" s="197"/>
+      <c r="I19" s="188" t="s">
+        <v>298</v>
+      </c>
+      <c r="J19" s="189"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="52" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="D20" s="40">
         <v>75</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="J20" s="32" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="D21" s="57" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="61" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="B22" s="65" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="J22" s="42" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="50"/>
       <c r="D23" s="44"/>
       <c r="I23" s="32" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I24" s="46" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="J24" s="46"/>
     </row>
     <row r="26" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:10" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="66" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="C27" s="68" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="D27" s="69" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="E27" s="70"/>
       <c r="F27" s="71" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
